--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9620556833084689</v>
+        <v>0.962055683308467</v>
       </c>
       <c r="D2">
-        <v>0.9855546898237603</v>
+        <v>0.985554689823759</v>
       </c>
       <c r="E2">
-        <v>0.9705121916277384</v>
+        <v>0.9705121916277364</v>
       </c>
       <c r="F2">
-        <v>0.9651062353164911</v>
+        <v>0.9651062353164892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029191572290731</v>
+        <v>1.02919157229073</v>
       </c>
       <c r="J2">
-        <v>0.9854337203623582</v>
+        <v>0.9854337203623563</v>
       </c>
       <c r="K2">
-        <v>0.9972190079134365</v>
+        <v>0.9972190079134352</v>
       </c>
       <c r="L2">
-        <v>0.9823982205928268</v>
+        <v>0.9823982205928247</v>
       </c>
       <c r="M2">
-        <v>0.9770740946732593</v>
+        <v>0.9770740946732575</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9762781003250848</v>
+        <v>0.9762781003250853</v>
       </c>
       <c r="D3">
-        <v>0.9966810368776455</v>
+        <v>0.9966810368776463</v>
       </c>
       <c r="E3">
-        <v>0.984118032233489</v>
+        <v>0.9841180322334896</v>
       </c>
       <c r="F3">
-        <v>0.9795668955661696</v>
+        <v>0.9795668955661702</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.034324758610718</v>
       </c>
       <c r="J3">
-        <v>0.9974370231694055</v>
+        <v>0.9974370231694061</v>
       </c>
       <c r="K3">
         <v>1.007356561343902</v>
       </c>
       <c r="L3">
-        <v>0.9949582417133876</v>
+        <v>0.9949582417133882</v>
       </c>
       <c r="M3">
-        <v>0.9904680747126721</v>
+        <v>0.990468074712673</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9849401879538993</v>
+        <v>0.9849401879538978</v>
       </c>
       <c r="D4">
-        <v>1.003455931526078</v>
+        <v>1.003455931526077</v>
       </c>
       <c r="E4">
-        <v>0.9924120137316713</v>
+        <v>0.9924120137316697</v>
       </c>
       <c r="F4">
-        <v>0.9883838186652182</v>
+        <v>0.9883838186652167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037427257081007</v>
+        <v>1.037427257081006</v>
       </c>
       <c r="J4">
-        <v>1.004737131182409</v>
+        <v>1.004737131182408</v>
       </c>
       <c r="K4">
-        <v>1.013512824686058</v>
+        <v>1.013512824686057</v>
       </c>
       <c r="L4">
-        <v>1.002602890084428</v>
+        <v>1.002602890084426</v>
       </c>
       <c r="M4">
-        <v>0.9986244925109506</v>
+        <v>0.9986244925109494</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.006213287666167</v>
       </c>
       <c r="E5">
-        <v>0.9957900610242865</v>
+        <v>0.9957900610242868</v>
       </c>
       <c r="F5">
         <v>0.991975403173285</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9890521974662667</v>
+        <v>0.9890521974662663</v>
       </c>
       <c r="D6">
-        <v>1.006671213411161</v>
+        <v>1.00667121341116</v>
       </c>
       <c r="E6">
-        <v>0.9963512157107417</v>
+        <v>0.9963512157107415</v>
       </c>
       <c r="F6">
-        <v>0.9925720652709481</v>
+        <v>0.9925720652709475</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.038892912330271</v>
       </c>
       <c r="J6">
-        <v>1.008199380388494</v>
+        <v>1.008199380388493</v>
       </c>
       <c r="K6">
-        <v>1.016429816119886</v>
+        <v>1.016429816119885</v>
       </c>
       <c r="L6">
         <v>1.006230275217873</v>
       </c>
       <c r="M6">
-        <v>1.002496012396532</v>
+        <v>1.002496012396531</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9849877426626983</v>
+        <v>0.9849877426626963</v>
       </c>
       <c r="D7">
-        <v>1.00349311941732</v>
+        <v>1.003493119417318</v>
       </c>
       <c r="E7">
-        <v>0.9924575628496016</v>
+        <v>0.9924575628495992</v>
       </c>
       <c r="F7">
-        <v>0.9884322447792504</v>
+        <v>0.9884322447792487</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037444234478828</v>
+        <v>1.037444234478827</v>
       </c>
       <c r="J7">
-        <v>1.004777183897248</v>
+        <v>1.004777183897246</v>
       </c>
       <c r="K7">
-        <v>1.013546580239137</v>
+        <v>1.013546580239135</v>
       </c>
       <c r="L7">
-        <v>1.002644846598459</v>
+        <v>1.002644846598457</v>
       </c>
       <c r="M7">
-        <v>0.998669267804421</v>
+        <v>0.9986692678044192</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9669836663917972</v>
+        <v>0.9669836663917944</v>
       </c>
       <c r="D8">
-        <v>0.9894100178934809</v>
+        <v>0.9894100178934784</v>
       </c>
       <c r="E8">
-        <v>0.9752248028289944</v>
+        <v>0.9752248028289913</v>
       </c>
       <c r="F8">
-        <v>0.970114601224725</v>
+        <v>0.9701146012247225</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030975254567754</v>
+        <v>1.030975254567753</v>
       </c>
       <c r="J8">
-        <v>0.9895949643105333</v>
+        <v>0.9895949643105305</v>
       </c>
       <c r="K8">
-        <v>1.000735374103138</v>
+        <v>1.000735374103135</v>
       </c>
       <c r="L8">
-        <v>0.9867511676867691</v>
+        <v>0.9867511676867661</v>
       </c>
       <c r="M8">
-        <v>0.9817152064830706</v>
+        <v>0.981715206483068</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9302833589063111</v>
+        <v>0.9302833589063062</v>
       </c>
       <c r="D9">
-        <v>0.9607093750147204</v>
+        <v>0.9607093750147168</v>
       </c>
       <c r="E9">
-        <v>0.9401740106145985</v>
+        <v>0.9401740106145936</v>
       </c>
       <c r="F9">
-        <v>0.9328664623116891</v>
+        <v>0.9328664623116846</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017587402956558</v>
+        <v>1.017587402956556</v>
       </c>
       <c r="J9">
-        <v>0.9585632685218247</v>
+        <v>0.9585632685218202</v>
       </c>
       <c r="K9">
-        <v>0.9744737928626159</v>
+        <v>0.9744737928626118</v>
       </c>
       <c r="L9">
-        <v>0.9543185131913043</v>
+        <v>0.9543185131912995</v>
       </c>
       <c r="M9">
-        <v>0.947151511863997</v>
+        <v>0.9471515118639926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9008187305992917</v>
+        <v>0.9008187305992922</v>
       </c>
       <c r="D10">
-        <v>0.9377140323582019</v>
+        <v>0.9377140323582026</v>
       </c>
       <c r="E10">
-        <v>0.9121140244980748</v>
+        <v>0.912114024498075</v>
       </c>
       <c r="F10">
-        <v>0.9030395826260376</v>
+        <v>0.9030395826260385</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.006710081913416</v>
       </c>
       <c r="J10">
-        <v>0.9336062217805366</v>
+        <v>0.9336062217805372</v>
       </c>
       <c r="K10">
-        <v>0.9533069513254282</v>
+        <v>0.9533069513254289</v>
       </c>
       <c r="L10">
-        <v>0.9282747105899494</v>
+        <v>0.9282747105899497</v>
       </c>
       <c r="M10">
-        <v>0.9194118897730356</v>
+        <v>0.9194118897730363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8862603451970332</v>
+        <v>0.8862603451970364</v>
       </c>
       <c r="D11">
-        <v>0.9263785854188346</v>
+        <v>0.9263785854188372</v>
       </c>
       <c r="E11">
-        <v>0.898278239862591</v>
+        <v>0.8982782398625943</v>
       </c>
       <c r="F11">
-        <v>0.8883252989006428</v>
+        <v>0.8883252989006459</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.001309674019873</v>
+        <v>1.001309674019875</v>
       </c>
       <c r="J11">
-        <v>0.9212706381509026</v>
+        <v>0.9212706381509056</v>
       </c>
       <c r="K11">
-        <v>0.9428365988340194</v>
+        <v>0.9428365988340219</v>
       </c>
       <c r="L11">
-        <v>0.9154123044858009</v>
+        <v>0.9154123044858038</v>
       </c>
       <c r="M11">
-        <v>0.9057127147051445</v>
+        <v>0.9057127147051476</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8804967348882793</v>
+        <v>0.8804967348882797</v>
       </c>
       <c r="D12">
-        <v>0.921896927386481</v>
+        <v>0.9218969273864814</v>
       </c>
       <c r="E12">
-        <v>0.8928062166358958</v>
+        <v>0.8928062166358963</v>
       </c>
       <c r="F12">
-        <v>0.8825039977027392</v>
+        <v>0.8825039977027398</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9991684704277981</v>
+        <v>0.9991684704277985</v>
       </c>
       <c r="J12">
-        <v>0.9163872130596676</v>
+        <v>0.9163872130596681</v>
       </c>
       <c r="K12">
-        <v>0.938690762087712</v>
+        <v>0.9386907620877123</v>
       </c>
       <c r="L12">
-        <v>0.9103219552861104</v>
+        <v>0.9103219552861108</v>
       </c>
       <c r="M12">
-        <v>0.9002909155609906</v>
+        <v>0.9002909155609912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8817510182558213</v>
+        <v>0.8817510182558184</v>
       </c>
       <c r="D13">
-        <v>0.9228719199920122</v>
+        <v>0.9228719199920101</v>
       </c>
       <c r="E13">
-        <v>0.8939967724359429</v>
+        <v>0.8939967724359401</v>
       </c>
       <c r="F13">
-        <v>0.8837706441352632</v>
+        <v>0.8837706441352609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9996345701430847</v>
+        <v>0.9996345701430837</v>
       </c>
       <c r="J13">
-        <v>0.9174499231913216</v>
+        <v>0.9174499231913189</v>
       </c>
       <c r="K13">
-        <v>0.9395929895649209</v>
+        <v>0.9395929895649189</v>
       </c>
       <c r="L13">
-        <v>0.9114296205837313</v>
+        <v>0.9114296205837288</v>
       </c>
       <c r="M13">
-        <v>0.9014707266200632</v>
+        <v>0.9014707266200609</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8857918369694002</v>
+        <v>0.8857918369693988</v>
       </c>
       <c r="D14">
-        <v>0.9260141492009155</v>
+        <v>0.9260141492009146</v>
       </c>
       <c r="E14">
-        <v>0.8978333151900483</v>
+        <v>0.8978333151900466</v>
       </c>
       <c r="F14">
-        <v>0.8878520168117331</v>
+        <v>0.8878520168117318</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.001135680152775</v>
       </c>
       <c r="J14">
-        <v>0.9208736678277131</v>
+        <v>0.9208736678277119</v>
       </c>
       <c r="K14">
-        <v>0.9424995999730058</v>
+        <v>0.942499599973005</v>
       </c>
       <c r="L14">
-        <v>0.9149984802679176</v>
+        <v>0.9149984802679161</v>
       </c>
       <c r="M14">
-        <v>0.9052719538921566</v>
+        <v>0.9052719538921554</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8882310596123926</v>
+        <v>0.8882310596123947</v>
       </c>
       <c r="D15">
-        <v>0.9279117886968385</v>
+        <v>0.9279117886968405</v>
       </c>
       <c r="E15">
-        <v>0.9001499814223721</v>
+        <v>0.900149981422374</v>
       </c>
       <c r="F15">
-        <v>0.8903162582373596</v>
+        <v>0.8903162582373619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.002041432214421</v>
+        <v>1.002041432214422</v>
       </c>
       <c r="J15">
-        <v>0.922940451735759</v>
+        <v>0.9229404517357607</v>
       </c>
       <c r="K15">
-        <v>0.9442541189319458</v>
+        <v>0.9442541189319474</v>
       </c>
       <c r="L15">
-        <v>0.9171530778856155</v>
+        <v>0.9171530778856172</v>
       </c>
       <c r="M15">
-        <v>0.9075667836725414</v>
+        <v>0.9075667836725435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9017405926925894</v>
+        <v>0.9017405926925874</v>
       </c>
       <c r="D16">
-        <v>0.9384324843461653</v>
+        <v>0.9384324843461641</v>
       </c>
       <c r="E16">
-        <v>0.9129907859130127</v>
+        <v>0.9129907859130107</v>
       </c>
       <c r="F16">
-        <v>0.903971816066467</v>
+        <v>0.9039718160664653</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.007051579064423</v>
       </c>
       <c r="J16">
-        <v>0.9343873052621818</v>
+        <v>0.9343873052621799</v>
       </c>
       <c r="K16">
-        <v>0.9539697958798857</v>
+        <v>0.9539697958798844</v>
       </c>
       <c r="L16">
-        <v>0.9290893637105077</v>
+        <v>0.9290893637105058</v>
       </c>
       <c r="M16">
-        <v>0.9202795263654683</v>
+        <v>0.9202795263654664</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9096840292266388</v>
+        <v>0.9096840292266373</v>
       </c>
       <c r="D17">
-        <v>0.9446261783623108</v>
+        <v>0.9446261783623096</v>
       </c>
       <c r="E17">
-        <v>0.9205487554546183</v>
+        <v>0.9205487554546169</v>
       </c>
       <c r="F17">
-        <v>0.9120071388958443</v>
+        <v>0.9120071388958431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009991433226851</v>
+        <v>1.00999143322685</v>
       </c>
       <c r="J17">
-        <v>0.9411172789297489</v>
+        <v>0.9411172789297475</v>
       </c>
       <c r="K17">
-        <v>0.9596801518081822</v>
+        <v>0.959680151808181</v>
       </c>
       <c r="L17">
-        <v>0.9361096951302958</v>
+        <v>0.9361096951302944</v>
       </c>
       <c r="M17">
-        <v>0.9277564993168357</v>
+        <v>0.9277564993168346</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9141509113115718</v>
+        <v>0.9141509113115743</v>
       </c>
       <c r="D18">
-        <v>0.948111318872326</v>
+        <v>0.9481113188723277</v>
       </c>
       <c r="E18">
-        <v>0.9248013230140362</v>
+        <v>0.9248013230140389</v>
       </c>
       <c r="F18">
-        <v>0.9165277020910552</v>
+        <v>0.9165277020910574</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011642261634926</v>
+        <v>1.011642261634927</v>
       </c>
       <c r="J18">
-        <v>0.9449013339510718</v>
+        <v>0.9449013339510741</v>
       </c>
       <c r="K18">
-        <v>0.9628901519112398</v>
+        <v>0.9628901519112414</v>
       </c>
       <c r="L18">
-        <v>0.9400579210669165</v>
+        <v>0.9400579210669192</v>
       </c>
       <c r="M18">
-        <v>0.9319616378481662</v>
+        <v>0.9319616378481684</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9156477724899146</v>
+        <v>0.9156477724899179</v>
       </c>
       <c r="D19">
-        <v>0.9492795256593579</v>
+        <v>0.9492795256593607</v>
       </c>
       <c r="E19">
-        <v>0.9262267554202013</v>
+        <v>0.9262267554202047</v>
       </c>
       <c r="F19">
-        <v>0.9180428804210359</v>
+        <v>0.918042880421039</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012195042283529</v>
+        <v>1.01219504228353</v>
       </c>
       <c r="J19">
-        <v>0.9461692833978509</v>
+        <v>0.9461692833978539</v>
       </c>
       <c r="K19">
-        <v>0.9639656118571936</v>
+        <v>0.9639656118571962</v>
       </c>
       <c r="L19">
-        <v>0.9413810331636487</v>
+        <v>0.941381033163652</v>
       </c>
       <c r="M19">
-        <v>0.9333708707921027</v>
+        <v>0.9333708707921059</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9088494775030928</v>
+        <v>0.9088494775030934</v>
       </c>
       <c r="D20">
-        <v>0.9439752156675522</v>
+        <v>0.9439752156675526</v>
       </c>
       <c r="E20">
-        <v>0.9197544381931891</v>
+        <v>0.9197544381931892</v>
       </c>
       <c r="F20">
-        <v>0.9111627194949604</v>
+        <v>0.9111627194949609</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.009682810342615</v>
       </c>
       <c r="J20">
-        <v>0.9404102587290838</v>
+        <v>0.9404102587290841</v>
       </c>
       <c r="K20">
-        <v>0.9590803250132066</v>
+        <v>0.9590803250132071</v>
       </c>
       <c r="L20">
-        <v>0.9353720751714404</v>
+        <v>0.9353720751714407</v>
       </c>
       <c r="M20">
-        <v>0.9269708923835851</v>
+        <v>0.9269708923835854</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8846126496605659</v>
+        <v>0.8846126496605672</v>
       </c>
       <c r="D21">
-        <v>0.9250970042183023</v>
+        <v>0.9250970042183035</v>
       </c>
       <c r="E21">
-        <v>0.8967135778490177</v>
+        <v>0.8967135778490188</v>
       </c>
       <c r="F21">
-        <v>0.8866608804246688</v>
+        <v>0.8866608804246698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.000697707467666</v>
+        <v>1.000697707467667</v>
       </c>
       <c r="J21">
-        <v>0.9198745406397413</v>
+        <v>0.9198745406397423</v>
       </c>
       <c r="K21">
-        <v>0.9416514025010613</v>
+        <v>0.9416514025010624</v>
       </c>
       <c r="L21">
-        <v>0.9139569601101073</v>
+        <v>0.9139569601101085</v>
       </c>
       <c r="M21">
-        <v>0.9041626328187832</v>
+        <v>0.9041626328187841</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.867232906642787</v>
+        <v>0.8672329066427894</v>
       </c>
       <c r="D22">
-        <v>0.9115978401116791</v>
+        <v>0.9115978401116812</v>
       </c>
       <c r="E22">
-        <v>0.8802257713690761</v>
+        <v>0.8802257713690785</v>
       </c>
       <c r="F22">
-        <v>0.8691158759979253</v>
+        <v>0.8691158759979279</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9942360074141164</v>
+        <v>0.9942360074141176</v>
       </c>
       <c r="J22">
-        <v>0.9051507084147756</v>
+        <v>0.9051507084147778</v>
       </c>
       <c r="K22">
-        <v>0.9291505260771956</v>
+        <v>0.9291505260771975</v>
       </c>
       <c r="L22">
-        <v>0.8986125333524136</v>
+        <v>0.8986125333524162</v>
       </c>
       <c r="M22">
-        <v>0.8878178223421913</v>
+        <v>0.8878178223421939</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8766910809748713</v>
+        <v>0.8766910809748711</v>
       </c>
       <c r="D23">
-        <v>0.9189397708137181</v>
+        <v>0.9189397708137179</v>
       </c>
       <c r="E23">
-        <v>0.8891948569527036</v>
+        <v>0.8891948569527033</v>
       </c>
       <c r="F23">
-        <v>0.8786614809780428</v>
+        <v>0.8786614809780423</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>0.9977538701207567</v>
       </c>
       <c r="J23">
-        <v>0.913162935201008</v>
+        <v>0.9131629352010078</v>
       </c>
       <c r="K23">
-        <v>0.9359533140081611</v>
+        <v>0.9359533140081607</v>
       </c>
       <c r="L23">
-        <v>0.9069615306110136</v>
+        <v>0.9069615306110134</v>
       </c>
       <c r="M23">
-        <v>0.8967115283270093</v>
+        <v>0.8967115283270091</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9092270838294886</v>
+        <v>0.9092270838294892</v>
       </c>
       <c r="D24">
-        <v>0.9442697474122036</v>
+        <v>0.9442697474122042</v>
       </c>
       <c r="E24">
-        <v>0.9201138321912393</v>
+        <v>0.9201138321912402</v>
       </c>
       <c r="F24">
-        <v>0.9115447843405384</v>
+        <v>0.9115447843405393</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.009822459164167</v>
       </c>
       <c r="J24">
-        <v>0.9407301628451652</v>
+        <v>0.940730162845166</v>
       </c>
       <c r="K24">
-        <v>0.9593517299246098</v>
+        <v>0.9593517299246105</v>
       </c>
       <c r="L24">
-        <v>0.9357058218480951</v>
+        <v>0.9357058218480958</v>
       </c>
       <c r="M24">
-        <v>0.9273263511182643</v>
+        <v>0.9273263511182652</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9404993246519955</v>
+        <v>0.9404993246519932</v>
       </c>
       <c r="D25">
-        <v>0.9686944840501464</v>
+        <v>0.9686944840501441</v>
       </c>
       <c r="E25">
-        <v>0.9499200591627608</v>
+        <v>0.9499200591627579</v>
       </c>
       <c r="F25">
-        <v>0.9432235482975874</v>
+        <v>0.9432235482975848</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021335813974043</v>
+        <v>1.021335813974041</v>
       </c>
       <c r="J25">
-        <v>0.9672095776972184</v>
+        <v>0.9672095776972159</v>
       </c>
       <c r="K25">
-        <v>0.9817990296184913</v>
+        <v>0.9817990296184891</v>
       </c>
       <c r="L25">
-        <v>0.9633489599947921</v>
+        <v>0.9633489599947894</v>
       </c>
       <c r="M25">
-        <v>0.9567722024449092</v>
+        <v>0.9567722024449069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.962055683308467</v>
+        <v>0.9620556833084689</v>
       </c>
       <c r="D2">
-        <v>0.985554689823759</v>
+        <v>0.9855546898237603</v>
       </c>
       <c r="E2">
-        <v>0.9705121916277364</v>
+        <v>0.9705121916277384</v>
       </c>
       <c r="F2">
-        <v>0.9651062353164892</v>
+        <v>0.9651062353164911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02919157229073</v>
+        <v>1.029191572290731</v>
       </c>
       <c r="J2">
-        <v>0.9854337203623563</v>
+        <v>0.9854337203623582</v>
       </c>
       <c r="K2">
-        <v>0.9972190079134352</v>
+        <v>0.9972190079134365</v>
       </c>
       <c r="L2">
-        <v>0.9823982205928247</v>
+        <v>0.9823982205928268</v>
       </c>
       <c r="M2">
-        <v>0.9770740946732575</v>
+        <v>0.9770740946732593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9762781003250853</v>
+        <v>0.9762781003250848</v>
       </c>
       <c r="D3">
-        <v>0.9966810368776463</v>
+        <v>0.9966810368776455</v>
       </c>
       <c r="E3">
-        <v>0.9841180322334896</v>
+        <v>0.984118032233489</v>
       </c>
       <c r="F3">
-        <v>0.9795668955661702</v>
+        <v>0.9795668955661696</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.034324758610718</v>
       </c>
       <c r="J3">
-        <v>0.9974370231694061</v>
+        <v>0.9974370231694055</v>
       </c>
       <c r="K3">
         <v>1.007356561343902</v>
       </c>
       <c r="L3">
-        <v>0.9949582417133882</v>
+        <v>0.9949582417133876</v>
       </c>
       <c r="M3">
-        <v>0.990468074712673</v>
+        <v>0.9904680747126721</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9849401879538978</v>
+        <v>0.9849401879538993</v>
       </c>
       <c r="D4">
-        <v>1.003455931526077</v>
+        <v>1.003455931526078</v>
       </c>
       <c r="E4">
-        <v>0.9924120137316697</v>
+        <v>0.9924120137316713</v>
       </c>
       <c r="F4">
-        <v>0.9883838186652167</v>
+        <v>0.9883838186652182</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037427257081006</v>
+        <v>1.037427257081007</v>
       </c>
       <c r="J4">
-        <v>1.004737131182408</v>
+        <v>1.004737131182409</v>
       </c>
       <c r="K4">
-        <v>1.013512824686057</v>
+        <v>1.013512824686058</v>
       </c>
       <c r="L4">
-        <v>1.002602890084426</v>
+        <v>1.002602890084428</v>
       </c>
       <c r="M4">
-        <v>0.9986244925109494</v>
+        <v>0.9986244925109506</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.006213287666167</v>
       </c>
       <c r="E5">
-        <v>0.9957900610242868</v>
+        <v>0.9957900610242865</v>
       </c>
       <c r="F5">
         <v>0.991975403173285</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9890521974662663</v>
+        <v>0.9890521974662667</v>
       </c>
       <c r="D6">
-        <v>1.00667121341116</v>
+        <v>1.006671213411161</v>
       </c>
       <c r="E6">
-        <v>0.9963512157107415</v>
+        <v>0.9963512157107417</v>
       </c>
       <c r="F6">
-        <v>0.9925720652709475</v>
+        <v>0.9925720652709481</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.038892912330271</v>
       </c>
       <c r="J6">
-        <v>1.008199380388493</v>
+        <v>1.008199380388494</v>
       </c>
       <c r="K6">
-        <v>1.016429816119885</v>
+        <v>1.016429816119886</v>
       </c>
       <c r="L6">
         <v>1.006230275217873</v>
       </c>
       <c r="M6">
-        <v>1.002496012396531</v>
+        <v>1.002496012396532</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9849877426626963</v>
+        <v>0.9849877426626983</v>
       </c>
       <c r="D7">
-        <v>1.003493119417318</v>
+        <v>1.00349311941732</v>
       </c>
       <c r="E7">
-        <v>0.9924575628495992</v>
+        <v>0.9924575628496016</v>
       </c>
       <c r="F7">
-        <v>0.9884322447792487</v>
+        <v>0.9884322447792504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037444234478827</v>
+        <v>1.037444234478828</v>
       </c>
       <c r="J7">
-        <v>1.004777183897246</v>
+        <v>1.004777183897248</v>
       </c>
       <c r="K7">
-        <v>1.013546580239135</v>
+        <v>1.013546580239137</v>
       </c>
       <c r="L7">
-        <v>1.002644846598457</v>
+        <v>1.002644846598459</v>
       </c>
       <c r="M7">
-        <v>0.9986692678044192</v>
+        <v>0.998669267804421</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9669836663917944</v>
+        <v>0.9669836663917972</v>
       </c>
       <c r="D8">
-        <v>0.9894100178934784</v>
+        <v>0.9894100178934809</v>
       </c>
       <c r="E8">
-        <v>0.9752248028289913</v>
+        <v>0.9752248028289944</v>
       </c>
       <c r="F8">
-        <v>0.9701146012247225</v>
+        <v>0.970114601224725</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030975254567753</v>
+        <v>1.030975254567754</v>
       </c>
       <c r="J8">
-        <v>0.9895949643105305</v>
+        <v>0.9895949643105333</v>
       </c>
       <c r="K8">
-        <v>1.000735374103135</v>
+        <v>1.000735374103138</v>
       </c>
       <c r="L8">
-        <v>0.9867511676867661</v>
+        <v>0.9867511676867691</v>
       </c>
       <c r="M8">
-        <v>0.981715206483068</v>
+        <v>0.9817152064830706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9302833589063062</v>
+        <v>0.9302833589063111</v>
       </c>
       <c r="D9">
-        <v>0.9607093750147168</v>
+        <v>0.9607093750147204</v>
       </c>
       <c r="E9">
-        <v>0.9401740106145936</v>
+        <v>0.9401740106145985</v>
       </c>
       <c r="F9">
-        <v>0.9328664623116846</v>
+        <v>0.9328664623116891</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017587402956556</v>
+        <v>1.017587402956558</v>
       </c>
       <c r="J9">
-        <v>0.9585632685218202</v>
+        <v>0.9585632685218247</v>
       </c>
       <c r="K9">
-        <v>0.9744737928626118</v>
+        <v>0.9744737928626159</v>
       </c>
       <c r="L9">
-        <v>0.9543185131912995</v>
+        <v>0.9543185131913043</v>
       </c>
       <c r="M9">
-        <v>0.9471515118639926</v>
+        <v>0.947151511863997</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9008187305992922</v>
+        <v>0.9008187305992917</v>
       </c>
       <c r="D10">
-        <v>0.9377140323582026</v>
+        <v>0.9377140323582019</v>
       </c>
       <c r="E10">
-        <v>0.912114024498075</v>
+        <v>0.9121140244980748</v>
       </c>
       <c r="F10">
-        <v>0.9030395826260385</v>
+        <v>0.9030395826260376</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.006710081913416</v>
       </c>
       <c r="J10">
-        <v>0.9336062217805372</v>
+        <v>0.9336062217805366</v>
       </c>
       <c r="K10">
-        <v>0.9533069513254289</v>
+        <v>0.9533069513254282</v>
       </c>
       <c r="L10">
-        <v>0.9282747105899497</v>
+        <v>0.9282747105899494</v>
       </c>
       <c r="M10">
-        <v>0.9194118897730363</v>
+        <v>0.9194118897730356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8862603451970364</v>
+        <v>0.8862603451970332</v>
       </c>
       <c r="D11">
-        <v>0.9263785854188372</v>
+        <v>0.9263785854188346</v>
       </c>
       <c r="E11">
-        <v>0.8982782398625943</v>
+        <v>0.898278239862591</v>
       </c>
       <c r="F11">
-        <v>0.8883252989006459</v>
+        <v>0.8883252989006428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.001309674019875</v>
+        <v>1.001309674019873</v>
       </c>
       <c r="J11">
-        <v>0.9212706381509056</v>
+        <v>0.9212706381509026</v>
       </c>
       <c r="K11">
-        <v>0.9428365988340219</v>
+        <v>0.9428365988340194</v>
       </c>
       <c r="L11">
-        <v>0.9154123044858038</v>
+        <v>0.9154123044858009</v>
       </c>
       <c r="M11">
-        <v>0.9057127147051476</v>
+        <v>0.9057127147051445</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8804967348882797</v>
+        <v>0.8804967348882793</v>
       </c>
       <c r="D12">
-        <v>0.9218969273864814</v>
+        <v>0.921896927386481</v>
       </c>
       <c r="E12">
-        <v>0.8928062166358963</v>
+        <v>0.8928062166358958</v>
       </c>
       <c r="F12">
-        <v>0.8825039977027398</v>
+        <v>0.8825039977027392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9991684704277985</v>
+        <v>0.9991684704277981</v>
       </c>
       <c r="J12">
-        <v>0.9163872130596681</v>
+        <v>0.9163872130596676</v>
       </c>
       <c r="K12">
-        <v>0.9386907620877123</v>
+        <v>0.938690762087712</v>
       </c>
       <c r="L12">
-        <v>0.9103219552861108</v>
+        <v>0.9103219552861104</v>
       </c>
       <c r="M12">
-        <v>0.9002909155609912</v>
+        <v>0.9002909155609906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8817510182558184</v>
+        <v>0.8817510182558213</v>
       </c>
       <c r="D13">
-        <v>0.9228719199920101</v>
+        <v>0.9228719199920122</v>
       </c>
       <c r="E13">
-        <v>0.8939967724359401</v>
+        <v>0.8939967724359429</v>
       </c>
       <c r="F13">
-        <v>0.8837706441352609</v>
+        <v>0.8837706441352632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9996345701430837</v>
+        <v>0.9996345701430847</v>
       </c>
       <c r="J13">
-        <v>0.9174499231913189</v>
+        <v>0.9174499231913216</v>
       </c>
       <c r="K13">
-        <v>0.9395929895649189</v>
+        <v>0.9395929895649209</v>
       </c>
       <c r="L13">
-        <v>0.9114296205837288</v>
+        <v>0.9114296205837313</v>
       </c>
       <c r="M13">
-        <v>0.9014707266200609</v>
+        <v>0.9014707266200632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8857918369693988</v>
+        <v>0.8857918369694002</v>
       </c>
       <c r="D14">
-        <v>0.9260141492009146</v>
+        <v>0.9260141492009155</v>
       </c>
       <c r="E14">
-        <v>0.8978333151900466</v>
+        <v>0.8978333151900483</v>
       </c>
       <c r="F14">
-        <v>0.8878520168117318</v>
+        <v>0.8878520168117331</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.001135680152775</v>
       </c>
       <c r="J14">
-        <v>0.9208736678277119</v>
+        <v>0.9208736678277131</v>
       </c>
       <c r="K14">
-        <v>0.942499599973005</v>
+        <v>0.9424995999730058</v>
       </c>
       <c r="L14">
-        <v>0.9149984802679161</v>
+        <v>0.9149984802679176</v>
       </c>
       <c r="M14">
-        <v>0.9052719538921554</v>
+        <v>0.9052719538921566</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8882310596123947</v>
+        <v>0.8882310596123926</v>
       </c>
       <c r="D15">
-        <v>0.9279117886968405</v>
+        <v>0.9279117886968385</v>
       </c>
       <c r="E15">
-        <v>0.900149981422374</v>
+        <v>0.9001499814223721</v>
       </c>
       <c r="F15">
-        <v>0.8903162582373619</v>
+        <v>0.8903162582373596</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.002041432214422</v>
+        <v>1.002041432214421</v>
       </c>
       <c r="J15">
-        <v>0.9229404517357607</v>
+        <v>0.922940451735759</v>
       </c>
       <c r="K15">
-        <v>0.9442541189319474</v>
+        <v>0.9442541189319458</v>
       </c>
       <c r="L15">
-        <v>0.9171530778856172</v>
+        <v>0.9171530778856155</v>
       </c>
       <c r="M15">
-        <v>0.9075667836725435</v>
+        <v>0.9075667836725414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9017405926925874</v>
+        <v>0.9017405926925894</v>
       </c>
       <c r="D16">
-        <v>0.9384324843461641</v>
+        <v>0.9384324843461653</v>
       </c>
       <c r="E16">
-        <v>0.9129907859130107</v>
+        <v>0.9129907859130127</v>
       </c>
       <c r="F16">
-        <v>0.9039718160664653</v>
+        <v>0.903971816066467</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.007051579064423</v>
       </c>
       <c r="J16">
-        <v>0.9343873052621799</v>
+        <v>0.9343873052621818</v>
       </c>
       <c r="K16">
-        <v>0.9539697958798844</v>
+        <v>0.9539697958798857</v>
       </c>
       <c r="L16">
-        <v>0.9290893637105058</v>
+        <v>0.9290893637105077</v>
       </c>
       <c r="M16">
-        <v>0.9202795263654664</v>
+        <v>0.9202795263654683</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9096840292266373</v>
+        <v>0.9096840292266388</v>
       </c>
       <c r="D17">
-        <v>0.9446261783623096</v>
+        <v>0.9446261783623108</v>
       </c>
       <c r="E17">
-        <v>0.9205487554546169</v>
+        <v>0.9205487554546183</v>
       </c>
       <c r="F17">
-        <v>0.9120071388958431</v>
+        <v>0.9120071388958443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.00999143322685</v>
+        <v>1.009991433226851</v>
       </c>
       <c r="J17">
-        <v>0.9411172789297475</v>
+        <v>0.9411172789297489</v>
       </c>
       <c r="K17">
-        <v>0.959680151808181</v>
+        <v>0.9596801518081822</v>
       </c>
       <c r="L17">
-        <v>0.9361096951302944</v>
+        <v>0.9361096951302958</v>
       </c>
       <c r="M17">
-        <v>0.9277564993168346</v>
+        <v>0.9277564993168357</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9141509113115743</v>
+        <v>0.9141509113115718</v>
       </c>
       <c r="D18">
-        <v>0.9481113188723277</v>
+        <v>0.948111318872326</v>
       </c>
       <c r="E18">
-        <v>0.9248013230140389</v>
+        <v>0.9248013230140362</v>
       </c>
       <c r="F18">
-        <v>0.9165277020910574</v>
+        <v>0.9165277020910552</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011642261634927</v>
+        <v>1.011642261634926</v>
       </c>
       <c r="J18">
-        <v>0.9449013339510741</v>
+        <v>0.9449013339510718</v>
       </c>
       <c r="K18">
-        <v>0.9628901519112414</v>
+        <v>0.9628901519112398</v>
       </c>
       <c r="L18">
-        <v>0.9400579210669192</v>
+        <v>0.9400579210669165</v>
       </c>
       <c r="M18">
-        <v>0.9319616378481684</v>
+        <v>0.9319616378481662</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9156477724899179</v>
+        <v>0.9156477724899146</v>
       </c>
       <c r="D19">
-        <v>0.9492795256593607</v>
+        <v>0.9492795256593579</v>
       </c>
       <c r="E19">
-        <v>0.9262267554202047</v>
+        <v>0.9262267554202013</v>
       </c>
       <c r="F19">
-        <v>0.918042880421039</v>
+        <v>0.9180428804210359</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01219504228353</v>
+        <v>1.012195042283529</v>
       </c>
       <c r="J19">
-        <v>0.9461692833978539</v>
+        <v>0.9461692833978509</v>
       </c>
       <c r="K19">
-        <v>0.9639656118571962</v>
+        <v>0.9639656118571936</v>
       </c>
       <c r="L19">
-        <v>0.941381033163652</v>
+        <v>0.9413810331636487</v>
       </c>
       <c r="M19">
-        <v>0.9333708707921059</v>
+        <v>0.9333708707921027</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9088494775030934</v>
+        <v>0.9088494775030928</v>
       </c>
       <c r="D20">
-        <v>0.9439752156675526</v>
+        <v>0.9439752156675522</v>
       </c>
       <c r="E20">
-        <v>0.9197544381931892</v>
+        <v>0.9197544381931891</v>
       </c>
       <c r="F20">
-        <v>0.9111627194949609</v>
+        <v>0.9111627194949604</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.009682810342615</v>
       </c>
       <c r="J20">
-        <v>0.9404102587290841</v>
+        <v>0.9404102587290838</v>
       </c>
       <c r="K20">
-        <v>0.9590803250132071</v>
+        <v>0.9590803250132066</v>
       </c>
       <c r="L20">
-        <v>0.9353720751714407</v>
+        <v>0.9353720751714404</v>
       </c>
       <c r="M20">
-        <v>0.9269708923835854</v>
+        <v>0.9269708923835851</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8846126496605672</v>
+        <v>0.8846126496605659</v>
       </c>
       <c r="D21">
-        <v>0.9250970042183035</v>
+        <v>0.9250970042183023</v>
       </c>
       <c r="E21">
-        <v>0.8967135778490188</v>
+        <v>0.8967135778490177</v>
       </c>
       <c r="F21">
-        <v>0.8866608804246698</v>
+        <v>0.8866608804246688</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.000697707467667</v>
+        <v>1.000697707467666</v>
       </c>
       <c r="J21">
-        <v>0.9198745406397423</v>
+        <v>0.9198745406397413</v>
       </c>
       <c r="K21">
-        <v>0.9416514025010624</v>
+        <v>0.9416514025010613</v>
       </c>
       <c r="L21">
-        <v>0.9139569601101085</v>
+        <v>0.9139569601101073</v>
       </c>
       <c r="M21">
-        <v>0.9041626328187841</v>
+        <v>0.9041626328187832</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8672329066427894</v>
+        <v>0.867232906642787</v>
       </c>
       <c r="D22">
-        <v>0.9115978401116812</v>
+        <v>0.9115978401116791</v>
       </c>
       <c r="E22">
-        <v>0.8802257713690785</v>
+        <v>0.8802257713690761</v>
       </c>
       <c r="F22">
-        <v>0.8691158759979279</v>
+        <v>0.8691158759979253</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9942360074141176</v>
+        <v>0.9942360074141164</v>
       </c>
       <c r="J22">
-        <v>0.9051507084147778</v>
+        <v>0.9051507084147756</v>
       </c>
       <c r="K22">
-        <v>0.9291505260771975</v>
+        <v>0.9291505260771956</v>
       </c>
       <c r="L22">
-        <v>0.8986125333524162</v>
+        <v>0.8986125333524136</v>
       </c>
       <c r="M22">
-        <v>0.8878178223421939</v>
+        <v>0.8878178223421913</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8766910809748711</v>
+        <v>0.8766910809748713</v>
       </c>
       <c r="D23">
-        <v>0.9189397708137179</v>
+        <v>0.9189397708137181</v>
       </c>
       <c r="E23">
-        <v>0.8891948569527033</v>
+        <v>0.8891948569527036</v>
       </c>
       <c r="F23">
-        <v>0.8786614809780423</v>
+        <v>0.8786614809780428</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>0.9977538701207567</v>
       </c>
       <c r="J23">
-        <v>0.9131629352010078</v>
+        <v>0.913162935201008</v>
       </c>
       <c r="K23">
-        <v>0.9359533140081607</v>
+        <v>0.9359533140081611</v>
       </c>
       <c r="L23">
-        <v>0.9069615306110134</v>
+        <v>0.9069615306110136</v>
       </c>
       <c r="M23">
-        <v>0.8967115283270091</v>
+        <v>0.8967115283270093</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9092270838294892</v>
+        <v>0.9092270838294886</v>
       </c>
       <c r="D24">
-        <v>0.9442697474122042</v>
+        <v>0.9442697474122036</v>
       </c>
       <c r="E24">
-        <v>0.9201138321912402</v>
+        <v>0.9201138321912393</v>
       </c>
       <c r="F24">
-        <v>0.9115447843405393</v>
+        <v>0.9115447843405384</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.009822459164167</v>
       </c>
       <c r="J24">
-        <v>0.940730162845166</v>
+        <v>0.9407301628451652</v>
       </c>
       <c r="K24">
-        <v>0.9593517299246105</v>
+        <v>0.9593517299246098</v>
       </c>
       <c r="L24">
-        <v>0.9357058218480958</v>
+        <v>0.9357058218480951</v>
       </c>
       <c r="M24">
-        <v>0.9273263511182652</v>
+        <v>0.9273263511182643</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9404993246519932</v>
+        <v>0.9404993246519955</v>
       </c>
       <c r="D25">
-        <v>0.9686944840501441</v>
+        <v>0.9686944840501464</v>
       </c>
       <c r="E25">
-        <v>0.9499200591627579</v>
+        <v>0.9499200591627608</v>
       </c>
       <c r="F25">
-        <v>0.9432235482975848</v>
+        <v>0.9432235482975874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021335813974041</v>
+        <v>1.021335813974043</v>
       </c>
       <c r="J25">
-        <v>0.9672095776972159</v>
+        <v>0.9672095776972184</v>
       </c>
       <c r="K25">
-        <v>0.9817990296184891</v>
+        <v>0.9817990296184913</v>
       </c>
       <c r="L25">
-        <v>0.9633489599947894</v>
+        <v>0.9633489599947921</v>
       </c>
       <c r="M25">
-        <v>0.9567722024449069</v>
+        <v>0.9567722024449092</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9620556833084689</v>
+        <v>0.9655823159400522</v>
       </c>
       <c r="D2">
-        <v>0.9855546898237603</v>
+        <v>0.9882479297350903</v>
       </c>
       <c r="E2">
-        <v>0.9705121916277384</v>
+        <v>0.9740105141061667</v>
       </c>
       <c r="F2">
-        <v>0.9651062353164911</v>
+        <v>0.9683598812635364</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029191572290731</v>
+        <v>1.030557147545283</v>
       </c>
       <c r="J2">
-        <v>0.9854337203623582</v>
+        <v>0.9888435534995255</v>
       </c>
       <c r="K2">
-        <v>0.9972190079134365</v>
+        <v>0.9998734544921425</v>
       </c>
       <c r="L2">
-        <v>0.9823982205928268</v>
+        <v>0.9858442043375706</v>
       </c>
       <c r="M2">
-        <v>0.9770740946732593</v>
+        <v>0.9802783504831617</v>
+      </c>
+      <c r="N2">
+        <v>0.9902478247674358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9762781003250848</v>
+        <v>0.9797410175443786</v>
       </c>
       <c r="D3">
-        <v>0.9966810368776455</v>
+        <v>0.9993277088751247</v>
       </c>
       <c r="E3">
-        <v>0.984118032233489</v>
+        <v>0.9875588288503352</v>
       </c>
       <c r="F3">
-        <v>0.9795668955661696</v>
+        <v>0.9827545530237223</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034324758610718</v>
+        <v>1.035668663689717</v>
       </c>
       <c r="J3">
-        <v>0.9974370231694055</v>
+        <v>1.000799623607747</v>
       </c>
       <c r="K3">
-        <v>1.007356561343902</v>
+        <v>1.009969199025175</v>
       </c>
       <c r="L3">
-        <v>0.9949582417133876</v>
+        <v>0.9983534113403252</v>
       </c>
       <c r="M3">
-        <v>0.9904680747126721</v>
+        <v>0.993612954047303</v>
+      </c>
+      <c r="N3">
+        <v>1.002220873866591</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9849401879538993</v>
+        <v>0.9883687434399577</v>
       </c>
       <c r="D4">
-        <v>1.003455931526078</v>
+        <v>1.006077592900227</v>
       </c>
       <c r="E4">
-        <v>0.9924120137316713</v>
+        <v>0.9958218918259043</v>
       </c>
       <c r="F4">
-        <v>0.9883838186652182</v>
+        <v>0.9915356813883011</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037427257081007</v>
+        <v>1.038759661123253</v>
       </c>
       <c r="J4">
-        <v>1.004737131182409</v>
+        <v>1.008074731351003</v>
       </c>
       <c r="K4">
-        <v>1.013512824686058</v>
+        <v>1.016103216003087</v>
       </c>
       <c r="L4">
-        <v>1.002602890084428</v>
+        <v>1.005971005876228</v>
       </c>
       <c r="M4">
-        <v>0.9986244925109506</v>
+        <v>1.001737348310038</v>
+      </c>
+      <c r="N4">
+        <v>1.009506313097309</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9884665047554776</v>
+        <v>0.9918819702357993</v>
       </c>
       <c r="D5">
-        <v>1.006213287666167</v>
+        <v>1.008825447990984</v>
       </c>
       <c r="E5">
-        <v>0.9957900610242865</v>
+        <v>0.9991881853530168</v>
       </c>
       <c r="F5">
-        <v>0.991975403173285</v>
+        <v>0.9951135819815554</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038684449025019</v>
+        <v>1.040012517629625</v>
       </c>
       <c r="J5">
-        <v>1.007706370817201</v>
+        <v>1.011034557648405</v>
       </c>
       <c r="K5">
-        <v>1.01601456414477</v>
+        <v>1.018596553606764</v>
       </c>
       <c r="L5">
-        <v>1.005713680036605</v>
+        <v>1.009071571695638</v>
       </c>
       <c r="M5">
-        <v>1.001944593866533</v>
+        <v>1.005045250933576</v>
+      </c>
+      <c r="N5">
+        <v>1.012470342687551</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9890521974662667</v>
+        <v>0.9924655375919708</v>
       </c>
       <c r="D6">
-        <v>1.006671213411161</v>
+        <v>1.009281832737097</v>
       </c>
       <c r="E6">
-        <v>0.9963512157107417</v>
+        <v>0.9997474330827847</v>
       </c>
       <c r="F6">
-        <v>0.9925720652709481</v>
+        <v>0.9957080194886139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038892912330271</v>
+        <v>1.040220279774145</v>
       </c>
       <c r="J6">
-        <v>1.008199380388494</v>
+        <v>1.01152604530918</v>
       </c>
       <c r="K6">
-        <v>1.016429816119886</v>
+        <v>1.019010445761054</v>
       </c>
       <c r="L6">
-        <v>1.006230275217873</v>
+        <v>1.00958651165053</v>
       </c>
       <c r="M6">
-        <v>1.002496012396532</v>
+        <v>1.005594688879633</v>
+      </c>
+      <c r="N6">
+        <v>1.012962528317178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9849877426626983</v>
+        <v>0.9884161182372202</v>
       </c>
       <c r="D7">
-        <v>1.00349311941732</v>
+        <v>1.006114650095743</v>
       </c>
       <c r="E7">
-        <v>0.9924575628496016</v>
+        <v>0.9958672792983029</v>
       </c>
       <c r="F7">
-        <v>0.9884322447792504</v>
+        <v>0.9915839196221802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037444234478828</v>
+        <v>1.03877657874475</v>
       </c>
       <c r="J7">
-        <v>1.004777183897248</v>
+        <v>1.008114654239139</v>
       </c>
       <c r="K7">
-        <v>1.013546580239137</v>
+        <v>1.016136855780829</v>
       </c>
       <c r="L7">
-        <v>1.002644846598459</v>
+        <v>1.006012821535352</v>
       </c>
       <c r="M7">
-        <v>0.998669267804421</v>
+        <v>1.001781955938321</v>
+      </c>
+      <c r="N7">
+        <v>1.009546292680526</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9669836663917972</v>
+        <v>0.970487143738171</v>
       </c>
       <c r="D8">
-        <v>0.9894100178934809</v>
+        <v>0.9920863113373243</v>
       </c>
       <c r="E8">
-        <v>0.9752248028289944</v>
+        <v>0.9787021943002689</v>
       </c>
       <c r="F8">
-        <v>0.970114601224725</v>
+        <v>0.9733443155483604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030975254567754</v>
+        <v>1.03233291192842</v>
       </c>
       <c r="J8">
-        <v>0.9895949643105333</v>
+        <v>0.9929875195378932</v>
       </c>
       <c r="K8">
-        <v>1.000735374103138</v>
+        <v>1.00337455647027</v>
       </c>
       <c r="L8">
-        <v>0.9867511676867691</v>
+        <v>0.9901786011608436</v>
       </c>
       <c r="M8">
-        <v>0.9817152064830706</v>
+        <v>0.9848978849768439</v>
+      </c>
+      <c r="N8">
+        <v>0.9943976757128975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9302833589063111</v>
+        <v>0.9339909539262595</v>
       </c>
       <c r="D9">
-        <v>0.9607093750147204</v>
+        <v>0.9635355501714439</v>
       </c>
       <c r="E9">
-        <v>0.9401740106145985</v>
+        <v>0.9438365856004779</v>
       </c>
       <c r="F9">
-        <v>0.9328664623116891</v>
+        <v>0.9363057796734133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017587402956558</v>
+        <v>1.019015893644059</v>
       </c>
       <c r="J9">
-        <v>0.9585632685218247</v>
+        <v>0.9621111659429766</v>
       </c>
       <c r="K9">
-        <v>0.9744737928626159</v>
+        <v>0.9772493056652666</v>
       </c>
       <c r="L9">
-        <v>0.9543185131913043</v>
+        <v>0.9579117150435906</v>
       </c>
       <c r="M9">
-        <v>0.947151511863997</v>
+        <v>0.9505243225160107</v>
+      </c>
+      <c r="N9">
+        <v>0.9634774741543088</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9008187305992917</v>
+        <v>0.9047560577217691</v>
       </c>
       <c r="D10">
-        <v>0.9377140323582019</v>
+        <v>0.940709454167807</v>
       </c>
       <c r="E10">
-        <v>0.9121140244980748</v>
+        <v>0.9159861273427347</v>
       </c>
       <c r="F10">
-        <v>0.9030395826260376</v>
+        <v>0.9067124978853158</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.006710081913416</v>
+        <v>1.008219791272633</v>
       </c>
       <c r="J10">
-        <v>0.9336062217805366</v>
+        <v>0.9373340207481464</v>
       </c>
       <c r="K10">
-        <v>0.9533069513254282</v>
+        <v>0.9562386125652304</v>
       </c>
       <c r="L10">
-        <v>0.9282747105899494</v>
+        <v>0.9320582169404642</v>
       </c>
       <c r="M10">
-        <v>0.9194118897730356</v>
+        <v>0.922998467439032</v>
+      </c>
+      <c r="N10">
+        <v>0.9386651425713236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8862603451970332</v>
+        <v>0.8903405481797234</v>
       </c>
       <c r="D11">
-        <v>0.9263785854188346</v>
+        <v>0.9294793139018032</v>
       </c>
       <c r="E11">
-        <v>0.898278239862591</v>
+        <v>0.9022809678143936</v>
       </c>
       <c r="F11">
-        <v>0.8883252989006428</v>
+        <v>0.8921427934030552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.001309674019873</v>
+        <v>1.00287024635156</v>
       </c>
       <c r="J11">
-        <v>0.9212706381509026</v>
+        <v>0.9251118250941572</v>
       </c>
       <c r="K11">
-        <v>0.9428365988340194</v>
+        <v>0.9458660713218231</v>
       </c>
       <c r="L11">
-        <v>0.9154123044858009</v>
+        <v>0.9193152661955052</v>
       </c>
       <c r="M11">
-        <v>0.9057127147051445</v>
+        <v>0.9094321316545368</v>
+      </c>
+      <c r="N11">
+        <v>0.9264255899976004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8804967348882793</v>
+        <v>0.8846401143533749</v>
       </c>
       <c r="D12">
-        <v>0.921896927386481</v>
+        <v>0.9250442154925691</v>
       </c>
       <c r="E12">
-        <v>0.8928062166358958</v>
+        <v>0.8968667557959127</v>
       </c>
       <c r="F12">
-        <v>0.8825039977027392</v>
+        <v>0.8863853001011026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9991684704277981</v>
+        <v>1.000751584175749</v>
       </c>
       <c r="J12">
-        <v>0.9163872130596676</v>
+        <v>0.9202787953835803</v>
       </c>
       <c r="K12">
-        <v>0.938690762087712</v>
+        <v>0.9417635932031924</v>
       </c>
       <c r="L12">
-        <v>0.9103219552861104</v>
+        <v>0.9142779251492985</v>
       </c>
       <c r="M12">
-        <v>0.9002909155609906</v>
+        <v>0.9040690483275441</v>
+      </c>
+      <c r="N12">
+        <v>0.9215856968304782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8817510182558213</v>
+        <v>0.885880301382683</v>
       </c>
       <c r="D13">
-        <v>0.9228719199920122</v>
+        <v>0.926008819866899</v>
       </c>
       <c r="E13">
-        <v>0.8939967724359429</v>
+        <v>0.8980444100436069</v>
       </c>
       <c r="F13">
-        <v>0.8837706441352632</v>
+        <v>0.8876377149809214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9996345701430847</v>
+        <v>1.001212652104605</v>
       </c>
       <c r="J13">
-        <v>0.9174499231913216</v>
+        <v>0.9213302490313087</v>
       </c>
       <c r="K13">
-        <v>0.9395929895649209</v>
+        <v>0.9426561413886866</v>
       </c>
       <c r="L13">
-        <v>0.9114296205837313</v>
+        <v>0.9153737542545225</v>
       </c>
       <c r="M13">
-        <v>0.9014707266200632</v>
+        <v>0.9052357594686372</v>
+      </c>
+      <c r="N13">
+        <v>0.92263864366299</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8857918369694002</v>
+        <v>0.8898770256840229</v>
       </c>
       <c r="D14">
-        <v>0.9260141492009155</v>
+        <v>0.9291185522263267</v>
       </c>
       <c r="E14">
-        <v>0.8978333151900483</v>
+        <v>0.9018406044406424</v>
       </c>
       <c r="F14">
-        <v>0.8878520168117331</v>
+        <v>0.8916745493224494</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.001135680152775</v>
+        <v>1.002698030431828</v>
       </c>
       <c r="J14">
-        <v>0.9208736678277131</v>
+        <v>0.9247188266902032</v>
       </c>
       <c r="K14">
-        <v>0.9424995999730058</v>
+        <v>0.9455324921085072</v>
       </c>
       <c r="L14">
-        <v>0.9149984802679176</v>
+        <v>0.9189056215006987</v>
       </c>
       <c r="M14">
-        <v>0.9052719538921566</v>
+        <v>0.9089960050292757</v>
+      </c>
+      <c r="N14">
+        <v>0.9260320334908353</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8882310596123926</v>
+        <v>0.8922905707066825</v>
       </c>
       <c r="D15">
-        <v>0.9279117886968385</v>
+        <v>0.9309972667624639</v>
       </c>
       <c r="E15">
-        <v>0.9001499814223721</v>
+        <v>0.9041337809688634</v>
       </c>
       <c r="F15">
-        <v>0.8903162582373596</v>
+        <v>0.8941128391595917</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.002041432214421</v>
+        <v>1.003594627596113</v>
       </c>
       <c r="J15">
-        <v>0.922940451735759</v>
+        <v>0.9267651643371547</v>
       </c>
       <c r="K15">
-        <v>0.9442541189319458</v>
+        <v>0.9472694032787231</v>
       </c>
       <c r="L15">
-        <v>0.9171530778856155</v>
+        <v>0.9210387009259566</v>
       </c>
       <c r="M15">
-        <v>0.9075667836725414</v>
+        <v>0.9112669668135874</v>
+      </c>
+      <c r="N15">
+        <v>0.9280812771719634</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9017405926925894</v>
+        <v>0.9056696053114326</v>
       </c>
       <c r="D16">
-        <v>0.9384324843461653</v>
+        <v>0.9414217780433011</v>
       </c>
       <c r="E16">
-        <v>0.9129907859130127</v>
+        <v>0.9168552931267551</v>
       </c>
       <c r="F16">
-        <v>0.903971816066467</v>
+        <v>0.9076363040350548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.007051579064423</v>
+        <v>1.008558334682231</v>
       </c>
       <c r="J16">
-        <v>0.9343873052621818</v>
+        <v>0.938108534808384</v>
       </c>
       <c r="K16">
-        <v>0.9539697958798857</v>
+        <v>0.9568957778840214</v>
       </c>
       <c r="L16">
-        <v>0.9290893637105077</v>
+        <v>0.9328659397062647</v>
       </c>
       <c r="M16">
-        <v>0.9202795263654683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9238583712341366</v>
+      </c>
+      <c r="N16">
+        <v>0.939440756530365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9096840292266388</v>
+        <v>0.9135446659245774</v>
       </c>
       <c r="D17">
-        <v>0.9446261783623108</v>
+        <v>0.9475650800855956</v>
       </c>
       <c r="E17">
-        <v>0.9205487554546183</v>
+        <v>0.9243508285665355</v>
       </c>
       <c r="F17">
-        <v>0.9120071388958443</v>
+        <v>0.9156022562241076</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009991433226851</v>
+        <v>1.011473931089891</v>
       </c>
       <c r="J17">
-        <v>0.9411172789297489</v>
+        <v>0.9447846274047158</v>
       </c>
       <c r="K17">
-        <v>0.9596801518081822</v>
+        <v>0.9625594956146387</v>
       </c>
       <c r="L17">
-        <v>0.9361096951302958</v>
+        <v>0.9398293832823521</v>
       </c>
       <c r="M17">
-        <v>0.9277564993168357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.931271741443332</v>
+      </c>
+      <c r="N17">
+        <v>0.9461263299439422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9141509113115718</v>
+        <v>0.9179755329711491</v>
       </c>
       <c r="D18">
-        <v>0.948111318872326</v>
+        <v>0.9510236824939192</v>
       </c>
       <c r="E18">
-        <v>0.9248013230140362</v>
+        <v>0.9285705347046773</v>
       </c>
       <c r="F18">
-        <v>0.9165277020910552</v>
+        <v>0.920086227577342</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011642261634926</v>
+        <v>1.013112009493835</v>
       </c>
       <c r="J18">
-        <v>0.9449013339510718</v>
+        <v>0.9485404156872586</v>
       </c>
       <c r="K18">
-        <v>0.9628901519112398</v>
+        <v>0.9657449838582951</v>
       </c>
       <c r="L18">
-        <v>0.9400579210669165</v>
+        <v>0.9437477284106821</v>
       </c>
       <c r="M18">
-        <v>0.9319616378481662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9354433711990883</v>
+      </c>
+      <c r="N18">
+        <v>0.9498874518766409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9156477724899146</v>
+        <v>0.9194606959745781</v>
       </c>
       <c r="D19">
-        <v>0.9492795256593579</v>
+        <v>0.9521832703151706</v>
       </c>
       <c r="E19">
-        <v>0.9262267554202013</v>
+        <v>0.9299852972423754</v>
       </c>
       <c r="F19">
-        <v>0.9180428804210359</v>
+        <v>0.9215895117239108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012195042283529</v>
+        <v>1.013660653401062</v>
       </c>
       <c r="J19">
-        <v>0.9461692833978509</v>
+        <v>0.9497992023725934</v>
       </c>
       <c r="K19">
-        <v>0.9639656118571936</v>
+        <v>0.9668124910209552</v>
       </c>
       <c r="L19">
-        <v>0.9413810331636487</v>
+        <v>0.9450611485065762</v>
       </c>
       <c r="M19">
-        <v>0.9333708707921027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9368417188268473</v>
+      </c>
+      <c r="N19">
+        <v>0.9511480261834536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9088494775030928</v>
+        <v>0.9127170316418981</v>
       </c>
       <c r="D20">
-        <v>0.9439752156675522</v>
+        <v>0.9469192150186281</v>
       </c>
       <c r="E20">
-        <v>0.9197544381931891</v>
+        <v>0.9235628250292752</v>
       </c>
       <c r="F20">
-        <v>0.9111627194949604</v>
+        <v>0.9147648606601356</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009682810342615</v>
+        <v>1.011167759410513</v>
       </c>
       <c r="J20">
-        <v>0.9404102587290838</v>
+        <v>0.9440830458722373</v>
       </c>
       <c r="K20">
-        <v>0.9590803250132066</v>
+        <v>0.9619643813396014</v>
       </c>
       <c r="L20">
-        <v>0.9353720751714404</v>
+        <v>0.9390975094873472</v>
       </c>
       <c r="M20">
-        <v>0.9269708923835851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9304925699373228</v>
+      </c>
+      <c r="N20">
+        <v>0.9454237520852147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8846126496605659</v>
+        <v>0.8887105019724859</v>
       </c>
       <c r="D21">
-        <v>0.9250970042183023</v>
+        <v>0.9282107403428651</v>
       </c>
       <c r="E21">
-        <v>0.8967135778490177</v>
+        <v>0.9007324534633847</v>
       </c>
       <c r="F21">
-        <v>0.8866608804246688</v>
+        <v>0.8904962073720332</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.000697707467666</v>
+        <v>1.002264574453501</v>
       </c>
       <c r="J21">
-        <v>0.9198745406397413</v>
+        <v>0.9237297921452413</v>
       </c>
       <c r="K21">
-        <v>0.9416514025010613</v>
+        <v>0.9446929821191293</v>
       </c>
       <c r="L21">
-        <v>0.9139569601101073</v>
+        <v>0.9178747201747581</v>
       </c>
       <c r="M21">
-        <v>0.9041626328187832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9078984542662994</v>
+      </c>
+      <c r="N21">
+        <v>0.9250415944033755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.867232906642787</v>
+        <v>0.8715383309452039</v>
       </c>
       <c r="D22">
-        <v>0.9115978401116791</v>
+        <v>0.914864521947356</v>
       </c>
       <c r="E22">
-        <v>0.8802257713690761</v>
+        <v>0.8844347028078688</v>
       </c>
       <c r="F22">
-        <v>0.8691158759979253</v>
+        <v>0.8731605735516047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9942360074141164</v>
+        <v>0.9958770375941113</v>
       </c>
       <c r="J22">
-        <v>0.9051507084147756</v>
+        <v>0.9091721179172731</v>
       </c>
       <c r="K22">
-        <v>0.9291505260771956</v>
+        <v>0.9323347920817325</v>
       </c>
       <c r="L22">
-        <v>0.8986125333524136</v>
+        <v>0.9027048764502436</v>
       </c>
       <c r="M22">
-        <v>0.8878178223421913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8917465024930928</v>
+      </c>
+      <c r="N22">
+        <v>0.9104632466082151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8766910809748713</v>
+        <v>0.8808784691480929</v>
       </c>
       <c r="D23">
-        <v>0.9189397708137181</v>
+        <v>0.922119488983265</v>
       </c>
       <c r="E23">
-        <v>0.8891948569527036</v>
+        <v>0.8932956827027498</v>
       </c>
       <c r="F23">
-        <v>0.8786614809780428</v>
+        <v>0.882587194639383</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9977538701207567</v>
+        <v>0.9993527004045459</v>
       </c>
       <c r="J23">
-        <v>0.913162935201008</v>
+        <v>0.9170897013850926</v>
       </c>
       <c r="K23">
-        <v>0.9359533140081611</v>
+        <v>0.9390563801648961</v>
       </c>
       <c r="L23">
-        <v>0.9069615306110136</v>
+        <v>0.9109544828734565</v>
       </c>
       <c r="M23">
-        <v>0.8967115283270093</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9005305549647132</v>
+      </c>
+      <c r="N23">
+        <v>0.9183920739527185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9092270838294886</v>
+        <v>0.9130915005539237</v>
       </c>
       <c r="D24">
-        <v>0.9442697474122036</v>
+        <v>0.9472114347126355</v>
       </c>
       <c r="E24">
-        <v>0.9201138321912393</v>
+        <v>0.9239193553525764</v>
       </c>
       <c r="F24">
-        <v>0.9115447843405384</v>
+        <v>0.9151437400047191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.009822459164167</v>
+        <v>1.011306296397553</v>
       </c>
       <c r="J24">
-        <v>0.9407301628451652</v>
+        <v>0.9444004829090623</v>
       </c>
       <c r="K24">
-        <v>0.9593517299246098</v>
+        <v>0.9622336487093239</v>
       </c>
       <c r="L24">
-        <v>0.9357058218480951</v>
+        <v>0.9394286497169242</v>
       </c>
       <c r="M24">
-        <v>0.9273263511182643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9308451099005408</v>
+      </c>
+      <c r="N24">
+        <v>0.9457416399190426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9404993246519955</v>
+        <v>0.9441422226695326</v>
       </c>
       <c r="D25">
-        <v>0.9686944840501464</v>
+        <v>0.9714730627826736</v>
       </c>
       <c r="E25">
-        <v>0.9499200591627608</v>
+        <v>0.9535238002058787</v>
       </c>
       <c r="F25">
-        <v>0.9432235482975874</v>
+        <v>0.9465967119889205</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021335813974043</v>
+        <v>1.022741650660877</v>
       </c>
       <c r="J25">
-        <v>0.9672095776972184</v>
+        <v>0.9707076122146395</v>
       </c>
       <c r="K25">
-        <v>0.9817990296184913</v>
+        <v>0.9845309769025296</v>
       </c>
       <c r="L25">
-        <v>0.9633489599947921</v>
+        <v>0.9668891576441899</v>
       </c>
       <c r="M25">
-        <v>0.9567722024449092</v>
+        <v>0.9600847690200075</v>
+      </c>
+      <c r="N25">
+        <v>0.9720861283657036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9655823159400522</v>
+        <v>0.9663935893442559</v>
       </c>
       <c r="D2">
-        <v>0.9882479297350903</v>
+        <v>0.9887963092903543</v>
       </c>
       <c r="E2">
-        <v>0.9740105141061667</v>
+        <v>0.9748153421020017</v>
       </c>
       <c r="F2">
-        <v>0.9683598812635364</v>
+        <v>0.9413724546093633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030557147545283</v>
+        <v>1.026271309986625</v>
       </c>
       <c r="J2">
-        <v>0.9888435534995255</v>
+        <v>0.9896281256407164</v>
       </c>
       <c r="K2">
-        <v>0.9998734544921425</v>
+        <v>1.000413967993739</v>
       </c>
       <c r="L2">
-        <v>0.9858442043375706</v>
+        <v>0.9866370588033346</v>
       </c>
       <c r="M2">
-        <v>0.9802783504831617</v>
+        <v>0.9537138541763678</v>
       </c>
       <c r="N2">
-        <v>0.9902478247674358</v>
+        <v>0.9910335110910589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9797410175443786</v>
+        <v>0.9799451290943486</v>
       </c>
       <c r="D3">
-        <v>0.9993277088751247</v>
+        <v>0.9993865692561869</v>
       </c>
       <c r="E3">
-        <v>0.9875588288503352</v>
+        <v>0.9877616483533561</v>
       </c>
       <c r="F3">
-        <v>0.9827545530237223</v>
+        <v>0.9582627087696863</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035668663689717</v>
+        <v>1.030932038123508</v>
       </c>
       <c r="J3">
-        <v>1.000799623607747</v>
+        <v>1.000997852586394</v>
       </c>
       <c r="K3">
-        <v>1.009969199025175</v>
+        <v>1.010027305065055</v>
       </c>
       <c r="L3">
-        <v>0.9983534113403252</v>
+        <v>0.9985535537801378</v>
       </c>
       <c r="M3">
-        <v>0.993612954047303</v>
+        <v>0.969459029270256</v>
       </c>
       <c r="N3">
-        <v>1.002220873866591</v>
+        <v>1.002419384353125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9883687434399577</v>
+        <v>0.9882169369253252</v>
       </c>
       <c r="D4">
-        <v>1.006077592900227</v>
+        <v>1.005853593342367</v>
       </c>
       <c r="E4">
-        <v>0.9958218918259043</v>
+        <v>0.9956709053813232</v>
       </c>
       <c r="F4">
-        <v>0.9915356813883011</v>
+        <v>0.9685547062067963</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038759661123253</v>
+        <v>1.03375789984233</v>
       </c>
       <c r="J4">
-        <v>1.008074731351003</v>
+        <v>1.007926933954332</v>
       </c>
       <c r="K4">
-        <v>1.016103216003087</v>
+        <v>1.015881880322191</v>
       </c>
       <c r="L4">
-        <v>1.005971005876228</v>
+        <v>1.005821861106471</v>
       </c>
       <c r="M4">
-        <v>1.001737348310038</v>
+        <v>0.9790480726813796</v>
       </c>
       <c r="N4">
-        <v>1.009506313097309</v>
+        <v>1.009358305811382</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9918819702357993</v>
+        <v>0.9915882344083216</v>
       </c>
       <c r="D5">
-        <v>1.008825447990984</v>
+        <v>1.008489643008325</v>
       </c>
       <c r="E5">
-        <v>0.9991881853530168</v>
+        <v>0.9988959288151119</v>
       </c>
       <c r="F5">
-        <v>0.9951135819815554</v>
+        <v>0.972746304457367</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040012517629625</v>
+        <v>1.034904877678638</v>
       </c>
       <c r="J5">
-        <v>1.011034557648405</v>
+        <v>1.010748295996784</v>
       </c>
       <c r="K5">
-        <v>1.018596553606764</v>
+        <v>1.018264616411797</v>
       </c>
       <c r="L5">
-        <v>1.009071571695638</v>
+        <v>1.008782762055124</v>
       </c>
       <c r="M5">
-        <v>1.005045250933576</v>
+        <v>0.9829520006176615</v>
       </c>
       <c r="N5">
-        <v>1.012470342687551</v>
+        <v>1.012183674511549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9924655375919708</v>
+        <v>0.9921483934376574</v>
       </c>
       <c r="D6">
-        <v>1.009281832737097</v>
+        <v>1.008927646348561</v>
       </c>
       <c r="E6">
-        <v>0.9997474330827847</v>
+        <v>0.9994318670380857</v>
       </c>
       <c r="F6">
-        <v>0.9957080194886139</v>
+        <v>0.9734426113608223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040220279774145</v>
+        <v>1.03509517005541</v>
       </c>
       <c r="J6">
-        <v>1.01152604530918</v>
+        <v>1.011216920479257</v>
       </c>
       <c r="K6">
-        <v>1.019010445761054</v>
+        <v>1.018660316883329</v>
       </c>
       <c r="L6">
-        <v>1.00958651165053</v>
+        <v>1.009274646340064</v>
       </c>
       <c r="M6">
-        <v>1.005594688879633</v>
+        <v>0.9836004352813673</v>
       </c>
       <c r="N6">
-        <v>1.012962528317178</v>
+        <v>1.012652964494539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9884161182372202</v>
+        <v>0.9882623863556982</v>
       </c>
       <c r="D7">
-        <v>1.006114650095743</v>
+        <v>1.005889129839669</v>
       </c>
       <c r="E7">
-        <v>0.9958672792983029</v>
+        <v>0.9957143771221412</v>
       </c>
       <c r="F7">
-        <v>0.9915839196221802</v>
+        <v>0.9686112250917919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03877657874475</v>
+        <v>1.033773381676603</v>
       </c>
       <c r="J7">
-        <v>1.008114654239139</v>
+        <v>1.007964980314268</v>
       </c>
       <c r="K7">
-        <v>1.016136855780829</v>
+        <v>1.015914016346455</v>
       </c>
       <c r="L7">
-        <v>1.006012821535352</v>
+        <v>1.005861783566839</v>
       </c>
       <c r="M7">
-        <v>1.001781955938321</v>
+        <v>0.9791007183079953</v>
       </c>
       <c r="N7">
-        <v>1.009546292680526</v>
+        <v>1.009396406201513</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.970487143738171</v>
+        <v>0.9710848019282913</v>
       </c>
       <c r="D8">
-        <v>0.9920863113373243</v>
+        <v>0.9924615664102223</v>
       </c>
       <c r="E8">
-        <v>0.9787021943002689</v>
+        <v>0.9792954463248565</v>
       </c>
       <c r="F8">
-        <v>0.9733443155483604</v>
+        <v>0.947224109722401</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03233291192842</v>
+        <v>1.0278887139204</v>
       </c>
       <c r="J8">
-        <v>0.9929875195378932</v>
+        <v>0.9935663660084141</v>
       </c>
       <c r="K8">
-        <v>1.00337455647027</v>
+        <v>1.003744628203123</v>
       </c>
       <c r="L8">
-        <v>0.9901786011608436</v>
+        <v>0.9907633750568811</v>
       </c>
       <c r="M8">
-        <v>0.9848978849768439</v>
+        <v>0.9591698233396333</v>
       </c>
       <c r="N8">
-        <v>0.9943976757128975</v>
+        <v>0.9949773442118012</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9339909539262595</v>
+        <v>0.9362639094427567</v>
       </c>
       <c r="D9">
-        <v>0.9635355501714439</v>
+        <v>0.9652882247551903</v>
       </c>
       <c r="E9">
-        <v>0.9438365856004779</v>
+        <v>0.9460823199315759</v>
       </c>
       <c r="F9">
-        <v>0.9363057796734133</v>
+        <v>0.9036347368948215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.019015893644059</v>
+        <v>1.015805612830998</v>
       </c>
       <c r="J9">
-        <v>0.9621111659429766</v>
+        <v>0.9642871092354079</v>
       </c>
       <c r="K9">
-        <v>0.9772493056652666</v>
+        <v>0.9789707550017152</v>
       </c>
       <c r="L9">
-        <v>0.9579117150435906</v>
+        <v>0.9601152595357043</v>
       </c>
       <c r="M9">
-        <v>0.9505243225160107</v>
+        <v>0.9185121080220231</v>
       </c>
       <c r="N9">
-        <v>0.9634774741543088</v>
+        <v>0.9656565075357996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9047560577217691</v>
+        <v>0.9085180940180758</v>
       </c>
       <c r="D10">
-        <v>0.940709454167807</v>
+        <v>0.9437116616891995</v>
       </c>
       <c r="E10">
-        <v>0.9159861273427347</v>
+        <v>0.9196869407228691</v>
       </c>
       <c r="F10">
-        <v>0.9067124978853158</v>
+        <v>0.8685586990783547</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.008219791272633</v>
+        <v>1.006089679829937</v>
       </c>
       <c r="J10">
-        <v>0.9373340207481464</v>
+        <v>0.9408983190486604</v>
       </c>
       <c r="K10">
-        <v>0.9562386125652304</v>
+        <v>0.9591774522858578</v>
       </c>
       <c r="L10">
-        <v>0.9320582169404642</v>
+        <v>0.9356752824300633</v>
       </c>
       <c r="M10">
-        <v>0.922998467439032</v>
+        <v>0.8857898853081748</v>
       </c>
       <c r="N10">
-        <v>0.9386651425713236</v>
+        <v>0.9422345025842551</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8903405481797234</v>
+        <v>0.8948853602635787</v>
       </c>
       <c r="D11">
-        <v>0.9294793139018032</v>
+        <v>0.933143350692947</v>
       </c>
       <c r="E11">
-        <v>0.9022809678143936</v>
+        <v>0.9067411933854117</v>
       </c>
       <c r="F11">
-        <v>0.8921427934030552</v>
+        <v>0.8511716845609055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00287024635156</v>
+        <v>1.001301933355467</v>
       </c>
       <c r="J11">
-        <v>0.9251118250941572</v>
+        <v>0.9293941562298521</v>
       </c>
       <c r="K11">
-        <v>0.9458660713218231</v>
+        <v>0.9494467212278436</v>
       </c>
       <c r="L11">
-        <v>0.9193152661955052</v>
+        <v>0.9236657183449609</v>
       </c>
       <c r="M11">
-        <v>0.9094321316545368</v>
+        <v>0.8695767605924269</v>
       </c>
       <c r="N11">
-        <v>0.9264255899976004</v>
+        <v>0.930714002534698</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8846401143533749</v>
+        <v>0.8895030123551149</v>
       </c>
       <c r="D12">
-        <v>0.9250442154925691</v>
+        <v>0.9289777797794946</v>
       </c>
       <c r="E12">
-        <v>0.8968667557959127</v>
+        <v>0.9016344455038577</v>
       </c>
       <c r="F12">
-        <v>0.8863853001011026</v>
+        <v>0.84427413526008</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.000751584175749</v>
+        <v>0.9994105211089374</v>
       </c>
       <c r="J12">
-        <v>0.9202787953835803</v>
+        <v>0.9248505572507331</v>
       </c>
       <c r="K12">
-        <v>0.9417635932031924</v>
+        <v>0.9456050482007647</v>
       </c>
       <c r="L12">
-        <v>0.9142779251492985</v>
+        <v>0.9189244573839767</v>
       </c>
       <c r="M12">
-        <v>0.9040690483275441</v>
+        <v>0.8631471952811033</v>
       </c>
       <c r="N12">
-        <v>0.9215856968304782</v>
+        <v>0.9261639511238707</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.885880301382683</v>
+        <v>0.8906735956489847</v>
       </c>
       <c r="D13">
-        <v>0.926008819866899</v>
+        <v>0.929883382924846</v>
       </c>
       <c r="E13">
-        <v>0.8980444100436069</v>
+        <v>0.9027448770629629</v>
       </c>
       <c r="F13">
-        <v>0.8876377149809214</v>
+        <v>0.8457759484618105</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.001212652104605</v>
+        <v>0.9998219091487313</v>
       </c>
       <c r="J13">
-        <v>0.9213302490313087</v>
+        <v>0.9258387942532673</v>
       </c>
       <c r="K13">
-        <v>0.9426561413886866</v>
+        <v>0.9464405323926589</v>
       </c>
       <c r="L13">
-        <v>0.9153737542545225</v>
+        <v>0.9199555946548709</v>
       </c>
       <c r="M13">
-        <v>0.9052357594686372</v>
+        <v>0.8645469841984363</v>
       </c>
       <c r="N13">
-        <v>0.92263864366299</v>
+        <v>0.9271535915363009</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8898770256840229</v>
+        <v>0.8944475252405547</v>
       </c>
       <c r="D14">
-        <v>0.9291185522263267</v>
+        <v>0.9328043445466967</v>
       </c>
       <c r="E14">
-        <v>0.9018406044406424</v>
+        <v>0.9063256842596705</v>
       </c>
       <c r="F14">
-        <v>0.8916745493224494</v>
+        <v>0.8506113274197136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.002698030431828</v>
+        <v>1.001148090216535</v>
       </c>
       <c r="J14">
-        <v>0.9247188266902032</v>
+        <v>0.9290245818156224</v>
       </c>
       <c r="K14">
-        <v>0.9455324921085072</v>
+        <v>0.9491342056075052</v>
       </c>
       <c r="L14">
-        <v>0.9189056215006987</v>
+        <v>0.9232800258509208</v>
       </c>
       <c r="M14">
-        <v>0.9089960050292757</v>
+        <v>0.8690543674824261</v>
       </c>
       <c r="N14">
-        <v>0.9260320334908353</v>
+        <v>0.9303439032824096</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8922905707066825</v>
+        <v>0.8967276644822511</v>
       </c>
       <c r="D15">
-        <v>0.9309972667624639</v>
+        <v>0.9345700956635178</v>
       </c>
       <c r="E15">
-        <v>0.9041337809688634</v>
+        <v>0.9084897356981185</v>
       </c>
       <c r="F15">
-        <v>0.8941128391595917</v>
+        <v>0.85352814533486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.003594627596113</v>
+        <v>1.001949228294857</v>
       </c>
       <c r="J15">
-        <v>0.9267651643371547</v>
+        <v>0.9309491723901353</v>
       </c>
       <c r="K15">
-        <v>0.9472694032787231</v>
+        <v>0.9507617229076704</v>
       </c>
       <c r="L15">
-        <v>0.9210387009259566</v>
+        <v>0.9252886317813677</v>
       </c>
       <c r="M15">
-        <v>0.9112669668135874</v>
+        <v>0.871773671917256</v>
       </c>
       <c r="N15">
-        <v>0.9280812771719634</v>
+        <v>0.9322712269962916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9056696053114326</v>
+        <v>0.9093831028108575</v>
       </c>
       <c r="D16">
-        <v>0.9414217780433011</v>
+        <v>0.9443830317194232</v>
       </c>
       <c r="E16">
-        <v>0.9168552931267551</v>
+        <v>0.9205088890824731</v>
       </c>
       <c r="F16">
-        <v>0.9076363040350548</v>
+        <v>0.8696581708024114</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.008558334682231</v>
+        <v>1.006393257539255</v>
       </c>
       <c r="J16">
-        <v>0.938108534808384</v>
+        <v>0.9416280402768692</v>
       </c>
       <c r="K16">
-        <v>0.9568957778840214</v>
+        <v>0.9597948361717846</v>
       </c>
       <c r="L16">
-        <v>0.9328659397062647</v>
+        <v>0.9364373078830818</v>
       </c>
       <c r="M16">
-        <v>0.9238583712341366</v>
+        <v>0.886815352805433</v>
       </c>
       <c r="N16">
-        <v>0.939440756530365</v>
+        <v>0.9429652601003081</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9135446659245774</v>
+        <v>0.9168450974438114</v>
       </c>
       <c r="D17">
-        <v>0.9475650800855956</v>
+        <v>0.9501783211776614</v>
       </c>
       <c r="E17">
-        <v>0.9243508285665355</v>
+        <v>0.9276020135868147</v>
       </c>
       <c r="F17">
-        <v>0.9156022562241076</v>
+        <v>0.8791256791647356</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011473931089891</v>
+        <v>1.009010647143827</v>
       </c>
       <c r="J17">
-        <v>0.9447846274047158</v>
+        <v>0.9479216815031639</v>
       </c>
       <c r="K17">
-        <v>0.9625594956146387</v>
+        <v>0.9651201855286083</v>
       </c>
       <c r="L17">
-        <v>0.9398293832823521</v>
+        <v>0.9430108300115987</v>
       </c>
       <c r="M17">
-        <v>0.931271741443332</v>
+        <v>0.8956464538703561</v>
       </c>
       <c r="N17">
-        <v>0.9461263299439422</v>
+        <v>0.9492678390190349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9179755329711491</v>
+        <v>0.9210477882654196</v>
       </c>
       <c r="D18">
-        <v>0.9510236824939192</v>
+        <v>0.9534451201423051</v>
       </c>
       <c r="E18">
-        <v>0.9285705347046773</v>
+        <v>0.9315989814057373</v>
       </c>
       <c r="F18">
-        <v>0.920086227577342</v>
+        <v>0.8844450646562938</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013112009493835</v>
+        <v>1.010483488600632</v>
       </c>
       <c r="J18">
-        <v>0.9485404156872586</v>
+        <v>0.951465236783093</v>
       </c>
       <c r="K18">
-        <v>0.9657449838582951</v>
+        <v>0.9681189387742242</v>
       </c>
       <c r="L18">
-        <v>0.9437477284106821</v>
+        <v>0.9467129910830504</v>
       </c>
       <c r="M18">
-        <v>0.9354433711990883</v>
+        <v>0.9006088065668797</v>
       </c>
       <c r="N18">
-        <v>0.9498874518766409</v>
+        <v>0.9528164265539132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9194606959745781</v>
+        <v>0.922457153407061</v>
       </c>
       <c r="D19">
-        <v>0.9521832703151706</v>
+        <v>0.9545410703864333</v>
       </c>
       <c r="E19">
-        <v>0.9299852972423754</v>
+        <v>0.9329396827177528</v>
       </c>
       <c r="F19">
-        <v>0.9215895117239108</v>
+        <v>0.886226945146125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013660653401062</v>
+        <v>1.010977160890846</v>
       </c>
       <c r="J19">
-        <v>0.9497992023725934</v>
+        <v>0.9526533694900916</v>
       </c>
       <c r="K19">
-        <v>0.9668124910209552</v>
+        <v>0.9691244506786163</v>
       </c>
       <c r="L19">
-        <v>0.9450611485065762</v>
+        <v>0.9479544725230259</v>
       </c>
       <c r="M19">
-        <v>0.9368417188268473</v>
+        <v>0.9022711543445484</v>
       </c>
       <c r="N19">
-        <v>0.9511480261834536</v>
+        <v>0.9540062465456364</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9127170316418981</v>
+        <v>0.916060422211433</v>
       </c>
       <c r="D20">
-        <v>0.9469192150186281</v>
+        <v>0.9495686042404932</v>
       </c>
       <c r="E20">
-        <v>0.9235628250292752</v>
+        <v>0.9268559098402271</v>
       </c>
       <c r="F20">
-        <v>0.9147648606601356</v>
+        <v>0.8781315103822936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011167759410513</v>
+        <v>1.008735543941093</v>
       </c>
       <c r="J20">
-        <v>0.9440830458722373</v>
+        <v>0.9472599803468108</v>
       </c>
       <c r="K20">
-        <v>0.9619643813396014</v>
+        <v>0.964560244373617</v>
       </c>
       <c r="L20">
-        <v>0.9390975094873472</v>
+        <v>0.9423195944767025</v>
       </c>
       <c r="M20">
-        <v>0.9304925699373228</v>
+        <v>0.8947190504795112</v>
       </c>
       <c r="N20">
-        <v>0.9454237520852147</v>
+        <v>0.9486051981711419</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8887105019724859</v>
+        <v>0.8933457877066135</v>
       </c>
       <c r="D21">
-        <v>0.9282107403428651</v>
+        <v>0.9319514107628876</v>
       </c>
       <c r="E21">
-        <v>0.9007324534633847</v>
+        <v>0.9052801989151389</v>
       </c>
       <c r="F21">
-        <v>0.8904962073720332</v>
+        <v>0.8492007166876108</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.002264574453501</v>
+        <v>1.000760955425813</v>
       </c>
       <c r="J21">
-        <v>0.9237297921452413</v>
+        <v>0.9280945853153549</v>
       </c>
       <c r="K21">
-        <v>0.9446929821191293</v>
+        <v>0.9483478188427927</v>
       </c>
       <c r="L21">
-        <v>0.9178747201747581</v>
+        <v>0.9223095016131144</v>
       </c>
       <c r="M21">
-        <v>0.9078984542662994</v>
+        <v>0.8677393668970245</v>
       </c>
       <c r="N21">
-        <v>0.9250415944033755</v>
+        <v>0.9294125860804399</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8715383309452039</v>
+        <v>0.8771495748927016</v>
       </c>
       <c r="D22">
-        <v>0.914864521947356</v>
+        <v>0.9194330742171426</v>
       </c>
       <c r="E22">
-        <v>0.8844347028078688</v>
+        <v>0.8899230829431237</v>
       </c>
       <c r="F22">
-        <v>0.8731605735516047</v>
+        <v>0.8283638064835411</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9958770375941113</v>
+        <v>0.9950686498770064</v>
       </c>
       <c r="J22">
-        <v>0.9091721179172731</v>
+        <v>0.9144193778196069</v>
       </c>
       <c r="K22">
-        <v>0.9323347920817325</v>
+        <v>0.9367894065738074</v>
       </c>
       <c r="L22">
-        <v>0.9027048764502436</v>
+        <v>0.9080434804689016</v>
       </c>
       <c r="M22">
-        <v>0.8917465024930928</v>
+        <v>0.8483227889672085</v>
       </c>
       <c r="N22">
-        <v>0.9104632466082151</v>
+        <v>0.9157179582214797</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8808784691480929</v>
+        <v>0.8859538214509564</v>
       </c>
       <c r="D23">
-        <v>0.922119488983265</v>
+        <v>0.9262332156928591</v>
       </c>
       <c r="E23">
-        <v>0.8932956827027498</v>
+        <v>0.8982683600746915</v>
       </c>
       <c r="F23">
-        <v>0.882587194639383</v>
+        <v>0.8397147076511573</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9993527004045459</v>
+        <v>0.9981631235119226</v>
       </c>
       <c r="J23">
-        <v>0.9170897013850926</v>
+        <v>0.921854015505866</v>
       </c>
       <c r="K23">
-        <v>0.9390563801648961</v>
+        <v>0.9430719860415423</v>
       </c>
       <c r="L23">
-        <v>0.9109544828734565</v>
+        <v>0.9157981399636136</v>
       </c>
       <c r="M23">
-        <v>0.9005305549647132</v>
+        <v>0.8588979817315874</v>
       </c>
       <c r="N23">
-        <v>0.9183920739527185</v>
+        <v>0.9231631539460176</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9130915005539237</v>
+        <v>0.9164154408152382</v>
       </c>
       <c r="D24">
-        <v>0.9472114347126355</v>
+        <v>0.9498444559724754</v>
       </c>
       <c r="E24">
-        <v>0.9239193553525764</v>
+        <v>0.9271934708470208</v>
       </c>
       <c r="F24">
-        <v>0.9151437400047191</v>
+        <v>0.8785813518966732</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011306296397553</v>
+        <v>1.008860015838566</v>
       </c>
       <c r="J24">
-        <v>0.9444004829090623</v>
+        <v>0.9475593640127671</v>
       </c>
       <c r="K24">
-        <v>0.9622336487093239</v>
+        <v>0.964813586041694</v>
       </c>
       <c r="L24">
-        <v>0.9394286497169242</v>
+        <v>0.942632337644184</v>
       </c>
       <c r="M24">
-        <v>0.9308451099005408</v>
+        <v>0.8951386803790871</v>
       </c>
       <c r="N24">
-        <v>0.9457416399190426</v>
+        <v>0.9489050069962431</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9441422226695326</v>
+        <v>0.945929047929657</v>
       </c>
       <c r="D25">
-        <v>0.9714730627826736</v>
+        <v>0.9728220106686611</v>
       </c>
       <c r="E25">
-        <v>0.9535238002058787</v>
+        <v>0.9552916598282559</v>
       </c>
       <c r="F25">
-        <v>0.9465967119889205</v>
+        <v>0.9157737724476065</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022741650660877</v>
+        <v>1.019175298511317</v>
       </c>
       <c r="J25">
-        <v>0.9707076122146395</v>
+        <v>0.9724239593671167</v>
       </c>
       <c r="K25">
-        <v>0.9845309769025296</v>
+        <v>0.9858574098243675</v>
       </c>
       <c r="L25">
-        <v>0.9668891576441899</v>
+        <v>0.9686260722775248</v>
       </c>
       <c r="M25">
-        <v>0.9600847690200075</v>
+        <v>0.9298373191780112</v>
       </c>
       <c r="N25">
-        <v>0.9720861283657036</v>
+        <v>0.9738049129280052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9663935893442559</v>
+        <v>0.9403474843863046</v>
       </c>
       <c r="D2">
-        <v>0.9887963092903543</v>
+        <v>0.9682351516123631</v>
       </c>
       <c r="E2">
-        <v>0.9748153421020017</v>
+        <v>0.9489891607288652</v>
       </c>
       <c r="F2">
-        <v>0.9413724546093633</v>
+        <v>0.9137344062395354</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026271309986625</v>
+        <v>1.019109053990567</v>
       </c>
       <c r="J2">
-        <v>0.9896281256407164</v>
+        <v>0.9644715445329585</v>
       </c>
       <c r="K2">
-        <v>1.000413967993739</v>
+        <v>0.9801555064257856</v>
       </c>
       <c r="L2">
-        <v>0.9866370588033346</v>
+        <v>0.9612080741273021</v>
       </c>
       <c r="M2">
-        <v>0.9537138541763678</v>
+        <v>0.9265424786938699</v>
       </c>
       <c r="N2">
-        <v>0.9910335110910589</v>
+        <v>0.9658412047526277</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9799451290943486</v>
+        <v>0.957782042525949</v>
       </c>
       <c r="D3">
-        <v>0.9993865692561869</v>
+        <v>0.9817800173950377</v>
       </c>
       <c r="E3">
-        <v>0.9877616483533561</v>
+        <v>0.9657467523500103</v>
       </c>
       <c r="F3">
-        <v>0.9582627087696863</v>
+        <v>0.9349285464943554</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030932038123508</v>
+        <v>1.024573699550979</v>
       </c>
       <c r="J3">
-        <v>1.000997852586394</v>
+        <v>0.9794937370811541</v>
       </c>
       <c r="K3">
-        <v>1.010027305065055</v>
+        <v>0.9926514595752753</v>
       </c>
       <c r="L3">
-        <v>0.9985535537801378</v>
+        <v>0.9768375185296858</v>
       </c>
       <c r="M3">
-        <v>0.969459029270256</v>
+        <v>0.9464677880329754</v>
       </c>
       <c r="N3">
-        <v>1.002419384353125</v>
+        <v>0.9808847305373113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9882169369253252</v>
+        <v>0.9682401219499899</v>
       </c>
       <c r="D4">
-        <v>1.005853593342367</v>
+        <v>0.9899103661508979</v>
       </c>
       <c r="E4">
-        <v>0.9956709053813232</v>
+        <v>0.9758077427534192</v>
       </c>
       <c r="F4">
-        <v>0.9685547062067963</v>
+        <v>0.9476146082683548</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03375789984233</v>
+        <v>1.027831383562655</v>
       </c>
       <c r="J4">
-        <v>1.007926933954332</v>
+        <v>0.9884926822136827</v>
       </c>
       <c r="K4">
-        <v>1.015881880322191</v>
+        <v>1.000132109081119</v>
       </c>
       <c r="L4">
-        <v>1.005821861106471</v>
+        <v>0.9862071909619984</v>
       </c>
       <c r="M4">
-        <v>0.9790480726813796</v>
+        <v>0.9583892890625183</v>
       </c>
       <c r="N4">
-        <v>1.009358305811382</v>
+        <v>0.9898964552041213</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9915882344083216</v>
+        <v>0.972466966550111</v>
       </c>
       <c r="D5">
-        <v>1.008489643008325</v>
+        <v>0.9931970709450486</v>
       </c>
       <c r="E5">
-        <v>0.9988959288151119</v>
+        <v>0.9798759728224705</v>
       </c>
       <c r="F5">
-        <v>0.972746304457367</v>
+        <v>0.9527373722395389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034904877678638</v>
+        <v>1.029142839983091</v>
       </c>
       <c r="J5">
-        <v>1.010748295996784</v>
+        <v>0.9921267881460181</v>
       </c>
       <c r="K5">
-        <v>1.018264616411797</v>
+        <v>1.003151619767111</v>
       </c>
       <c r="L5">
-        <v>1.008782762055124</v>
+        <v>0.9899926306542274</v>
       </c>
       <c r="M5">
-        <v>0.9829520006176615</v>
+        <v>0.9632018764821063</v>
       </c>
       <c r="N5">
-        <v>1.012183674511549</v>
+        <v>0.9935357219837183</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9921483934376574</v>
+        <v>0.973167393256914</v>
       </c>
       <c r="D6">
-        <v>1.008927646348561</v>
+        <v>0.993741730156469</v>
       </c>
       <c r="E6">
-        <v>0.9994318670380857</v>
+        <v>0.9805502191671828</v>
       </c>
       <c r="F6">
-        <v>0.9734426113608223</v>
+        <v>0.9535860397145284</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03509517005541</v>
+        <v>1.029359845074566</v>
       </c>
       <c r="J6">
-        <v>1.011216920479257</v>
+        <v>0.9927288132904127</v>
       </c>
       <c r="K6">
-        <v>1.018660316883329</v>
+        <v>1.003651739133776</v>
       </c>
       <c r="L6">
-        <v>1.009274646340064</v>
+        <v>0.9906198199917821</v>
       </c>
       <c r="M6">
-        <v>0.9836004352813673</v>
+        <v>0.9639990682478635</v>
       </c>
       <c r="N6">
-        <v>1.012652964494539</v>
+        <v>0.9941386020728715</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9882623863556982</v>
+        <v>0.9682972369190155</v>
       </c>
       <c r="D7">
-        <v>1.005889129839669</v>
+        <v>0.9899547756832744</v>
       </c>
       <c r="E7">
-        <v>0.9957143771221412</v>
+        <v>0.9758627072927263</v>
       </c>
       <c r="F7">
-        <v>0.9686112250917919</v>
+        <v>0.9476838452712284</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033773381676603</v>
+        <v>1.027849125701063</v>
       </c>
       <c r="J7">
-        <v>1.007964980314268</v>
+        <v>0.9885417999330031</v>
       </c>
       <c r="K7">
-        <v>1.015914016346455</v>
+        <v>1.000172926176075</v>
       </c>
       <c r="L7">
-        <v>1.005861783566839</v>
+        <v>0.9862583476599978</v>
       </c>
       <c r="M7">
-        <v>0.9791007183079953</v>
+        <v>0.9584543398476161</v>
       </c>
       <c r="N7">
-        <v>1.009396406201513</v>
+        <v>0.9899456426762372</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9710848019282913</v>
+        <v>0.9464288678356652</v>
       </c>
       <c r="D8">
-        <v>0.9924615664102223</v>
+        <v>0.972958096769976</v>
       </c>
       <c r="E8">
-        <v>0.9792954463248565</v>
+        <v>0.9548322540880656</v>
       </c>
       <c r="F8">
-        <v>0.947224109722401</v>
+        <v>0.9211345408910478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0278887139204</v>
+        <v>1.021019360415946</v>
       </c>
       <c r="J8">
-        <v>0.9935663660084141</v>
+        <v>0.9697140247722318</v>
       </c>
       <c r="K8">
-        <v>1.003744628203123</v>
+        <v>0.9845172700392588</v>
       </c>
       <c r="L8">
-        <v>0.9907633750568811</v>
+        <v>0.9666609231527068</v>
       </c>
       <c r="M8">
-        <v>0.9591698233396333</v>
+        <v>0.9335005332483354</v>
       </c>
       <c r="N8">
-        <v>0.9949773442118012</v>
+        <v>0.9710911299151618</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9362639094427567</v>
+        <v>0.8998068603991602</v>
       </c>
       <c r="D9">
-        <v>0.9652882247551903</v>
+        <v>0.9368201618199038</v>
       </c>
       <c r="E9">
-        <v>0.9460823199315759</v>
+        <v>0.9100984915395723</v>
       </c>
       <c r="F9">
-        <v>0.9036347368948215</v>
+        <v>0.8641302942013545</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015805612830998</v>
+        <v>1.006298655982934</v>
       </c>
       <c r="J9">
-        <v>0.9642871092354079</v>
+        <v>0.9294716221112619</v>
       </c>
       <c r="K9">
-        <v>0.9789707550017152</v>
+        <v>0.9510288129258541</v>
       </c>
       <c r="L9">
-        <v>0.9601152595357043</v>
+        <v>0.9248405596276137</v>
       </c>
       <c r="M9">
-        <v>0.9185121080220231</v>
+        <v>0.8798936723784548</v>
       </c>
       <c r="N9">
-        <v>0.9656565075357996</v>
+        <v>0.9307915784265451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9085180940180758</v>
+        <v>0.8590058734428768</v>
       </c>
       <c r="D10">
-        <v>0.9437116616891995</v>
+        <v>0.9053838097803307</v>
       </c>
       <c r="E10">
-        <v>0.9196869407228691</v>
+        <v>0.8710732323172167</v>
       </c>
       <c r="F10">
-        <v>0.8685586990783547</v>
+        <v>0.8135165102252366</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.006089679829937</v>
+        <v>0.9933563427607561</v>
       </c>
       <c r="J10">
-        <v>0.9408983190486604</v>
+        <v>0.8941942646120498</v>
       </c>
       <c r="K10">
-        <v>0.9591774522858578</v>
+        <v>0.9217009039050726</v>
       </c>
       <c r="L10">
-        <v>0.9356752824300633</v>
+        <v>0.8882386682355412</v>
       </c>
       <c r="M10">
-        <v>0.8857898853081748</v>
+        <v>0.8323282305744182</v>
       </c>
       <c r="N10">
-        <v>0.9422345025842551</v>
+        <v>0.8954641230333146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8948853602635787</v>
+        <v>0.8368117148108398</v>
       </c>
       <c r="D11">
-        <v>0.933143350692947</v>
+        <v>0.8883864464432666</v>
       </c>
       <c r="E11">
-        <v>0.9067411933854117</v>
+        <v>0.849897496868432</v>
       </c>
       <c r="F11">
-        <v>0.8511716845609055</v>
+        <v>0.7855626133782635</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.001301933355467</v>
+        <v>0.9863292964695166</v>
       </c>
       <c r="J11">
-        <v>0.9293941562298521</v>
+        <v>0.8749969296176401</v>
       </c>
       <c r="K11">
-        <v>0.9494467212278436</v>
+        <v>0.9057722822766885</v>
       </c>
       <c r="L11">
-        <v>0.9236657183449609</v>
+        <v>0.8683396405290414</v>
       </c>
       <c r="M11">
-        <v>0.8695767605924269</v>
+        <v>0.8060969124257127</v>
       </c>
       <c r="N11">
-        <v>0.930714002534698</v>
+        <v>0.8762395256212479</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8895030123551149</v>
+        <v>0.8274286378383515</v>
       </c>
       <c r="D12">
-        <v>0.9289777797794946</v>
+        <v>0.881226015061313</v>
       </c>
       <c r="E12">
-        <v>0.9016344455038577</v>
+        <v>0.8409567056268462</v>
       </c>
       <c r="F12">
-        <v>0.84427413526008</v>
+        <v>0.7736299424229429</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9994105211089374</v>
+        <v>0.9833654228142582</v>
       </c>
       <c r="J12">
-        <v>0.9248505572507331</v>
+        <v>0.8668806391646895</v>
       </c>
       <c r="K12">
-        <v>0.9456050482007647</v>
+        <v>0.8990471736317031</v>
       </c>
       <c r="L12">
-        <v>0.9189244573839767</v>
+        <v>0.8599304436742008</v>
       </c>
       <c r="M12">
-        <v>0.8631471952811033</v>
+        <v>0.7949120829487392</v>
       </c>
       <c r="N12">
-        <v>0.9261639511238707</v>
+        <v>0.8681117091049024</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8906735956489847</v>
+        <v>0.8295063956836232</v>
       </c>
       <c r="D13">
-        <v>0.929883382924846</v>
+        <v>0.8828102086473777</v>
       </c>
       <c r="E13">
-        <v>0.9027448770629629</v>
+        <v>0.84293591256874</v>
       </c>
       <c r="F13">
-        <v>0.8457759484618105</v>
+        <v>0.7762787731009447</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9998219091487313</v>
+        <v>0.9840212970073496</v>
       </c>
       <c r="J13">
-        <v>0.9258387942532673</v>
+        <v>0.8686778719128535</v>
       </c>
       <c r="K13">
-        <v>0.9464405323926589</v>
+        <v>0.9005358217928355</v>
       </c>
       <c r="L13">
-        <v>0.9199555946548709</v>
+        <v>0.8617923467034575</v>
       </c>
       <c r="M13">
-        <v>0.8645469841984363</v>
+        <v>0.797394166263237</v>
       </c>
       <c r="N13">
-        <v>0.9271535915363009</v>
+        <v>0.8699114941297144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8944475252405547</v>
+        <v>0.8360639071210697</v>
       </c>
       <c r="D14">
-        <v>0.9328043445466967</v>
+        <v>0.8878151945261891</v>
       </c>
       <c r="E14">
-        <v>0.9063256842596705</v>
+        <v>0.849184678718122</v>
       </c>
       <c r="F14">
-        <v>0.8506113274197136</v>
+        <v>0.7846143105686466</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.001148090216535</v>
+        <v>0.9860929048482836</v>
       </c>
       <c r="J14">
-        <v>0.9290245818156224</v>
+        <v>0.8743500782563232</v>
       </c>
       <c r="K14">
-        <v>0.9491342056075052</v>
+        <v>0.9052360858583307</v>
       </c>
       <c r="L14">
-        <v>0.9232800258509208</v>
+        <v>0.86766936433516</v>
       </c>
       <c r="M14">
-        <v>0.8690543674824261</v>
+        <v>0.8052077368771968</v>
       </c>
       <c r="N14">
-        <v>0.9303439032824096</v>
+        <v>0.8755917556568028</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8967276644822511</v>
+        <v>0.8399310174723085</v>
       </c>
       <c r="D15">
-        <v>0.9345700956635178</v>
+        <v>0.8907703521927465</v>
       </c>
       <c r="E15">
-        <v>0.9084897356981185</v>
+        <v>0.8528713297718857</v>
       </c>
       <c r="F15">
-        <v>0.85352814533486</v>
+        <v>0.7895134084261501</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.001949228294857</v>
+        <v>0.9873156549637155</v>
       </c>
       <c r="J15">
-        <v>0.9309491723901353</v>
+        <v>0.8776951164576022</v>
       </c>
       <c r="K15">
-        <v>0.9507617229076704</v>
+        <v>0.9080092893852076</v>
       </c>
       <c r="L15">
-        <v>0.9252886317813677</v>
+        <v>0.8711356902374372</v>
       </c>
       <c r="M15">
-        <v>0.871773671917256</v>
+        <v>0.8098019070494409</v>
       </c>
       <c r="N15">
-        <v>0.9322712269962916</v>
+        <v>0.8789415441960091</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9093831028108575</v>
+        <v>0.8603538390071921</v>
       </c>
       <c r="D16">
-        <v>0.9443830317194232</v>
+        <v>0.9064187039537253</v>
       </c>
       <c r="E16">
-        <v>0.9205088890824731</v>
+        <v>0.8723605707283806</v>
       </c>
       <c r="F16">
-        <v>0.8696581708024114</v>
+        <v>0.8152033764139034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.006393257539255</v>
+        <v>0.9937836847791321</v>
       </c>
       <c r="J16">
-        <v>0.9416280402768692</v>
+        <v>0.8953601373297845</v>
       </c>
       <c r="K16">
-        <v>0.9597948361717846</v>
+        <v>0.9226691249831822</v>
       </c>
       <c r="L16">
-        <v>0.9364373078830818</v>
+        <v>0.8894475678772705</v>
       </c>
       <c r="M16">
-        <v>0.886815352805433</v>
+        <v>0.8339122600972702</v>
       </c>
       <c r="N16">
-        <v>0.9429652601003081</v>
+        <v>0.8966316514240359</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9168450974438114</v>
+        <v>0.8717443609679777</v>
       </c>
       <c r="D17">
-        <v>0.9501783211776614</v>
+        <v>0.9151745162092413</v>
       </c>
       <c r="E17">
-        <v>0.9276020135868147</v>
+        <v>0.8832442502778797</v>
       </c>
       <c r="F17">
-        <v>0.8791256791647356</v>
+        <v>0.8294135389053163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009010647143827</v>
+        <v>0.997396327379893</v>
       </c>
       <c r="J17">
-        <v>0.9479216815031639</v>
+        <v>0.9052112233660231</v>
       </c>
       <c r="K17">
-        <v>0.9651201855286083</v>
+        <v>0.9308534610618571</v>
       </c>
       <c r="L17">
-        <v>0.9430108300115987</v>
+        <v>0.8996641683229105</v>
       </c>
       <c r="M17">
-        <v>0.8956464538703561</v>
+        <v>0.8472602211089783</v>
       </c>
       <c r="N17">
-        <v>0.9492678390190349</v>
+        <v>0.9064967271323814</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9210477882654196</v>
+        <v>0.8779923923823342</v>
       </c>
       <c r="D18">
-        <v>0.9534451201423051</v>
+        <v>0.9199851561627423</v>
       </c>
       <c r="E18">
-        <v>0.9315989814057373</v>
+        <v>0.8892183564874038</v>
       </c>
       <c r="F18">
-        <v>0.8844450646562938</v>
+        <v>0.8371768647396231</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010483488600632</v>
+        <v>0.9993786964974303</v>
       </c>
       <c r="J18">
-        <v>0.951465236783093</v>
+        <v>0.9106141109621396</v>
       </c>
       <c r="K18">
-        <v>0.9681189387742242</v>
+        <v>0.9353444700124515</v>
       </c>
       <c r="L18">
-        <v>0.9467129910830504</v>
+        <v>0.9052690482936088</v>
       </c>
       <c r="M18">
-        <v>0.9006088065668797</v>
+        <v>0.8545552349998469</v>
       </c>
       <c r="N18">
-        <v>0.9528164265539132</v>
+        <v>0.9119072874486044</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.922457153407061</v>
+        <v>0.8800636317952828</v>
       </c>
       <c r="D19">
-        <v>0.9545410703864333</v>
+        <v>0.9215810583765655</v>
       </c>
       <c r="E19">
-        <v>0.9329396827177528</v>
+        <v>0.8911994192090168</v>
       </c>
       <c r="F19">
-        <v>0.886226945146125</v>
+        <v>0.8397458573898486</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010977160890846</v>
+        <v>1.000035898307903</v>
       </c>
       <c r="J19">
-        <v>0.9526533694900916</v>
+        <v>0.9124050411198745</v>
       </c>
       <c r="K19">
-        <v>0.9691244506786163</v>
+        <v>0.9368334451893847</v>
       </c>
       <c r="L19">
-        <v>0.9479544725230259</v>
+        <v>0.9071271792241631</v>
       </c>
       <c r="M19">
-        <v>0.9022711543445484</v>
+        <v>0.8569696232349897</v>
       </c>
       <c r="N19">
-        <v>0.9540062465456364</v>
+        <v>0.913700760932586</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.916060422211433</v>
+        <v>0.8705652487088947</v>
       </c>
       <c r="D20">
-        <v>0.9495686042404932</v>
+        <v>0.9142672703330272</v>
       </c>
       <c r="E20">
-        <v>0.9268559098402271</v>
+        <v>0.8821171551421334</v>
       </c>
       <c r="F20">
-        <v>0.8781315103822936</v>
+        <v>0.8279460616646857</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.008735543941093</v>
+        <v>0.9970222588752747</v>
       </c>
       <c r="J20">
-        <v>0.9472599803468108</v>
+        <v>0.9041915398243846</v>
       </c>
       <c r="K20">
-        <v>0.964560244373617</v>
+        <v>0.9300060443932856</v>
       </c>
       <c r="L20">
-        <v>0.9423195944767025</v>
+        <v>0.8986064856926186</v>
       </c>
       <c r="M20">
-        <v>0.8947190504795112</v>
+        <v>0.8458814685759788</v>
       </c>
       <c r="N20">
-        <v>0.9486051981711419</v>
+        <v>0.9054755955231545</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8933457877066135</v>
+        <v>0.8341706699923304</v>
       </c>
       <c r="D21">
-        <v>0.9319514107628876</v>
+        <v>0.8863693925100898</v>
       </c>
       <c r="E21">
-        <v>0.9052801989151389</v>
+        <v>0.8473802252581806</v>
       </c>
       <c r="F21">
-        <v>0.8492007166876108</v>
+        <v>0.7822114351896546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.000760955425813</v>
+        <v>0.9854945605103242</v>
       </c>
       <c r="J21">
-        <v>0.9280945853153549</v>
+        <v>0.8727124351150164</v>
       </c>
       <c r="K21">
-        <v>0.9483478188427927</v>
+        <v>0.9038787551287816</v>
       </c>
       <c r="L21">
-        <v>0.9223095016131144</v>
+        <v>0.8659724789257112</v>
       </c>
       <c r="M21">
-        <v>0.8677393668970245</v>
+        <v>0.802954910470132</v>
       </c>
       <c r="N21">
-        <v>0.9294125860804399</v>
+        <v>0.8739517868743949</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8771495748927016</v>
+        <v>0.8038438865789793</v>
       </c>
       <c r="D22">
-        <v>0.9194330742171426</v>
+        <v>0.8633025895553752</v>
       </c>
       <c r="E22">
-        <v>0.8899230829431237</v>
+        <v>0.8185155177629561</v>
       </c>
       <c r="F22">
-        <v>0.8283638064835411</v>
+        <v>0.7432703856804576</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9950686498770064</v>
+        <v>0.9759412510722157</v>
       </c>
       <c r="J22">
-        <v>0.9144193778196069</v>
+        <v>0.8464812160209291</v>
       </c>
       <c r="K22">
-        <v>0.9367894065738074</v>
+        <v>0.8821738985459971</v>
       </c>
       <c r="L22">
-        <v>0.9080434804689016</v>
+        <v>0.8388045279265162</v>
       </c>
       <c r="M22">
-        <v>0.8483227889672085</v>
+        <v>0.7664985441078546</v>
       </c>
       <c r="N22">
-        <v>0.9157179582214797</v>
+        <v>0.8476833164404315</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8859538214509564</v>
+        <v>0.8209859507468004</v>
       </c>
       <c r="D23">
-        <v>0.9262332156928591</v>
+        <v>0.8763189404207128</v>
       </c>
       <c r="E23">
-        <v>0.8982683600746915</v>
+        <v>0.8348218413590679</v>
       </c>
       <c r="F23">
-        <v>0.8397147076511573</v>
+        <v>0.7653916030021639</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9981631235119226</v>
+        <v>0.9813334202897774</v>
       </c>
       <c r="J23">
-        <v>0.921854015505866</v>
+        <v>0.8613078758167528</v>
       </c>
       <c r="K23">
-        <v>0.9430719860415423</v>
+        <v>0.8944332706603307</v>
       </c>
       <c r="L23">
-        <v>0.9157981399636136</v>
+        <v>0.8541578373556026</v>
       </c>
       <c r="M23">
-        <v>0.8588979817315874</v>
+        <v>0.7871952526090559</v>
       </c>
       <c r="N23">
-        <v>0.9231631539460176</v>
+        <v>0.8625310317938069</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9164154408152382</v>
+        <v>0.8710992358631324</v>
       </c>
       <c r="D24">
-        <v>0.9498444559724754</v>
+        <v>0.9146781125117355</v>
       </c>
       <c r="E24">
-        <v>0.9271934708470208</v>
+        <v>0.8826275724275184</v>
       </c>
       <c r="F24">
-        <v>0.8785813518966732</v>
+        <v>0.8286107381277565</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.008860015838566</v>
+        <v>0.997191662051402</v>
       </c>
       <c r="J24">
-        <v>0.9475593640127671</v>
+        <v>0.9046533284816837</v>
       </c>
       <c r="K24">
-        <v>0.964813586041694</v>
+        <v>0.9303898108529903</v>
       </c>
       <c r="L24">
-        <v>0.942632337644184</v>
+        <v>0.8990854783846914</v>
       </c>
       <c r="M24">
-        <v>0.8951386803790871</v>
+        <v>0.8465059499012837</v>
       </c>
       <c r="N24">
-        <v>0.9489050069962431</v>
+        <v>0.9059380399733148</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.945929047929657</v>
+        <v>0.9131344563727188</v>
       </c>
       <c r="D25">
-        <v>0.9728220106686611</v>
+        <v>0.9471318185014914</v>
       </c>
       <c r="E25">
-        <v>0.9552916598282559</v>
+        <v>0.9228715972028378</v>
       </c>
       <c r="F25">
-        <v>0.9157737724476065</v>
+        <v>0.8804978601472323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.019175298511317</v>
+        <v>1.010520706644677</v>
       </c>
       <c r="J25">
-        <v>0.9724239593671167</v>
+        <v>0.940985853688832</v>
       </c>
       <c r="K25">
-        <v>0.9858574098243675</v>
+        <v>0.9606103141288457</v>
       </c>
       <c r="L25">
-        <v>0.9686260722775248</v>
+        <v>0.9367981635770394</v>
       </c>
       <c r="M25">
-        <v>0.9298373191780112</v>
+        <v>0.8952856989520569</v>
       </c>
       <c r="N25">
-        <v>0.9738049129280052</v>
+        <v>0.942322161533656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9403474843863046</v>
+        <v>1.040980325599067</v>
       </c>
       <c r="D2">
-        <v>0.9682351516123631</v>
+        <v>1.040951545586742</v>
       </c>
       <c r="E2">
-        <v>0.9489891607288652</v>
+        <v>1.044637614288245</v>
       </c>
       <c r="F2">
-        <v>0.9137344062395354</v>
+        <v>1.039742532480231</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.019109053990567</v>
+        <v>1.033366393062693</v>
       </c>
       <c r="J2">
-        <v>0.9644715445329585</v>
+        <v>1.046064003737711</v>
       </c>
       <c r="K2">
-        <v>0.9801555064257856</v>
+        <v>1.043732438570256</v>
       </c>
       <c r="L2">
-        <v>0.9612080741273021</v>
+        <v>1.047408103293208</v>
       </c>
       <c r="M2">
-        <v>0.9265424786938699</v>
+        <v>1.042526855358008</v>
       </c>
       <c r="N2">
-        <v>0.9658412047526277</v>
+        <v>1.047549534608237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.957782042525949</v>
+        <v>1.043560390678937</v>
       </c>
       <c r="D3">
-        <v>0.9817800173950377</v>
+        <v>1.042931612049246</v>
       </c>
       <c r="E3">
-        <v>0.9657467523500103</v>
+        <v>1.047169698320997</v>
       </c>
       <c r="F3">
-        <v>0.9349285464943554</v>
+        <v>1.042971897928034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.024573699550979</v>
+        <v>1.034014529080863</v>
       </c>
       <c r="J3">
-        <v>0.9794937370811541</v>
+        <v>1.048281792677045</v>
       </c>
       <c r="K3">
-        <v>0.9926514595752753</v>
+        <v>1.045519962940586</v>
       </c>
       <c r="L3">
-        <v>0.9768375185296858</v>
+        <v>1.049746984909431</v>
       </c>
       <c r="M3">
-        <v>0.9464677880329754</v>
+        <v>1.045560143188544</v>
       </c>
       <c r="N3">
-        <v>0.9808847305373113</v>
+        <v>1.049770473062249</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9682401219499899</v>
+        <v>1.045217827346884</v>
       </c>
       <c r="D4">
-        <v>0.9899103661508979</v>
+        <v>1.044202284581959</v>
       </c>
       <c r="E4">
-        <v>0.9758077427534192</v>
+        <v>1.04879654112603</v>
       </c>
       <c r="F4">
-        <v>0.9476146082683548</v>
+        <v>1.045048007310766</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027831383562655</v>
+        <v>1.034427767191165</v>
       </c>
       <c r="J4">
-        <v>0.9884926822136827</v>
+        <v>1.049704967624586</v>
       </c>
       <c r="K4">
-        <v>1.000132109081119</v>
+        <v>1.046665681990339</v>
       </c>
       <c r="L4">
-        <v>0.9862071909619984</v>
+        <v>1.05124856967063</v>
       </c>
       <c r="M4">
-        <v>0.9583892890625183</v>
+        <v>1.047509303829328</v>
       </c>
       <c r="N4">
-        <v>0.9898964552041213</v>
+        <v>1.051195669081456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.972466966550111</v>
+        <v>1.045911804934407</v>
       </c>
       <c r="D5">
-        <v>0.9931970709450486</v>
+        <v>1.044734002171011</v>
       </c>
       <c r="E5">
-        <v>0.9798759728224705</v>
+        <v>1.049477762949249</v>
       </c>
       <c r="F5">
-        <v>0.9527373722395389</v>
+        <v>1.045917666173718</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029142839983091</v>
+        <v>1.034600041902576</v>
       </c>
       <c r="J5">
-        <v>0.9921267881460181</v>
+        <v>1.050300490548349</v>
       </c>
       <c r="K5">
-        <v>1.003151619767111</v>
+        <v>1.047144779149495</v>
       </c>
       <c r="L5">
-        <v>0.9899926306542274</v>
+        <v>1.051877071475913</v>
       </c>
       <c r="M5">
-        <v>0.9632018764821063</v>
+        <v>1.048325571073269</v>
       </c>
       <c r="N5">
-        <v>0.9935357219837183</v>
+        <v>1.051792037716078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.973167393256914</v>
+        <v>1.046028164216777</v>
       </c>
       <c r="D6">
-        <v>0.993741730156469</v>
+        <v>1.044823136465233</v>
       </c>
       <c r="E6">
-        <v>0.9805502191671828</v>
+        <v>1.049591986618544</v>
       </c>
       <c r="F6">
-        <v>0.9535860397145284</v>
+        <v>1.046063504490178</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029359845074566</v>
+        <v>1.034628883140018</v>
       </c>
       <c r="J6">
-        <v>0.9927288132904127</v>
+        <v>1.050400320322564</v>
       </c>
       <c r="K6">
-        <v>1.003651739133776</v>
+        <v>1.047225072896249</v>
       </c>
       <c r="L6">
-        <v>0.9906198199917821</v>
+        <v>1.051982439518074</v>
       </c>
       <c r="M6">
-        <v>0.9639990682478635</v>
+        <v>1.048462443252607</v>
       </c>
       <c r="N6">
-        <v>0.9941386020728715</v>
+        <v>1.051892009260023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9682972369190155</v>
+        <v>1.045227111249204</v>
       </c>
       <c r="D7">
-        <v>0.9899547756832744</v>
+        <v>1.044209399062477</v>
       </c>
       <c r="E7">
-        <v>0.9758627072927263</v>
+        <v>1.048805654172493</v>
       </c>
       <c r="F7">
-        <v>0.9476838452712284</v>
+        <v>1.045059639936707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027849125701063</v>
+        <v>1.034430074805532</v>
       </c>
       <c r="J7">
-        <v>0.9885417999330031</v>
+        <v>1.049712935867878</v>
       </c>
       <c r="K7">
-        <v>1.000172926176075</v>
+        <v>1.046672093710864</v>
       </c>
       <c r="L7">
-        <v>0.9862583476599978</v>
+        <v>1.051256978515828</v>
       </c>
       <c r="M7">
-        <v>0.9584543398476161</v>
+        <v>1.047520223128049</v>
       </c>
       <c r="N7">
-        <v>0.9899456426762372</v>
+        <v>1.051203648640567</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9464288678356652</v>
+        <v>1.041854807709194</v>
       </c>
       <c r="D8">
-        <v>0.972958096769976</v>
+        <v>1.041622939285645</v>
       </c>
       <c r="E8">
-        <v>0.9548322540880656</v>
+        <v>1.045495785598999</v>
       </c>
       <c r="F8">
-        <v>0.9211345408910478</v>
+        <v>1.040836766488335</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021019360415946</v>
+        <v>1.033586720022479</v>
       </c>
       <c r="J8">
-        <v>0.9697140247722318</v>
+        <v>1.046816015826105</v>
       </c>
       <c r="K8">
-        <v>0.9845172700392588</v>
+        <v>1.044338836069791</v>
       </c>
       <c r="L8">
-        <v>0.9666609231527068</v>
+        <v>1.048201029271765</v>
       </c>
       <c r="M8">
-        <v>0.9335005332483354</v>
+        <v>1.043554836301965</v>
       </c>
       <c r="N8">
-        <v>0.9710911299151618</v>
+        <v>1.048302614640054</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8998068603991602</v>
+        <v>1.035816834899227</v>
       </c>
       <c r="D9">
-        <v>0.9368201618199038</v>
+        <v>1.036981820917625</v>
       </c>
       <c r="E9">
-        <v>0.9100984915395723</v>
+        <v>1.039571419036545</v>
       </c>
       <c r="F9">
-        <v>0.8641302942013545</v>
+        <v>1.033287696457957</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.006298655982934</v>
+        <v>1.032052537967777</v>
       </c>
       <c r="J9">
-        <v>0.9294716221112619</v>
+        <v>1.041617291600494</v>
       </c>
       <c r="K9">
-        <v>0.9510288129258541</v>
+        <v>1.040141199192216</v>
       </c>
       <c r="L9">
-        <v>0.9248405596276137</v>
+        <v>1.042722390232306</v>
       </c>
       <c r="M9">
-        <v>0.8798936723784548</v>
+        <v>1.036459147578809</v>
       </c>
       <c r="N9">
-        <v>0.9307915784265451</v>
+        <v>1.04309650762974</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8590058734428768</v>
+        <v>1.031722513114367</v>
       </c>
       <c r="D10">
-        <v>0.9053838097803307</v>
+        <v>1.033828007252485</v>
       </c>
       <c r="E10">
-        <v>0.8710732323172167</v>
+        <v>1.035555414806415</v>
       </c>
       <c r="F10">
-        <v>0.8135165102252366</v>
+        <v>1.028176232477886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9933563427607561</v>
+        <v>1.030996012447559</v>
       </c>
       <c r="J10">
-        <v>0.8941942646120498</v>
+        <v>1.038084050366391</v>
       </c>
       <c r="K10">
-        <v>0.9217009039050726</v>
+        <v>1.037281384092493</v>
       </c>
       <c r="L10">
-        <v>0.8882386682355412</v>
+        <v>1.03900260258369</v>
       </c>
       <c r="M10">
-        <v>0.8323282305744182</v>
+        <v>1.031650019340162</v>
       </c>
       <c r="N10">
-        <v>0.8954641230333146</v>
+        <v>1.039558248787816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8368117148108398</v>
+        <v>1.02993217102625</v>
       </c>
       <c r="D11">
-        <v>0.8883864464432666</v>
+        <v>1.032447374015807</v>
       </c>
       <c r="E11">
-        <v>0.849897496868432</v>
+        <v>1.033799635309964</v>
       </c>
       <c r="F11">
-        <v>0.7855626133782635</v>
+        <v>1.025942806091055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9863292964695166</v>
+        <v>1.03053020102539</v>
       </c>
       <c r="J11">
-        <v>0.8749969296176401</v>
+        <v>1.036537158290368</v>
       </c>
       <c r="K11">
-        <v>0.9057722822766885</v>
+        <v>1.036027697905854</v>
       </c>
       <c r="L11">
-        <v>0.8683396405290414</v>
+        <v>1.037374915196527</v>
       </c>
       <c r="M11">
-        <v>0.8060969124257127</v>
+        <v>1.029547598193605</v>
       </c>
       <c r="N11">
-        <v>0.8762395256212479</v>
+        <v>1.038009159947614</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8274286378383515</v>
+        <v>1.029264437584253</v>
       </c>
       <c r="D12">
-        <v>0.881226015061313</v>
+        <v>1.031932217360918</v>
       </c>
       <c r="E12">
-        <v>0.8409567056268462</v>
+        <v>1.033144841049689</v>
       </c>
       <c r="F12">
-        <v>0.7736299424229429</v>
+        <v>1.025110062754896</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9833654228142582</v>
+        <v>1.030355898267816</v>
       </c>
       <c r="J12">
-        <v>0.8668806391646895</v>
+        <v>1.035959938464535</v>
       </c>
       <c r="K12">
-        <v>0.8990471736317031</v>
+        <v>1.035559644575437</v>
       </c>
       <c r="L12">
-        <v>0.8599304436742008</v>
+        <v>1.036767678524813</v>
       </c>
       <c r="M12">
-        <v>0.7949120829487392</v>
+        <v>1.02876353607013</v>
       </c>
       <c r="N12">
-        <v>0.8681117091049024</v>
+        <v>1.03743112040342</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8295063956836232</v>
+        <v>1.029407793353934</v>
       </c>
       <c r="D13">
-        <v>0.8828102086473777</v>
+        <v>1.032042826750649</v>
       </c>
       <c r="E13">
-        <v>0.84293591256874</v>
+        <v>1.033285416691175</v>
       </c>
       <c r="F13">
-        <v>0.7762787731009447</v>
+        <v>1.025288833593098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9840212970073496</v>
+        <v>1.030393345172306</v>
       </c>
       <c r="J13">
-        <v>0.8686778719128535</v>
+        <v>1.036083874717027</v>
       </c>
       <c r="K13">
-        <v>0.9005358217928355</v>
+        <v>1.035660152375609</v>
       </c>
       <c r="L13">
-        <v>0.8617923467034575</v>
+        <v>1.036898053806423</v>
       </c>
       <c r="M13">
-        <v>0.797394166263237</v>
+        <v>1.028931863614256</v>
       </c>
       <c r="N13">
-        <v>0.8699114941297144</v>
+        <v>1.037555232659607</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8360639071210697</v>
+        <v>1.029877032034797</v>
       </c>
       <c r="D14">
-        <v>0.8878151945261891</v>
+        <v>1.032404838925001</v>
       </c>
       <c r="E14">
-        <v>0.849184678718122</v>
+        <v>1.033745563793204</v>
       </c>
       <c r="F14">
-        <v>0.7846143105686466</v>
+        <v>1.02587403625041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9860929048482836</v>
+        <v>1.03051581937658</v>
       </c>
       <c r="J14">
-        <v>0.8743500782563232</v>
+        <v>1.036489499377522</v>
       </c>
       <c r="K14">
-        <v>0.9052360858583307</v>
+        <v>1.035989057401952</v>
       </c>
       <c r="L14">
-        <v>0.86766936433516</v>
+        <v>1.037324775218897</v>
       </c>
       <c r="M14">
-        <v>0.8052077368771968</v>
+        <v>1.029482851911781</v>
       </c>
       <c r="N14">
-        <v>0.8755917556568028</v>
+        <v>1.037961433353646</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8399310174723085</v>
+        <v>1.030165782055762</v>
       </c>
       <c r="D15">
-        <v>0.8907703521927465</v>
+        <v>1.032627575879769</v>
       </c>
       <c r="E15">
-        <v>0.8528713297718857</v>
+        <v>1.034028725690646</v>
       </c>
       <c r="F15">
-        <v>0.7895134084261501</v>
+        <v>1.026234177797006</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9873156549637155</v>
+        <v>1.030591109347875</v>
       </c>
       <c r="J15">
-        <v>0.8776951164576022</v>
+        <v>1.036739066343671</v>
       </c>
       <c r="K15">
-        <v>0.9080092893852076</v>
+        <v>1.036191389356375</v>
       </c>
       <c r="L15">
-        <v>0.8711356902374372</v>
+        <v>1.037587339723026</v>
       </c>
       <c r="M15">
-        <v>0.8098019070494409</v>
+        <v>1.029821915706264</v>
       </c>
       <c r="N15">
-        <v>0.8789415441960091</v>
+        <v>1.038211354733512</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8603538390071921</v>
+        <v>1.03184095598537</v>
       </c>
       <c r="D16">
-        <v>0.9064187039537253</v>
+        <v>1.033919312903821</v>
       </c>
       <c r="E16">
-        <v>0.8723605707283806</v>
+        <v>1.035671577863044</v>
       </c>
       <c r="F16">
-        <v>0.8152033764139034</v>
+        <v>1.028324022936046</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9937836847791321</v>
+        <v>1.031026748937297</v>
       </c>
       <c r="J16">
-        <v>0.8953601373297845</v>
+        <v>1.038186347657936</v>
       </c>
       <c r="K16">
-        <v>0.9226691249831822</v>
+        <v>1.037364257439719</v>
       </c>
       <c r="L16">
-        <v>0.8894475678772705</v>
+        <v>1.039110261334059</v>
       </c>
       <c r="M16">
-        <v>0.8339122600972702</v>
+        <v>1.031789117875249</v>
       </c>
       <c r="N16">
-        <v>0.8966316514240359</v>
+        <v>1.039660691353249</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8717443609679777</v>
+        <v>1.032887003580402</v>
       </c>
       <c r="D17">
-        <v>0.9151745162092413</v>
+        <v>1.034725515796904</v>
       </c>
       <c r="E17">
-        <v>0.8832442502778797</v>
+        <v>1.036697527388971</v>
       </c>
       <c r="F17">
-        <v>0.8294135389053163</v>
+        <v>1.029629451270752</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.997396327379893</v>
+        <v>1.031297764511182</v>
       </c>
       <c r="J17">
-        <v>0.9052112233660231</v>
+        <v>1.039089585044418</v>
       </c>
       <c r="K17">
-        <v>0.9308534610618571</v>
+        <v>1.038095803741651</v>
       </c>
       <c r="L17">
-        <v>0.8996641683229105</v>
+        <v>1.040060938611225</v>
       </c>
       <c r="M17">
-        <v>0.8472602211089783</v>
+        <v>1.033017644452582</v>
       </c>
       <c r="N17">
-        <v>0.9064967271323814</v>
+        <v>1.040565211440422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8779923923823342</v>
+        <v>1.03349546606197</v>
       </c>
       <c r="D18">
-        <v>0.9199851561627423</v>
+        <v>1.035194316965717</v>
       </c>
       <c r="E18">
-        <v>0.8892183564874038</v>
+        <v>1.037294329546461</v>
       </c>
       <c r="F18">
-        <v>0.8371768647396231</v>
+        <v>1.030388952034586</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9993786964974303</v>
+        <v>1.031455041646086</v>
       </c>
       <c r="J18">
-        <v>0.9106141109621396</v>
+        <v>1.039614796111753</v>
       </c>
       <c r="K18">
-        <v>0.9353444700124515</v>
+        <v>1.038521024398469</v>
       </c>
       <c r="L18">
-        <v>0.9052690482936088</v>
+        <v>1.040613818886964</v>
       </c>
       <c r="M18">
-        <v>0.8545552349998469</v>
+        <v>1.033732298156617</v>
       </c>
       <c r="N18">
-        <v>0.9119072874486044</v>
+        <v>1.041091168367715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8800636317952828</v>
+        <v>1.033702654044382</v>
       </c>
       <c r="D19">
-        <v>0.9215810583765655</v>
+        <v>1.035353923408347</v>
       </c>
       <c r="E19">
-        <v>0.8911994192090168</v>
+        <v>1.037497552167233</v>
       </c>
       <c r="F19">
-        <v>0.8397458573898486</v>
+        <v>1.030647597954585</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.000035898307903</v>
+        <v>1.031508533955124</v>
       </c>
       <c r="J19">
-        <v>0.9124050411198745</v>
+        <v>1.039793605231343</v>
       </c>
       <c r="K19">
-        <v>0.9368334451893847</v>
+        <v>1.038665765054752</v>
       </c>
       <c r="L19">
-        <v>0.9071271792241631</v>
+        <v>1.040802062295137</v>
       </c>
       <c r="M19">
-        <v>0.8569696232349897</v>
+        <v>1.033975653632618</v>
       </c>
       <c r="N19">
-        <v>0.913700760932586</v>
+        <v>1.041270231416765</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8705652487088947</v>
+        <v>1.03277494696135</v>
       </c>
       <c r="D20">
-        <v>0.9142672703330272</v>
+        <v>1.034639167667276</v>
       </c>
       <c r="E20">
-        <v>0.8821171551421334</v>
+        <v>1.036587620609816</v>
       </c>
       <c r="F20">
-        <v>0.8279460616646857</v>
+        <v>1.029489592049696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9970222588752747</v>
+        <v>1.031268770227222</v>
       </c>
       <c r="J20">
-        <v>0.9041915398243846</v>
+        <v>1.038992845634651</v>
       </c>
       <c r="K20">
-        <v>0.9300060443932856</v>
+        <v>1.038017469113131</v>
       </c>
       <c r="L20">
-        <v>0.8986064856926186</v>
+        <v>1.03995910954467</v>
       </c>
       <c r="M20">
-        <v>0.8458814685759788</v>
+        <v>1.032886035145441</v>
       </c>
       <c r="N20">
-        <v>0.9054755955231545</v>
+        <v>1.040468334649597</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8341706699923304</v>
+        <v>1.029738928822292</v>
       </c>
       <c r="D21">
-        <v>0.8863693925100898</v>
+        <v>1.032298300220937</v>
       </c>
       <c r="E21">
-        <v>0.8473802252581806</v>
+        <v>1.0336101350059</v>
       </c>
       <c r="F21">
-        <v>0.7822114351896546</v>
+        <v>1.025701796613744</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9854945605103242</v>
+        <v>1.03047978933222</v>
       </c>
       <c r="J21">
-        <v>0.8727124351150164</v>
+        <v>1.036370126463665</v>
       </c>
       <c r="K21">
-        <v>0.9038787551287816</v>
+        <v>1.035892269295825</v>
       </c>
       <c r="L21">
-        <v>0.8659724789257112</v>
+        <v>1.03719919002346</v>
       </c>
       <c r="M21">
-        <v>0.802954910470132</v>
+        <v>1.029320686947342</v>
       </c>
       <c r="N21">
-        <v>0.8739517868743949</v>
+        <v>1.037841890916558</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8038438865789793</v>
+        <v>1.027814273499857</v>
       </c>
       <c r="D22">
-        <v>0.8633025895553752</v>
+        <v>1.030812997344083</v>
       </c>
       <c r="E22">
-        <v>0.8185155177629561</v>
+        <v>1.031722868055388</v>
       </c>
       <c r="F22">
-        <v>0.7432703856804576</v>
+        <v>1.023301973574133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9759412510722157</v>
+        <v>1.029976307418317</v>
       </c>
       <c r="J22">
-        <v>0.8464812160209291</v>
+        <v>1.03470582838624</v>
       </c>
       <c r="K22">
-        <v>0.8821738985459971</v>
+        <v>1.034542274831939</v>
       </c>
       <c r="L22">
-        <v>0.8388045279265162</v>
+        <v>1.035448593164218</v>
       </c>
       <c r="M22">
-        <v>0.7664985441078546</v>
+        <v>1.027060844442706</v>
       </c>
       <c r="N22">
-        <v>0.8476833164404315</v>
+        <v>1.036175229344966</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8209859507468004</v>
+        <v>1.028836099006942</v>
       </c>
       <c r="D23">
-        <v>0.8763189404207128</v>
+        <v>1.031601689601525</v>
       </c>
       <c r="E23">
-        <v>0.8348218413590679</v>
+        <v>1.032724816526432</v>
       </c>
       <c r="F23">
-        <v>0.7653916030021639</v>
+        <v>1.024575941203995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9813334202897774</v>
+        <v>1.030243925549349</v>
       </c>
       <c r="J23">
-        <v>0.8613078758167528</v>
+        <v>1.035589582617387</v>
       </c>
       <c r="K23">
-        <v>0.8944332706603307</v>
+        <v>1.03525926402156</v>
       </c>
       <c r="L23">
-        <v>0.8541578373556026</v>
+        <v>1.036378100378372</v>
       </c>
       <c r="M23">
-        <v>0.7871952526090559</v>
+        <v>1.028260592321616</v>
       </c>
       <c r="N23">
-        <v>0.8625310317938069</v>
+        <v>1.037060238608489</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8710992358631324</v>
+        <v>1.032825585708024</v>
       </c>
       <c r="D24">
-        <v>0.9146781125117355</v>
+        <v>1.034678189126143</v>
       </c>
       <c r="E24">
-        <v>0.8826275724275184</v>
+        <v>1.036637287743344</v>
       </c>
       <c r="F24">
-        <v>0.8286107381277565</v>
+        <v>1.02955279437884</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.997191662051402</v>
+        <v>1.03128187397168</v>
       </c>
       <c r="J24">
-        <v>0.9046533284816837</v>
+        <v>1.039036563048006</v>
       </c>
       <c r="K24">
-        <v>0.9303898108529903</v>
+        <v>1.038052869722789</v>
       </c>
       <c r="L24">
-        <v>0.8990854783846914</v>
+        <v>1.040005126759872</v>
       </c>
       <c r="M24">
-        <v>0.8465059499012837</v>
+        <v>1.032945509667904</v>
       </c>
       <c r="N24">
-        <v>0.9059380399733148</v>
+        <v>1.040512114146694</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9131344563727188</v>
+        <v>1.037389601135783</v>
       </c>
       <c r="D25">
-        <v>0.9471318185014914</v>
+        <v>1.038191917830773</v>
       </c>
       <c r="E25">
-        <v>0.9228715972028378</v>
+        <v>1.041114373159042</v>
       </c>
       <c r="F25">
-        <v>0.8804978601472323</v>
+        <v>1.035252723581862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010520706644677</v>
+        <v>1.032455001612292</v>
       </c>
       <c r="J25">
-        <v>0.940985853688832</v>
+        <v>1.042972852966841</v>
       </c>
       <c r="K25">
-        <v>0.9606103141288457</v>
+        <v>1.041236948921693</v>
       </c>
       <c r="L25">
-        <v>0.9367981635770394</v>
+        <v>1.044150294009111</v>
       </c>
       <c r="M25">
-        <v>0.8952856989520569</v>
+        <v>1.038306973793555</v>
       </c>
       <c r="N25">
-        <v>0.942322161533656</v>
+        <v>1.044453994048713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040980325599067</v>
+        <v>0.9403474843863038</v>
       </c>
       <c r="D2">
-        <v>1.040951545586742</v>
+        <v>0.9682351516123625</v>
       </c>
       <c r="E2">
-        <v>1.044637614288245</v>
+        <v>0.9489891607288643</v>
       </c>
       <c r="F2">
-        <v>1.039742532480231</v>
+        <v>0.9137344062395348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033366393062693</v>
+        <v>1.019109053990567</v>
       </c>
       <c r="J2">
-        <v>1.046064003737711</v>
+        <v>0.9644715445329578</v>
       </c>
       <c r="K2">
-        <v>1.043732438570256</v>
+        <v>0.9801555064257851</v>
       </c>
       <c r="L2">
-        <v>1.047408103293208</v>
+        <v>0.9612080741273014</v>
       </c>
       <c r="M2">
-        <v>1.042526855358008</v>
+        <v>0.9265424786938692</v>
       </c>
       <c r="N2">
-        <v>1.047549534608237</v>
+        <v>0.9658412047526268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043560390678937</v>
+        <v>0.9577820425259499</v>
       </c>
       <c r="D3">
-        <v>1.042931612049246</v>
+        <v>0.9817800173950386</v>
       </c>
       <c r="E3">
-        <v>1.047169698320997</v>
+        <v>0.9657467523500112</v>
       </c>
       <c r="F3">
-        <v>1.042971897928034</v>
+        <v>0.9349285464943563</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034014529080863</v>
+        <v>1.024573699550979</v>
       </c>
       <c r="J3">
-        <v>1.048281792677045</v>
+        <v>0.9794937370811551</v>
       </c>
       <c r="K3">
-        <v>1.045519962940586</v>
+        <v>0.9926514595752762</v>
       </c>
       <c r="L3">
-        <v>1.049746984909431</v>
+        <v>0.9768375185296868</v>
       </c>
       <c r="M3">
-        <v>1.045560143188544</v>
+        <v>0.9464677880329763</v>
       </c>
       <c r="N3">
-        <v>1.049770473062249</v>
+        <v>0.9808847305373124</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045217827346884</v>
+        <v>0.9682401219499924</v>
       </c>
       <c r="D4">
-        <v>1.044202284581959</v>
+        <v>0.9899103661509002</v>
       </c>
       <c r="E4">
-        <v>1.04879654112603</v>
+        <v>0.9758077427534221</v>
       </c>
       <c r="F4">
-        <v>1.045048007310766</v>
+        <v>0.9476146082683581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034427767191165</v>
+        <v>1.027831383562656</v>
       </c>
       <c r="J4">
-        <v>1.049704967624586</v>
+        <v>0.9884926822136852</v>
       </c>
       <c r="K4">
-        <v>1.046665681990339</v>
+        <v>1.000132109081121</v>
       </c>
       <c r="L4">
-        <v>1.05124856967063</v>
+        <v>0.9862071909620012</v>
       </c>
       <c r="M4">
-        <v>1.047509303829328</v>
+        <v>0.9583892890625215</v>
       </c>
       <c r="N4">
-        <v>1.051195669081456</v>
+        <v>0.9898964552041238</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045911804934407</v>
+        <v>0.9724669665501131</v>
       </c>
       <c r="D5">
-        <v>1.044734002171011</v>
+        <v>0.9931970709450503</v>
       </c>
       <c r="E5">
-        <v>1.049477762949249</v>
+        <v>0.9798759728224724</v>
       </c>
       <c r="F5">
-        <v>1.045917666173718</v>
+        <v>0.9527373722395416</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034600041902576</v>
+        <v>1.029142839983092</v>
       </c>
       <c r="J5">
-        <v>1.050300490548349</v>
+        <v>0.9921267881460201</v>
       </c>
       <c r="K5">
-        <v>1.047144779149495</v>
+        <v>1.003151619767113</v>
       </c>
       <c r="L5">
-        <v>1.051877071475913</v>
+        <v>0.9899926306542293</v>
       </c>
       <c r="M5">
-        <v>1.048325571073269</v>
+        <v>0.9632018764821091</v>
       </c>
       <c r="N5">
-        <v>1.051792037716078</v>
+        <v>0.9935357219837205</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046028164216777</v>
+        <v>0.973167393256916</v>
       </c>
       <c r="D6">
-        <v>1.044823136465233</v>
+        <v>0.9937417301564707</v>
       </c>
       <c r="E6">
-        <v>1.049591986618544</v>
+        <v>0.9805502191671849</v>
       </c>
       <c r="F6">
-        <v>1.046063504490178</v>
+        <v>0.9535860397145307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034628883140018</v>
+        <v>1.029359845074566</v>
       </c>
       <c r="J6">
-        <v>1.050400320322564</v>
+        <v>0.9927288132904148</v>
       </c>
       <c r="K6">
-        <v>1.047225072896249</v>
+        <v>1.003651739133778</v>
       </c>
       <c r="L6">
-        <v>1.051982439518074</v>
+        <v>0.9906198199917842</v>
       </c>
       <c r="M6">
-        <v>1.048462443252607</v>
+        <v>0.9639990682478657</v>
       </c>
       <c r="N6">
-        <v>1.051892009260023</v>
+        <v>0.9941386020728739</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045227111249204</v>
+        <v>0.9682972369190135</v>
       </c>
       <c r="D7">
-        <v>1.044209399062477</v>
+        <v>0.9899547756832725</v>
       </c>
       <c r="E7">
-        <v>1.048805654172493</v>
+        <v>0.9758627072927241</v>
       </c>
       <c r="F7">
-        <v>1.045059639936707</v>
+        <v>0.9476838452712256</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034430074805532</v>
+        <v>1.027849125701062</v>
       </c>
       <c r="J7">
-        <v>1.049712935867878</v>
+        <v>0.9885417999330011</v>
       </c>
       <c r="K7">
-        <v>1.046672093710864</v>
+        <v>1.000172926176073</v>
       </c>
       <c r="L7">
-        <v>1.051256978515828</v>
+        <v>0.9862583476599956</v>
       </c>
       <c r="M7">
-        <v>1.047520223128049</v>
+        <v>0.9584543398476133</v>
       </c>
       <c r="N7">
-        <v>1.051203648640567</v>
+        <v>0.9899456426762351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041854807709194</v>
+        <v>0.9464288678356637</v>
       </c>
       <c r="D8">
-        <v>1.041622939285645</v>
+        <v>0.972958096769975</v>
       </c>
       <c r="E8">
-        <v>1.045495785598999</v>
+        <v>0.9548322540880643</v>
       </c>
       <c r="F8">
-        <v>1.040836766488335</v>
+        <v>0.9211345408910468</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033586720022479</v>
+        <v>1.021019360415946</v>
       </c>
       <c r="J8">
-        <v>1.046816015826105</v>
+        <v>0.9697140247722306</v>
       </c>
       <c r="K8">
-        <v>1.044338836069791</v>
+        <v>0.984517270039258</v>
       </c>
       <c r="L8">
-        <v>1.048201029271765</v>
+        <v>0.9666609231527054</v>
       </c>
       <c r="M8">
-        <v>1.043554836301965</v>
+        <v>0.9335005332483342</v>
       </c>
       <c r="N8">
-        <v>1.048302614640054</v>
+        <v>0.9710911299151607</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035816834899227</v>
+        <v>0.8998068603991595</v>
       </c>
       <c r="D9">
-        <v>1.036981820917625</v>
+        <v>0.9368201618199034</v>
       </c>
       <c r="E9">
-        <v>1.039571419036545</v>
+        <v>0.9100984915395716</v>
       </c>
       <c r="F9">
-        <v>1.033287696457957</v>
+        <v>0.8641302942013538</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032052537967777</v>
+        <v>1.006298655982934</v>
       </c>
       <c r="J9">
-        <v>1.041617291600494</v>
+        <v>0.9294716221112614</v>
       </c>
       <c r="K9">
-        <v>1.040141199192216</v>
+        <v>0.9510288129258536</v>
       </c>
       <c r="L9">
-        <v>1.042722390232306</v>
+        <v>0.9248405596276129</v>
       </c>
       <c r="M9">
-        <v>1.036459147578809</v>
+        <v>0.8798936723784543</v>
       </c>
       <c r="N9">
-        <v>1.04309650762974</v>
+        <v>0.9307915784265445</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031722513114367</v>
+        <v>0.8590058734428763</v>
       </c>
       <c r="D10">
-        <v>1.033828007252485</v>
+        <v>0.9053838097803301</v>
       </c>
       <c r="E10">
-        <v>1.035555414806415</v>
+        <v>0.8710732323172162</v>
       </c>
       <c r="F10">
-        <v>1.028176232477886</v>
+        <v>0.8135165102252365</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030996012447559</v>
+        <v>0.9933563427607559</v>
       </c>
       <c r="J10">
-        <v>1.038084050366391</v>
+        <v>0.8941942646120492</v>
       </c>
       <c r="K10">
-        <v>1.037281384092493</v>
+        <v>0.9217009039050723</v>
       </c>
       <c r="L10">
-        <v>1.03900260258369</v>
+        <v>0.8882386682355408</v>
       </c>
       <c r="M10">
-        <v>1.031650019340162</v>
+        <v>0.8323282305744177</v>
       </c>
       <c r="N10">
-        <v>1.039558248787816</v>
+        <v>0.8954641230333141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02993217102625</v>
+        <v>0.8368117148108413</v>
       </c>
       <c r="D11">
-        <v>1.032447374015807</v>
+        <v>0.8883864464432677</v>
       </c>
       <c r="E11">
-        <v>1.033799635309964</v>
+        <v>0.8498974968684339</v>
       </c>
       <c r="F11">
-        <v>1.025942806091055</v>
+        <v>0.7855626133782658</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03053020102539</v>
+        <v>0.9863292964695169</v>
       </c>
       <c r="J11">
-        <v>1.036537158290368</v>
+        <v>0.8749969296176415</v>
       </c>
       <c r="K11">
-        <v>1.036027697905854</v>
+        <v>0.9057722822766895</v>
       </c>
       <c r="L11">
-        <v>1.037374915196527</v>
+        <v>0.868339640529043</v>
       </c>
       <c r="M11">
-        <v>1.029547598193605</v>
+        <v>0.8060969124257148</v>
       </c>
       <c r="N11">
-        <v>1.038009159947614</v>
+        <v>0.8762395256212492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029264437584253</v>
+        <v>0.8274286378383492</v>
       </c>
       <c r="D12">
-        <v>1.031932217360918</v>
+        <v>0.8812260150613112</v>
       </c>
       <c r="E12">
-        <v>1.033144841049689</v>
+        <v>0.8409567056268441</v>
       </c>
       <c r="F12">
-        <v>1.025110062754896</v>
+        <v>0.7736299424229406</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030355898267816</v>
+        <v>0.9833654228142574</v>
       </c>
       <c r="J12">
-        <v>1.035959938464535</v>
+        <v>0.8668806391646874</v>
       </c>
       <c r="K12">
-        <v>1.035559644575437</v>
+        <v>0.8990471736317013</v>
       </c>
       <c r="L12">
-        <v>1.036767678524813</v>
+        <v>0.8599304436741987</v>
       </c>
       <c r="M12">
-        <v>1.02876353607013</v>
+        <v>0.7949120829487367</v>
       </c>
       <c r="N12">
-        <v>1.03743112040342</v>
+        <v>0.8681117091049002</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029407793353934</v>
+        <v>0.8295063956836283</v>
       </c>
       <c r="D13">
-        <v>1.032042826750649</v>
+        <v>0.8828102086473814</v>
       </c>
       <c r="E13">
-        <v>1.033285416691175</v>
+        <v>0.8429359125687448</v>
       </c>
       <c r="F13">
-        <v>1.025288833593098</v>
+        <v>0.7762787731009511</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030393345172306</v>
+        <v>0.9840212970073513</v>
       </c>
       <c r="J13">
-        <v>1.036083874717027</v>
+        <v>0.8686778719128581</v>
       </c>
       <c r="K13">
-        <v>1.035660152375609</v>
+        <v>0.9005358217928391</v>
       </c>
       <c r="L13">
-        <v>1.036898053806423</v>
+        <v>0.8617923467034625</v>
       </c>
       <c r="M13">
-        <v>1.028931863614256</v>
+        <v>0.797394166263243</v>
       </c>
       <c r="N13">
-        <v>1.037555232659607</v>
+        <v>0.8699114941297189</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029877032034797</v>
+        <v>0.836063907121067</v>
       </c>
       <c r="D14">
-        <v>1.032404838925001</v>
+        <v>0.8878151945261872</v>
       </c>
       <c r="E14">
-        <v>1.033745563793204</v>
+        <v>0.8491846787181196</v>
       </c>
       <c r="F14">
-        <v>1.02587403625041</v>
+        <v>0.7846143105686438</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03051581937658</v>
+        <v>0.9860929048482829</v>
       </c>
       <c r="J14">
-        <v>1.036489499377522</v>
+        <v>0.8743500782563211</v>
       </c>
       <c r="K14">
-        <v>1.035989057401952</v>
+        <v>0.9052360858583288</v>
       </c>
       <c r="L14">
-        <v>1.037324775218897</v>
+        <v>0.8676693643351577</v>
       </c>
       <c r="M14">
-        <v>1.029482851911781</v>
+        <v>0.8052077368771945</v>
       </c>
       <c r="N14">
-        <v>1.037961433353646</v>
+        <v>0.8755917556568007</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030165782055762</v>
+        <v>0.8399310174723031</v>
       </c>
       <c r="D15">
-        <v>1.032627575879769</v>
+        <v>0.8907703521927423</v>
       </c>
       <c r="E15">
-        <v>1.034028725690646</v>
+        <v>0.8528713297718805</v>
       </c>
       <c r="F15">
-        <v>1.026234177797006</v>
+        <v>0.7895134084261435</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030591109347875</v>
+        <v>0.9873156549637138</v>
       </c>
       <c r="J15">
-        <v>1.036739066343671</v>
+        <v>0.8776951164575972</v>
       </c>
       <c r="K15">
-        <v>1.036191389356375</v>
+        <v>0.9080092893852035</v>
       </c>
       <c r="L15">
-        <v>1.037587339723026</v>
+        <v>0.871135690237432</v>
       </c>
       <c r="M15">
-        <v>1.029821915706264</v>
+        <v>0.8098019070494344</v>
       </c>
       <c r="N15">
-        <v>1.038211354733512</v>
+        <v>0.878941544196004</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03184095598537</v>
+        <v>0.8603538390071963</v>
       </c>
       <c r="D16">
-        <v>1.033919312903821</v>
+        <v>0.906418703953729</v>
       </c>
       <c r="E16">
-        <v>1.035671577863044</v>
+        <v>0.8723605707283848</v>
       </c>
       <c r="F16">
-        <v>1.028324022936046</v>
+        <v>0.8152033764139086</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031026748937297</v>
+        <v>0.9937836847791337</v>
       </c>
       <c r="J16">
-        <v>1.038186347657936</v>
+        <v>0.8953601373297886</v>
       </c>
       <c r="K16">
-        <v>1.037364257439719</v>
+        <v>0.9226691249831857</v>
       </c>
       <c r="L16">
-        <v>1.039110261334059</v>
+        <v>0.8894475678772747</v>
       </c>
       <c r="M16">
-        <v>1.031789117875249</v>
+        <v>0.8339122600972751</v>
       </c>
       <c r="N16">
-        <v>1.039660691353249</v>
+        <v>0.89663165142404</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032887003580402</v>
+        <v>0.8717443609679807</v>
       </c>
       <c r="D17">
-        <v>1.034725515796904</v>
+        <v>0.9151745162092437</v>
       </c>
       <c r="E17">
-        <v>1.036697527388971</v>
+        <v>0.8832442502778824</v>
       </c>
       <c r="F17">
-        <v>1.029629451270752</v>
+        <v>0.8294135389053194</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031297764511182</v>
+        <v>0.997396327379894</v>
       </c>
       <c r="J17">
-        <v>1.039089585044418</v>
+        <v>0.9052112233660259</v>
       </c>
       <c r="K17">
-        <v>1.038095803741651</v>
+        <v>0.9308534610618594</v>
       </c>
       <c r="L17">
-        <v>1.040060938611225</v>
+        <v>0.8996641683229134</v>
       </c>
       <c r="M17">
-        <v>1.033017644452582</v>
+        <v>0.8472602211089815</v>
       </c>
       <c r="N17">
-        <v>1.040565211440422</v>
+        <v>0.9064967271323843</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03349546606197</v>
+        <v>0.8779923923823341</v>
       </c>
       <c r="D18">
-        <v>1.035194316965717</v>
+        <v>0.9199851561627425</v>
       </c>
       <c r="E18">
-        <v>1.037294329546461</v>
+        <v>0.8892183564874038</v>
       </c>
       <c r="F18">
-        <v>1.030388952034586</v>
+        <v>0.8371768647396232</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031455041646086</v>
+        <v>0.9993786964974306</v>
       </c>
       <c r="J18">
-        <v>1.039614796111753</v>
+        <v>0.9106141109621396</v>
       </c>
       <c r="K18">
-        <v>1.038521024398469</v>
+        <v>0.9353444700124514</v>
       </c>
       <c r="L18">
-        <v>1.040613818886964</v>
+        <v>0.9052690482936088</v>
       </c>
       <c r="M18">
-        <v>1.033732298156617</v>
+        <v>0.854555234999847</v>
       </c>
       <c r="N18">
-        <v>1.041091168367715</v>
+        <v>0.9119072874486043</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033702654044382</v>
+        <v>0.8800636317952861</v>
       </c>
       <c r="D19">
-        <v>1.035353923408347</v>
+        <v>0.9215810583765681</v>
       </c>
       <c r="E19">
-        <v>1.037497552167233</v>
+        <v>0.89119941920902</v>
       </c>
       <c r="F19">
-        <v>1.030647597954585</v>
+        <v>0.8397458573898527</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031508533955124</v>
+        <v>1.000035898307904</v>
       </c>
       <c r="J19">
-        <v>1.039793605231343</v>
+        <v>0.9124050411198779</v>
       </c>
       <c r="K19">
-        <v>1.038665765054752</v>
+        <v>0.9368334451893873</v>
       </c>
       <c r="L19">
-        <v>1.040802062295137</v>
+        <v>0.9071271792241664</v>
       </c>
       <c r="M19">
-        <v>1.033975653632618</v>
+        <v>0.8569696232349936</v>
       </c>
       <c r="N19">
-        <v>1.041270231416765</v>
+        <v>0.9137007609325889</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03277494696135</v>
+        <v>0.8705652487088957</v>
       </c>
       <c r="D20">
-        <v>1.034639167667276</v>
+        <v>0.9142672703330279</v>
       </c>
       <c r="E20">
-        <v>1.036587620609816</v>
+        <v>0.8821171551421346</v>
       </c>
       <c r="F20">
-        <v>1.029489592049696</v>
+        <v>0.8279460616646861</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031268770227222</v>
+        <v>0.9970222588752751</v>
       </c>
       <c r="J20">
-        <v>1.038992845634651</v>
+        <v>0.9041915398243856</v>
       </c>
       <c r="K20">
-        <v>1.038017469113131</v>
+        <v>0.9300060443932863</v>
       </c>
       <c r="L20">
-        <v>1.03995910954467</v>
+        <v>0.8986064856926199</v>
       </c>
       <c r="M20">
-        <v>1.032886035145441</v>
+        <v>0.8458814685759793</v>
       </c>
       <c r="N20">
-        <v>1.040468334649597</v>
+        <v>0.9054755955231556</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029738928822292</v>
+        <v>0.8341706699923315</v>
       </c>
       <c r="D21">
-        <v>1.032298300220937</v>
+        <v>0.8863693925100903</v>
       </c>
       <c r="E21">
-        <v>1.0336101350059</v>
+        <v>0.8473802252581814</v>
       </c>
       <c r="F21">
-        <v>1.025701796613744</v>
+        <v>0.7822114351896557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03047978933222</v>
+        <v>0.9854945605103245</v>
       </c>
       <c r="J21">
-        <v>1.036370126463665</v>
+        <v>0.8727124351150172</v>
       </c>
       <c r="K21">
-        <v>1.035892269295825</v>
+        <v>0.9038787551287824</v>
       </c>
       <c r="L21">
-        <v>1.03719919002346</v>
+        <v>0.8659724789257121</v>
       </c>
       <c r="M21">
-        <v>1.029320686947342</v>
+        <v>0.8029549104701331</v>
       </c>
       <c r="N21">
-        <v>1.037841890916558</v>
+        <v>0.8739517868743959</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027814273499857</v>
+        <v>0.803843886578975</v>
       </c>
       <c r="D22">
-        <v>1.030812997344083</v>
+        <v>0.863302589555372</v>
       </c>
       <c r="E22">
-        <v>1.031722868055388</v>
+        <v>0.8185155177629518</v>
       </c>
       <c r="F22">
-        <v>1.023301973574133</v>
+        <v>0.7432703856804526</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029976307418317</v>
+        <v>0.9759412510722144</v>
       </c>
       <c r="J22">
-        <v>1.03470582838624</v>
+        <v>0.8464812160209255</v>
       </c>
       <c r="K22">
-        <v>1.034542274831939</v>
+        <v>0.882173898545994</v>
       </c>
       <c r="L22">
-        <v>1.035448593164218</v>
+        <v>0.8388045279265118</v>
       </c>
       <c r="M22">
-        <v>1.027060844442706</v>
+        <v>0.76649854410785</v>
       </c>
       <c r="N22">
-        <v>1.036175229344966</v>
+        <v>0.8476833164404277</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028836099006942</v>
+        <v>0.8209859507468008</v>
       </c>
       <c r="D23">
-        <v>1.031601689601525</v>
+        <v>0.8763189404207128</v>
       </c>
       <c r="E23">
-        <v>1.032724816526432</v>
+        <v>0.8348218413590681</v>
       </c>
       <c r="F23">
-        <v>1.024575941203995</v>
+        <v>0.7653916030021637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030243925549349</v>
+        <v>0.9813334202897773</v>
       </c>
       <c r="J23">
-        <v>1.035589582617387</v>
+        <v>0.8613078758167532</v>
       </c>
       <c r="K23">
-        <v>1.03525926402156</v>
+        <v>0.8944332706603306</v>
       </c>
       <c r="L23">
-        <v>1.036378100378372</v>
+        <v>0.8541578373556027</v>
       </c>
       <c r="M23">
-        <v>1.028260592321616</v>
+        <v>0.787195252609056</v>
       </c>
       <c r="N23">
-        <v>1.037060238608489</v>
+        <v>0.8625310317938072</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032825585708024</v>
+        <v>0.8710992358631316</v>
       </c>
       <c r="D24">
-        <v>1.034678189126143</v>
+        <v>0.9146781125117348</v>
       </c>
       <c r="E24">
-        <v>1.036637287743344</v>
+        <v>0.8826275724275175</v>
       </c>
       <c r="F24">
-        <v>1.02955279437884</v>
+        <v>0.8286107381277551</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03128187397168</v>
+        <v>0.9971916620514016</v>
       </c>
       <c r="J24">
-        <v>1.039036563048006</v>
+        <v>0.904653328481683</v>
       </c>
       <c r="K24">
-        <v>1.038052869722789</v>
+        <v>0.9303898108529897</v>
       </c>
       <c r="L24">
-        <v>1.040005126759872</v>
+        <v>0.8990854783846906</v>
       </c>
       <c r="M24">
-        <v>1.032945509667904</v>
+        <v>0.8465059499012826</v>
       </c>
       <c r="N24">
-        <v>1.040512114146694</v>
+        <v>0.9059380399733139</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037389601135783</v>
+        <v>0.9131344563727161</v>
       </c>
       <c r="D25">
-        <v>1.038191917830773</v>
+        <v>0.947131818501489</v>
       </c>
       <c r="E25">
-        <v>1.041114373159042</v>
+        <v>0.9228715972028351</v>
       </c>
       <c r="F25">
-        <v>1.035252723581862</v>
+        <v>0.8804978601472291</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032455001612292</v>
+        <v>1.010520706644676</v>
       </c>
       <c r="J25">
-        <v>1.042972852966841</v>
+        <v>0.9409858536888293</v>
       </c>
       <c r="K25">
-        <v>1.041236948921693</v>
+        <v>0.9606103141288432</v>
       </c>
       <c r="L25">
-        <v>1.044150294009111</v>
+        <v>0.9367981635770367</v>
       </c>
       <c r="M25">
-        <v>1.038306973793555</v>
+        <v>0.8952856989520538</v>
       </c>
       <c r="N25">
-        <v>1.044453994048713</v>
+        <v>0.9423221615336537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9403474843863038</v>
+        <v>1.011028412404896</v>
       </c>
       <c r="D2">
-        <v>0.9682351516123625</v>
+        <v>1.027153596007039</v>
       </c>
       <c r="E2">
-        <v>0.9489891607288643</v>
+        <v>1.019131368133783</v>
       </c>
       <c r="F2">
-        <v>0.9137344062395348</v>
+        <v>1.021399778355744</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.019109053990567</v>
+        <v>1.045904554585375</v>
       </c>
       <c r="J2">
-        <v>0.9644715445329578</v>
+        <v>1.032884195763391</v>
       </c>
       <c r="K2">
-        <v>0.9801555064257851</v>
+        <v>1.038247168303045</v>
       </c>
       <c r="L2">
-        <v>0.9612080741273014</v>
+        <v>1.030330454623508</v>
       </c>
       <c r="M2">
-        <v>0.9265424786938692</v>
+        <v>1.032568818254836</v>
       </c>
       <c r="N2">
-        <v>0.9658412047526268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014288778782984</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.034348398847211</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038114331395334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9577820425259499</v>
+        <v>1.015410091790281</v>
       </c>
       <c r="D3">
-        <v>0.9817800173950386</v>
+        <v>1.030076058804479</v>
       </c>
       <c r="E3">
-        <v>0.9657467523500112</v>
+        <v>1.023020866282269</v>
       </c>
       <c r="F3">
-        <v>0.9349285464943563</v>
+        <v>1.024696792858748</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.024573699550979</v>
+        <v>1.047087897432782</v>
       </c>
       <c r="J3">
-        <v>0.9794937370811551</v>
+        <v>1.03548929912757</v>
       </c>
       <c r="K3">
-        <v>0.9926514595752762</v>
+        <v>1.040338046889549</v>
       </c>
       <c r="L3">
-        <v>0.9768375185296868</v>
+        <v>1.033367426174641</v>
       </c>
       <c r="M3">
-        <v>0.9464677880329763</v>
+        <v>1.035023132239465</v>
       </c>
       <c r="N3">
-        <v>0.9808847305373124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015216432243483</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036290837903793</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03959010189492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9682401219499924</v>
+        <v>1.018186646598359</v>
       </c>
       <c r="D4">
-        <v>0.9899103661509002</v>
+        <v>1.031931773394868</v>
       </c>
       <c r="E4">
-        <v>0.9758077427534221</v>
+        <v>1.025490516066692</v>
       </c>
       <c r="F4">
-        <v>0.9476146082683581</v>
+        <v>1.026794839384043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027831383562656</v>
+        <v>1.047828826226918</v>
       </c>
       <c r="J4">
-        <v>0.9884926822136852</v>
+        <v>1.03713630593343</v>
       </c>
       <c r="K4">
-        <v>1.000132109081121</v>
+        <v>1.04165949954897</v>
       </c>
       <c r="L4">
-        <v>0.9862071909620012</v>
+        <v>1.035290727260732</v>
       </c>
       <c r="M4">
-        <v>0.9583892890625215</v>
+        <v>1.036580282218135</v>
       </c>
       <c r="N4">
-        <v>0.9898964552041238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015802462422494</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037523223891946</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040525378649726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9724669665501131</v>
+        <v>1.019345155241139</v>
       </c>
       <c r="D5">
-        <v>0.9931970709450503</v>
+        <v>1.032709355549296</v>
       </c>
       <c r="E5">
-        <v>0.9798759728224724</v>
+        <v>1.02652264261942</v>
       </c>
       <c r="F5">
-        <v>0.9527373722395416</v>
+        <v>1.027670753711759</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029142839983092</v>
+        <v>1.048137778653677</v>
       </c>
       <c r="J5">
-        <v>0.9921267881460201</v>
+        <v>1.037824420786731</v>
       </c>
       <c r="K5">
-        <v>1.003151619767113</v>
+        <v>1.042213288968918</v>
       </c>
       <c r="L5">
-        <v>0.9899926306542293</v>
+        <v>1.03609431578184</v>
       </c>
       <c r="M5">
-        <v>0.9632018764821091</v>
+        <v>1.037229780220482</v>
       </c>
       <c r="N5">
-        <v>0.9935357219837205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016047934628031</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038037259962493</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040924116090596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.973167393256916</v>
+        <v>1.019544760716238</v>
       </c>
       <c r="D6">
-        <v>0.9937417301564707</v>
+        <v>1.032846312688309</v>
       </c>
       <c r="E6">
-        <v>0.9805502191671849</v>
+        <v>1.026701155999925</v>
       </c>
       <c r="F6">
-        <v>0.9535860397145307</v>
+        <v>1.027819886906472</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029359845074566</v>
+        <v>1.048193296617332</v>
       </c>
       <c r="J6">
-        <v>0.9927288132904148</v>
+        <v>1.037945170567345</v>
       </c>
       <c r="K6">
-        <v>1.003651739133778</v>
+        <v>1.042312646205546</v>
       </c>
       <c r="L6">
-        <v>0.9906198199917842</v>
+        <v>1.036234461209465</v>
       </c>
       <c r="M6">
-        <v>0.9639990682478657</v>
+        <v>1.037340926649348</v>
       </c>
       <c r="N6">
-        <v>0.9941386020728739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016091911732413</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038125225205275</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041003102918912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9682972369190135</v>
+        <v>1.018218039501116</v>
       </c>
       <c r="D7">
-        <v>0.9899547756832725</v>
+        <v>1.031960710555832</v>
       </c>
       <c r="E7">
-        <v>0.9758627072927241</v>
+        <v>1.025520136532565</v>
       </c>
       <c r="F7">
-        <v>0.9476838452712256</v>
+        <v>1.026813430248334</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027849125701062</v>
+        <v>1.047843725314909</v>
       </c>
       <c r="J7">
-        <v>0.9885417999330011</v>
+        <v>1.037161009341989</v>
       </c>
       <c r="K7">
-        <v>1.000172926176073</v>
+        <v>1.041685236311903</v>
       </c>
       <c r="L7">
-        <v>0.9862583476599956</v>
+        <v>1.03531711038445</v>
       </c>
       <c r="M7">
-        <v>0.9584543398476133</v>
+        <v>1.036595766359794</v>
       </c>
       <c r="N7">
-        <v>0.9899456426762351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015813759491353</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037535478602668</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040563667125442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9464288678356637</v>
+        <v>1.012541823077374</v>
       </c>
       <c r="D8">
-        <v>0.972958096769975</v>
+        <v>1.028172017833273</v>
       </c>
       <c r="E8">
-        <v>0.9548322540880643</v>
+        <v>1.02047586002365</v>
       </c>
       <c r="F8">
-        <v>0.9211345408910468</v>
+        <v>1.022530234650205</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021019360415946</v>
+        <v>1.046323305665885</v>
       </c>
       <c r="J8">
-        <v>0.9697140247722306</v>
+        <v>1.033792365191416</v>
       </c>
       <c r="K8">
-        <v>0.984517270039258</v>
+        <v>1.038983438053241</v>
       </c>
       <c r="L8">
-        <v>0.9666609231527054</v>
+        <v>1.031385435805056</v>
       </c>
       <c r="M8">
-        <v>0.9335005332483342</v>
+        <v>1.033413428581923</v>
       </c>
       <c r="N8">
-        <v>0.9710911299151607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014615552800239</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035016856744333</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038657847418001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8998068603991595</v>
+        <v>1.002041496127441</v>
       </c>
       <c r="D9">
-        <v>0.9368201618199034</v>
+        <v>1.021183464934926</v>
       </c>
       <c r="E9">
-        <v>0.9100984915395716</v>
+        <v>1.01118306036228</v>
       </c>
       <c r="F9">
-        <v>0.8641302942013538</v>
+        <v>1.014687750682192</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.006298655982934</v>
+        <v>1.0434306484181</v>
       </c>
       <c r="J9">
-        <v>0.9294716221112614</v>
+        <v>1.027522369299315</v>
       </c>
       <c r="K9">
-        <v>0.9510288129258536</v>
+        <v>1.033941956459577</v>
       </c>
       <c r="L9">
-        <v>0.9248405596276129</v>
+        <v>1.024097268899976</v>
       </c>
       <c r="M9">
-        <v>0.8798936723784543</v>
+        <v>1.027546940726694</v>
       </c>
       <c r="N9">
-        <v>0.9307915784265445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012377762261567</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.030373873924684</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035089990229791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8590058734428763</v>
+        <v>0.9948436224367687</v>
       </c>
       <c r="D10">
-        <v>0.9053838097803301</v>
+        <v>1.016435350635731</v>
       </c>
       <c r="E10">
-        <v>0.8710732323172162</v>
+        <v>1.004859397373975</v>
       </c>
       <c r="F10">
-        <v>0.8135165102252365</v>
+        <v>1.009592856033058</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9933563427607559</v>
+        <v>1.041439062248813</v>
       </c>
       <c r="J10">
-        <v>0.8941942646120492</v>
+        <v>1.023263326591376</v>
       </c>
       <c r="K10">
-        <v>0.9217009039050723</v>
+        <v>1.030514067738416</v>
       </c>
       <c r="L10">
-        <v>0.8882386682355408</v>
+        <v>1.019141464713721</v>
       </c>
       <c r="M10">
-        <v>0.8323282305744177</v>
+        <v>1.023791041979268</v>
       </c>
       <c r="N10">
-        <v>0.8954641230333141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010869347359247</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027453418813273</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032683099971936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8368117148108413</v>
+        <v>0.9928519459272724</v>
       </c>
       <c r="D11">
-        <v>0.8883864464432677</v>
+        <v>1.015259462843618</v>
       </c>
       <c r="E11">
-        <v>0.8498974968684339</v>
+        <v>1.003250268528527</v>
       </c>
       <c r="F11">
-        <v>0.7855626133782658</v>
+        <v>1.010023636791826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9863292964695169</v>
+        <v>1.041156038526766</v>
       </c>
       <c r="J11">
-        <v>0.8749969296176415</v>
+        <v>1.022525145693296</v>
       </c>
       <c r="K11">
-        <v>0.9057722822766895</v>
+        <v>1.029899233538534</v>
       </c>
       <c r="L11">
-        <v>0.868339640529043</v>
+        <v>1.0181111487515</v>
       </c>
       <c r="M11">
-        <v>0.8060969124257148</v>
+        <v>1.024758965725936</v>
       </c>
       <c r="N11">
-        <v>0.8762395256212492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01071905776906</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.02866063856646</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032281347104073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8274286378383492</v>
+        <v>0.992524609889779</v>
       </c>
       <c r="D12">
-        <v>0.8812260150613112</v>
+        <v>1.015139639875338</v>
       </c>
       <c r="E12">
-        <v>0.8409567056268441</v>
+        <v>1.003062151689333</v>
       </c>
       <c r="F12">
-        <v>0.7736299424229406</v>
+        <v>1.011083104458763</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9833654228142574</v>
+        <v>1.041263217617423</v>
       </c>
       <c r="J12">
-        <v>0.8668806391646874</v>
+        <v>1.02264874609557</v>
       </c>
       <c r="K12">
-        <v>0.8990471736317013</v>
+        <v>1.029982424713544</v>
       </c>
       <c r="L12">
-        <v>0.8599304436741987</v>
+        <v>1.018130919912277</v>
       </c>
       <c r="M12">
-        <v>0.7949120829487367</v>
+        <v>1.026001006081155</v>
       </c>
       <c r="N12">
-        <v>0.8681117091049002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010852047920745</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029972477342225</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032340166343301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8295063956836283</v>
+        <v>0.9934698587623602</v>
       </c>
       <c r="D13">
-        <v>0.8828102086473814</v>
+        <v>1.015841107274934</v>
       </c>
       <c r="E13">
-        <v>0.8429359125687448</v>
+        <v>1.003966858386546</v>
       </c>
       <c r="F13">
-        <v>0.7762787731009511</v>
+        <v>1.01272340590376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9840212970073513</v>
+        <v>1.041691701502095</v>
       </c>
       <c r="J13">
-        <v>0.8686778719128581</v>
+        <v>1.023459537984408</v>
       </c>
       <c r="K13">
-        <v>0.9005358217928391</v>
+        <v>1.03062794510235</v>
       </c>
       <c r="L13">
-        <v>0.8617923467034625</v>
+        <v>1.018974672297017</v>
       </c>
       <c r="M13">
-        <v>0.797394166263243</v>
+        <v>1.027567609271984</v>
       </c>
       <c r="N13">
-        <v>0.8699114941297189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011220629273989</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031489860351323</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032794072716187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.836063907121067</v>
+        <v>0.9946947439859699</v>
       </c>
       <c r="D14">
-        <v>0.8878151945261872</v>
+        <v>1.016696205528885</v>
       </c>
       <c r="E14">
-        <v>0.8491846787181196</v>
+        <v>1.005082361987105</v>
       </c>
       <c r="F14">
-        <v>0.7846143105686438</v>
+        <v>1.01410623362332</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9860929048482829</v>
+        <v>1.042131582166639</v>
       </c>
       <c r="J14">
-        <v>0.8743500782563211</v>
+        <v>1.024325877630853</v>
       </c>
       <c r="K14">
-        <v>0.9052360858583288</v>
+        <v>1.031326543523843</v>
       </c>
       <c r="L14">
-        <v>0.8676693643351577</v>
+        <v>1.019925908636823</v>
       </c>
       <c r="M14">
-        <v>0.8052077368771945</v>
+        <v>1.028783568135801</v>
       </c>
       <c r="N14">
-        <v>0.8755917556568007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011581107230536</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032625373487053</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033289436249244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8399310174723031</v>
+        <v>0.9952863752752471</v>
       </c>
       <c r="D15">
-        <v>0.8907703521927423</v>
+        <v>1.017097681860854</v>
       </c>
       <c r="E15">
-        <v>0.8528713297718805</v>
+        <v>1.005608969918417</v>
       </c>
       <c r="F15">
-        <v>0.7895134084261435</v>
+        <v>1.014619798518016</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9873156549637138</v>
+        <v>1.042317900830925</v>
       </c>
       <c r="J15">
-        <v>0.8776951164575972</v>
+        <v>1.024704285209778</v>
       </c>
       <c r="K15">
-        <v>0.9080092893852035</v>
+        <v>1.031634028852278</v>
       </c>
       <c r="L15">
-        <v>0.871135690237432</v>
+        <v>1.020354534741183</v>
       </c>
       <c r="M15">
-        <v>0.8098019070494344</v>
+        <v>1.029200748568939</v>
       </c>
       <c r="N15">
-        <v>0.878941544196004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011727292161119</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03299283443946</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033512725204422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8603538390071963</v>
+        <v>0.9981286236005001</v>
       </c>
       <c r="D16">
-        <v>0.906418703953729</v>
+        <v>1.01895507045382</v>
       </c>
       <c r="E16">
-        <v>0.8723605707283848</v>
+        <v>1.008085195387455</v>
       </c>
       <c r="F16">
-        <v>0.8152033764139086</v>
+        <v>1.016493935218926</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9937836847791337</v>
+        <v>1.043080622082295</v>
       </c>
       <c r="J16">
-        <v>0.8953601373297886</v>
+        <v>1.02633966289955</v>
       </c>
       <c r="K16">
-        <v>0.9226691249831857</v>
+        <v>1.032954617924125</v>
       </c>
       <c r="L16">
-        <v>0.8894475678772747</v>
+        <v>1.022273734168452</v>
       </c>
       <c r="M16">
-        <v>0.8339122600972751</v>
+        <v>1.030535815907621</v>
       </c>
       <c r="N16">
-        <v>0.89663165142404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01229065536717</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034009155958977</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034449603380041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8717443609679807</v>
+        <v>0.9996790194953968</v>
       </c>
       <c r="D17">
-        <v>0.9151745162092437</v>
+        <v>1.019941569963962</v>
       </c>
       <c r="E17">
-        <v>0.8832442502778824</v>
+        <v>1.009412982093274</v>
       </c>
       <c r="F17">
-        <v>0.8294135389053194</v>
+        <v>1.017214649665972</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.997396327379894</v>
+        <v>1.043438174976546</v>
       </c>
       <c r="J17">
-        <v>0.9052112233660259</v>
+        <v>1.027149538101334</v>
       </c>
       <c r="K17">
-        <v>0.9308534610618594</v>
+        <v>1.033608757854746</v>
       </c>
       <c r="L17">
-        <v>0.8996641683229134</v>
+        <v>1.023257956321068</v>
       </c>
       <c r="M17">
-        <v>0.8472602211089815</v>
+        <v>1.030927429200116</v>
       </c>
       <c r="N17">
-        <v>0.9064967271323843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012537092218113</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034188982769122</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0349146978566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8779923923823341</v>
+        <v>1.000209113027843</v>
       </c>
       <c r="D18">
-        <v>0.9199851561627425</v>
+        <v>1.02022333615836</v>
       </c>
       <c r="E18">
-        <v>0.8892183564874038</v>
+        <v>1.009818453332313</v>
       </c>
       <c r="F18">
-        <v>0.8371768647396232</v>
+        <v>1.016836904794801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9993786964974306</v>
+        <v>1.043450868532912</v>
       </c>
       <c r="J18">
-        <v>0.9106141109621396</v>
+        <v>1.027264222651598</v>
       </c>
       <c r="K18">
-        <v>0.9353444700124514</v>
+        <v>1.033701886179938</v>
       </c>
       <c r="L18">
-        <v>0.9052690482936088</v>
+        <v>1.023469832685505</v>
       </c>
       <c r="M18">
-        <v>0.854555234999847</v>
+        <v>1.030371205135106</v>
       </c>
       <c r="N18">
-        <v>0.9119072874486043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012509110913907</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033510080763713</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034968886083878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8800636317952861</v>
+        <v>0.9998067805112949</v>
       </c>
       <c r="D19">
-        <v>0.9215810583765681</v>
+        <v>1.019874294945334</v>
       </c>
       <c r="E19">
-        <v>0.89119941920902</v>
+        <v>1.009379561750775</v>
       </c>
       <c r="F19">
-        <v>0.8397458573898527</v>
+        <v>1.015366272151219</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.000035898307904</v>
+        <v>1.043157887513762</v>
       </c>
       <c r="J19">
-        <v>0.9124050411198779</v>
+        <v>1.026742419495279</v>
       </c>
       <c r="K19">
-        <v>0.9368334451893873</v>
+        <v>1.033295816401508</v>
       </c>
       <c r="L19">
-        <v>0.9071271792241664</v>
+        <v>1.022974646576327</v>
       </c>
       <c r="M19">
-        <v>0.8569696232349936</v>
+        <v>1.028861782286489</v>
       </c>
       <c r="N19">
-        <v>0.9137007609325889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012240491189576</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031988423712082</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034688189618406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8705652487088957</v>
+        <v>0.9967607187804837</v>
       </c>
       <c r="D20">
-        <v>0.9142672703330279</v>
+        <v>1.017718874418878</v>
       </c>
       <c r="E20">
-        <v>0.8821171551421346</v>
+        <v>1.006546826378532</v>
       </c>
       <c r="F20">
-        <v>0.8279460616646861</v>
+        <v>1.010944684145056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9970222588752751</v>
+        <v>1.041991050293641</v>
       </c>
       <c r="J20">
-        <v>0.9041915398243856</v>
+        <v>1.024417082904064</v>
       </c>
       <c r="K20">
-        <v>0.9300060443932863</v>
+        <v>1.031457153443311</v>
       </c>
       <c r="L20">
-        <v>0.8986064856926199</v>
+        <v>1.020475526356289</v>
       </c>
       <c r="M20">
-        <v>0.8458814685759793</v>
+        <v>1.024797776310028</v>
       </c>
       <c r="N20">
-        <v>0.9054755955231556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011286315792564</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.028239462928491</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033392121137769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8341706699923315</v>
+        <v>0.9911013366569948</v>
       </c>
       <c r="D21">
-        <v>0.8863693925100903</v>
+        <v>1.013967710676868</v>
       </c>
       <c r="E21">
-        <v>0.8473802252581814</v>
+        <v>1.00155979317246</v>
       </c>
       <c r="F21">
-        <v>0.7822114351896557</v>
+        <v>1.006597179930977</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9854945605103245</v>
+        <v>1.040355692078468</v>
       </c>
       <c r="J21">
-        <v>0.8727124351150172</v>
+        <v>1.02097587700783</v>
       </c>
       <c r="K21">
-        <v>0.9038787551287824</v>
+        <v>1.028689205865128</v>
       </c>
       <c r="L21">
-        <v>0.8659724789257121</v>
+        <v>1.01651167492793</v>
       </c>
       <c r="M21">
-        <v>0.8029549104701331</v>
+        <v>1.021454635423916</v>
       </c>
       <c r="N21">
-        <v>0.8739517868743959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010046308796772</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.025552136909295</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031438317617007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.803843886578975</v>
+        <v>0.9875130623937679</v>
       </c>
       <c r="D22">
-        <v>0.863302589555372</v>
+        <v>1.011595159911866</v>
       </c>
       <c r="E22">
-        <v>0.8185155177629518</v>
+        <v>0.9984111408296475</v>
       </c>
       <c r="F22">
-        <v>0.7432703856804526</v>
+        <v>1.00397383123819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9759412510722144</v>
+        <v>1.039319426691979</v>
       </c>
       <c r="J22">
-        <v>0.8464812160209255</v>
+        <v>1.018811274605038</v>
       </c>
       <c r="K22">
-        <v>0.882173898545994</v>
+        <v>1.026940361679758</v>
       </c>
       <c r="L22">
-        <v>0.8388045279265118</v>
+        <v>1.014014139177974</v>
       </c>
       <c r="M22">
-        <v>0.76649854410785</v>
+        <v>1.019466974668772</v>
       </c>
       <c r="N22">
-        <v>0.8476833164404277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009268848614737</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.023979001339295</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030188234370208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8209859507468008</v>
+        <v>0.9894074696432752</v>
       </c>
       <c r="D23">
-        <v>0.8763189404207128</v>
+        <v>1.012839801104772</v>
       </c>
       <c r="E23">
-        <v>0.8348218413590681</v>
+        <v>1.00007098061372</v>
       </c>
       <c r="F23">
-        <v>0.7653916030021637</v>
+        <v>1.005362400814656</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9813334202897773</v>
+        <v>1.039861202637778</v>
       </c>
       <c r="J23">
-        <v>0.8613078758167532</v>
+        <v>1.019948605842066</v>
       </c>
       <c r="K23">
-        <v>0.8944332706603306</v>
+        <v>1.027854096677514</v>
       </c>
       <c r="L23">
-        <v>0.8541578373556027</v>
+        <v>1.015328252599602</v>
       </c>
       <c r="M23">
-        <v>0.787195252609056</v>
+        <v>1.020518003182494</v>
       </c>
       <c r="N23">
-        <v>0.8625310317938072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00967449341897</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.024810839084541</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03082460525526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8710992358631316</v>
+        <v>0.9967121388774876</v>
       </c>
       <c r="D24">
-        <v>0.9146781125117348</v>
+        <v>1.017663754045495</v>
       </c>
       <c r="E24">
-        <v>0.8826275724275175</v>
+        <v>1.006488731910281</v>
       </c>
       <c r="F24">
-        <v>0.8286107381277551</v>
+        <v>1.010734245986928</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9971916620514016</v>
+        <v>1.041942456159967</v>
       </c>
       <c r="J24">
-        <v>0.904653328481683</v>
+        <v>1.024337342399979</v>
       </c>
       <c r="K24">
-        <v>0.9303898108529897</v>
+        <v>1.031387616089519</v>
       </c>
       <c r="L24">
-        <v>0.8990854783846906</v>
+        <v>1.020402848353762</v>
       </c>
       <c r="M24">
-        <v>0.8465059499012826</v>
+        <v>1.024575442528762</v>
       </c>
       <c r="N24">
-        <v>0.9059380399733139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011244008428521</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02802209468243</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033315458013293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9131344563727161</v>
+        <v>1.004841805031345</v>
       </c>
       <c r="D25">
-        <v>0.947131818501489</v>
+        <v>1.023055529692942</v>
       </c>
       <c r="E25">
-        <v>0.9228715972028351</v>
+        <v>1.013659093812346</v>
       </c>
       <c r="F25">
-        <v>0.8804978601472291</v>
+        <v>1.016762223700855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010520706644676</v>
+        <v>1.044220392257039</v>
       </c>
       <c r="J25">
-        <v>0.9409858536888293</v>
+        <v>1.02920731463675</v>
       </c>
       <c r="K25">
-        <v>0.9606103141288432</v>
+        <v>1.035306178570675</v>
       </c>
       <c r="L25">
-        <v>0.9367981635770367</v>
+        <v>1.026049006787736</v>
       </c>
       <c r="M25">
-        <v>0.8952856989520538</v>
+        <v>1.029105783399667</v>
       </c>
       <c r="N25">
-        <v>0.9423221615336537</v>
+        <v>1.012983924895863</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.031607609945995</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036083223051559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011028412404896</v>
+        <v>1.010636535126382</v>
       </c>
       <c r="D2">
-        <v>1.027153596007039</v>
+        <v>1.026325297733437</v>
       </c>
       <c r="E2">
-        <v>1.019131368133783</v>
+        <v>1.018742004606793</v>
       </c>
       <c r="F2">
-        <v>1.021399778355744</v>
+        <v>1.021230018757785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045904554585375</v>
+        <v>1.045602111731246</v>
       </c>
       <c r="J2">
-        <v>1.032884195763391</v>
+        <v>1.032503697708428</v>
       </c>
       <c r="K2">
-        <v>1.038247168303045</v>
+        <v>1.037429668756276</v>
       </c>
       <c r="L2">
-        <v>1.030330454623508</v>
+        <v>1.029946265361938</v>
       </c>
       <c r="M2">
-        <v>1.032568818254836</v>
+        <v>1.032401301438498</v>
       </c>
       <c r="N2">
-        <v>1.014288778782984</v>
+        <v>1.015433453538003</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.034348398847211</v>
+        <v>1.034215819361989</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038114331395334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03754506763602</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021872337807486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015410091790281</v>
+        <v>1.014758150313621</v>
       </c>
       <c r="D3">
-        <v>1.030076058804479</v>
+        <v>1.028959069167471</v>
       </c>
       <c r="E3">
-        <v>1.023020866282269</v>
+        <v>1.022372388259992</v>
       </c>
       <c r="F3">
-        <v>1.024696792858748</v>
+        <v>1.024414762887589</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047087897432782</v>
+        <v>1.046629063549675</v>
       </c>
       <c r="J3">
-        <v>1.03548929912757</v>
+        <v>1.034854421692904</v>
       </c>
       <c r="K3">
-        <v>1.040338046889549</v>
+        <v>1.03923435099712</v>
       </c>
       <c r="L3">
-        <v>1.033367426174641</v>
+        <v>1.032726794308345</v>
       </c>
       <c r="M3">
-        <v>1.035023132239465</v>
+        <v>1.034744499289665</v>
       </c>
       <c r="N3">
-        <v>1.015216432243483</v>
+        <v>1.016093790137941</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036290837903793</v>
+        <v>1.036070317273871</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03959010189492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038818192367003</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022268042903221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018186646598359</v>
+        <v>1.017372417413085</v>
       </c>
       <c r="D4">
-        <v>1.031931773394868</v>
+        <v>1.030633543239583</v>
       </c>
       <c r="E4">
-        <v>1.025490516066692</v>
+        <v>1.024680064989642</v>
       </c>
       <c r="F4">
-        <v>1.026794839384043</v>
+        <v>1.026442912515888</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047828826226918</v>
+        <v>1.04727185403189</v>
       </c>
       <c r="J4">
-        <v>1.03713630593343</v>
+        <v>1.036341937875783</v>
       </c>
       <c r="K4">
-        <v>1.04165949954897</v>
+        <v>1.040375788937184</v>
       </c>
       <c r="L4">
-        <v>1.035290727260732</v>
+        <v>1.03448947596709</v>
       </c>
       <c r="M4">
-        <v>1.036580282218135</v>
+        <v>1.036232335527932</v>
       </c>
       <c r="N4">
-        <v>1.015802462422494</v>
+        <v>1.016511487504498</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037523223891946</v>
+        <v>1.037247846219146</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040525378649726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039626263739419</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022515730211972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.019345155241139</v>
+        <v>1.018463604777759</v>
       </c>
       <c r="D5">
-        <v>1.032709355549296</v>
+        <v>1.031335794506428</v>
       </c>
       <c r="E5">
-        <v>1.02652264261942</v>
+        <v>1.025644941553673</v>
       </c>
       <c r="F5">
-        <v>1.027670753711759</v>
+        <v>1.02728986841645</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048137778653677</v>
+        <v>1.047539967359161</v>
       </c>
       <c r="J5">
-        <v>1.037824420786731</v>
+        <v>1.03696372748492</v>
       </c>
       <c r="K5">
-        <v>1.042213288968918</v>
+        <v>1.040854681207094</v>
       </c>
       <c r="L5">
-        <v>1.03609431578184</v>
+        <v>1.03522630622732</v>
       </c>
       <c r="M5">
-        <v>1.037229780220482</v>
+        <v>1.036853086596182</v>
       </c>
       <c r="N5">
-        <v>1.016047934628031</v>
+        <v>1.016686590293866</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038037259962493</v>
+        <v>1.037739131130003</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040924116090596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039972754141098</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022619665312937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019544760716238</v>
+        <v>1.018651425399665</v>
       </c>
       <c r="D6">
-        <v>1.032846312688309</v>
+        <v>1.031459671066951</v>
       </c>
       <c r="E6">
-        <v>1.026701155999925</v>
+        <v>1.025811680882726</v>
       </c>
       <c r="F6">
-        <v>1.027819886906472</v>
+        <v>1.027433933436541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048193296617332</v>
+        <v>1.047588320064392</v>
       </c>
       <c r="J6">
-        <v>1.037945170567345</v>
+        <v>1.037072861836753</v>
       </c>
       <c r="K6">
-        <v>1.042312646205546</v>
+        <v>1.040941031071245</v>
       </c>
       <c r="L6">
-        <v>1.036234461209465</v>
+        <v>1.035354761515049</v>
       </c>
       <c r="M6">
-        <v>1.037340926649348</v>
+        <v>1.036959200963707</v>
       </c>
       <c r="N6">
-        <v>1.016091911732413</v>
+        <v>1.016717983887124</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038125225205275</v>
+        <v>1.037823113855498</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041003102918912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040043413909924</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022639156968953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018218039501116</v>
+        <v>1.017411883824369</v>
       </c>
       <c r="D7">
-        <v>1.031960710555832</v>
+        <v>1.030668031240099</v>
       </c>
       <c r="E7">
-        <v>1.025520136532565</v>
+        <v>1.024717718131277</v>
       </c>
       <c r="F7">
-        <v>1.026813430248334</v>
+        <v>1.026464994660143</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047843725314909</v>
+        <v>1.047290747992575</v>
       </c>
       <c r="J7">
-        <v>1.037161009341989</v>
+        <v>1.036374508855918</v>
       </c>
       <c r="K7">
-        <v>1.041685236311903</v>
+        <v>1.040407008545474</v>
       </c>
       <c r="L7">
-        <v>1.03531711038445</v>
+        <v>1.034523796806289</v>
       </c>
       <c r="M7">
-        <v>1.036595766359794</v>
+        <v>1.036251269956827</v>
       </c>
       <c r="N7">
-        <v>1.015813759491353</v>
+        <v>1.016549003013942</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037535478602668</v>
+        <v>1.037262831617957</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040563667125442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039670430839307</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022525624089676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012541823077374</v>
+        <v>1.012091370877235</v>
       </c>
       <c r="D8">
-        <v>1.028172017833273</v>
+        <v>1.027267960685185</v>
       </c>
       <c r="E8">
-        <v>1.02047586002365</v>
+        <v>1.020028125145491</v>
       </c>
       <c r="F8">
-        <v>1.022530234650205</v>
+        <v>1.022335191917141</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046323305665885</v>
+        <v>1.045983297513197</v>
       </c>
       <c r="J8">
-        <v>1.033792365191416</v>
+        <v>1.033354549127985</v>
       </c>
       <c r="K8">
-        <v>1.038983438053241</v>
+        <v>1.038090815935778</v>
       </c>
       <c r="L8">
-        <v>1.031385435805056</v>
+        <v>1.03094346828507</v>
       </c>
       <c r="M8">
-        <v>1.033413428581923</v>
+        <v>1.033220884852712</v>
       </c>
       <c r="N8">
-        <v>1.014615552800239</v>
+        <v>1.015755808754461</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035016856744333</v>
+        <v>1.034864470105015</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038657847418001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038037732064105</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022023642270971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002041496127441</v>
+        <v>1.002236345338112</v>
       </c>
       <c r="D9">
-        <v>1.021183464934926</v>
+        <v>1.02098652631736</v>
       </c>
       <c r="E9">
-        <v>1.01118306036228</v>
+        <v>1.011376189526903</v>
       </c>
       <c r="F9">
-        <v>1.014687750682192</v>
+        <v>1.014772394076228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0434306484181</v>
+        <v>1.043474821442016</v>
       </c>
       <c r="J9">
-        <v>1.027522369299315</v>
+        <v>1.027710378895609</v>
       </c>
       <c r="K9">
-        <v>1.033941956459577</v>
+        <v>1.033748046802486</v>
       </c>
       <c r="L9">
-        <v>1.024097268899976</v>
+        <v>1.02428735351426</v>
       </c>
       <c r="M9">
-        <v>1.027546940726694</v>
+        <v>1.027630261353561</v>
       </c>
       <c r="N9">
-        <v>1.012377762261567</v>
+        <v>1.014177790445503</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.030373873924684</v>
+        <v>1.030439817555013</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035089990229791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034963647463239</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021055126893929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9948436224367687</v>
+        <v>0.9955385451217971</v>
       </c>
       <c r="D10">
-        <v>1.016435350635731</v>
+        <v>1.016764346596465</v>
       </c>
       <c r="E10">
-        <v>1.004859397373975</v>
+        <v>1.00554671817528</v>
       </c>
       <c r="F10">
-        <v>1.009592856033058</v>
+        <v>1.009895104263052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041439062248813</v>
+        <v>1.041773513456915</v>
       </c>
       <c r="J10">
-        <v>1.023263326591376</v>
+        <v>1.023930298647423</v>
       </c>
       <c r="K10">
-        <v>1.030514067738416</v>
+        <v>1.030837371896544</v>
       </c>
       <c r="L10">
-        <v>1.019141464713721</v>
+        <v>1.019816541924355</v>
       </c>
       <c r="M10">
-        <v>1.023791041979268</v>
+        <v>1.024087968703161</v>
       </c>
       <c r="N10">
-        <v>1.010869347359247</v>
+        <v>1.013244571294277</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027453418813273</v>
+        <v>1.027688405678001</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032683099971936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032924148910864</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020406852237965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9928519459272724</v>
+        <v>0.9937061425603604</v>
       </c>
       <c r="D11">
-        <v>1.015259462843618</v>
+        <v>1.015739886550636</v>
       </c>
       <c r="E11">
-        <v>1.003250268528527</v>
+        <v>1.004094334224311</v>
       </c>
       <c r="F11">
-        <v>1.010023636791826</v>
+        <v>1.010392429337539</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041156038526766</v>
+        <v>1.041572919885409</v>
       </c>
       <c r="J11">
-        <v>1.022525145693296</v>
+        <v>1.023343117790857</v>
       </c>
       <c r="K11">
-        <v>1.029899233538534</v>
+        <v>1.030370953279396</v>
       </c>
       <c r="L11">
-        <v>1.0181111487515</v>
+        <v>1.01893944826146</v>
       </c>
       <c r="M11">
-        <v>1.024758965725936</v>
+        <v>1.025120985265531</v>
       </c>
       <c r="N11">
-        <v>1.01071905776906</v>
+        <v>1.013392653232878</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.02866063856646</v>
+        <v>1.028946991894041</v>
       </c>
       <c r="Q11">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R11">
-        <v>1.032281347104073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032630535679521</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020380261916843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.992524609889779</v>
+        <v>0.9933909558381703</v>
       </c>
       <c r="D12">
-        <v>1.015139639875338</v>
+        <v>1.015627714676701</v>
       </c>
       <c r="E12">
-        <v>1.003062151689333</v>
+        <v>1.003917937219695</v>
       </c>
       <c r="F12">
-        <v>1.011083104458763</v>
+        <v>1.011455108491768</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041263217617423</v>
+        <v>1.041680021704021</v>
       </c>
       <c r="J12">
-        <v>1.02264874609557</v>
+        <v>1.023477680156557</v>
       </c>
       <c r="K12">
-        <v>1.029982424713544</v>
+        <v>1.030461514293436</v>
       </c>
       <c r="L12">
-        <v>1.018130919912277</v>
+        <v>1.018970458716908</v>
       </c>
       <c r="M12">
-        <v>1.026001006081155</v>
+        <v>1.026366088805075</v>
       </c>
       <c r="N12">
-        <v>1.010852047920745</v>
+        <v>1.013594449129877</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029972477342225</v>
+        <v>1.030261154036554</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032340166343301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032694564263981</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020455714949421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9934698587623602</v>
+        <v>0.9942191322229507</v>
       </c>
       <c r="D13">
-        <v>1.015841107274934</v>
+        <v>1.016213851119828</v>
       </c>
       <c r="E13">
-        <v>1.003966858386546</v>
+        <v>1.004707083787635</v>
       </c>
       <c r="F13">
-        <v>1.01272340590376</v>
+        <v>1.01304373194801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041691701502095</v>
+        <v>1.042036361237834</v>
       </c>
       <c r="J13">
-        <v>1.023459537984408</v>
+        <v>1.024176655763443</v>
       </c>
       <c r="K13">
-        <v>1.03062794510235</v>
+        <v>1.030993861155083</v>
       </c>
       <c r="L13">
-        <v>1.018974672297017</v>
+        <v>1.019700922868626</v>
       </c>
       <c r="M13">
-        <v>1.027567609271984</v>
+        <v>1.027882020120965</v>
       </c>
       <c r="N13">
-        <v>1.011220629273989</v>
+        <v>1.01381894916025</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031489860351323</v>
+        <v>1.031738406753184</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R13">
-        <v>1.032794072716187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033068202995856</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020618641777225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9946947439859699</v>
+        <v>0.9953063961063386</v>
       </c>
       <c r="D14">
-        <v>1.016696205528885</v>
+        <v>1.016935356042083</v>
       </c>
       <c r="E14">
-        <v>1.005082361987105</v>
+        <v>1.00568679822664</v>
       </c>
       <c r="F14">
-        <v>1.01410623362332</v>
+        <v>1.014367071493211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042131582166639</v>
+        <v>1.042395058978723</v>
       </c>
       <c r="J14">
-        <v>1.024325877630853</v>
+        <v>1.024911681710528</v>
       </c>
       <c r="K14">
-        <v>1.031326543523843</v>
+        <v>1.031561370211709</v>
       </c>
       <c r="L14">
-        <v>1.019925908636823</v>
+        <v>1.020519090075233</v>
       </c>
       <c r="M14">
-        <v>1.028783568135801</v>
+        <v>1.029039658812438</v>
       </c>
       <c r="N14">
-        <v>1.011581107230536</v>
+        <v>1.013985441472621</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032625373487053</v>
+        <v>1.032827789438413</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033289436249244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033471011029701</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020771317261785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9952863752752471</v>
+        <v>0.9958365041413711</v>
       </c>
       <c r="D15">
-        <v>1.017097681860854</v>
+        <v>1.017277357600869</v>
       </c>
       <c r="E15">
-        <v>1.005608969918417</v>
+        <v>1.006152697928358</v>
       </c>
       <c r="F15">
-        <v>1.014619798518016</v>
+        <v>1.014854277354673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042317900830925</v>
+        <v>1.042546071738859</v>
       </c>
       <c r="J15">
-        <v>1.024704285209778</v>
+        <v>1.025231376896041</v>
       </c>
       <c r="K15">
-        <v>1.031634028852278</v>
+        <v>1.03181048132112</v>
       </c>
       <c r="L15">
-        <v>1.020354534741183</v>
+        <v>1.020888220680138</v>
       </c>
       <c r="M15">
-        <v>1.029200748568939</v>
+        <v>1.029430994547501</v>
       </c>
       <c r="N15">
-        <v>1.011727292161119</v>
+        <v>1.014039620273679</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03299283443946</v>
+        <v>1.033174817754465</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033512725204422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033653593136886</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020832254600979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9981286236005001</v>
+        <v>0.9984208327938912</v>
       </c>
       <c r="D16">
-        <v>1.01895507045382</v>
+        <v>1.018883097613879</v>
       </c>
       <c r="E16">
-        <v>1.008085195387455</v>
+        <v>1.008374266561564</v>
       </c>
       <c r="F16">
-        <v>1.016493935218926</v>
+        <v>1.016618515180269</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043080622082295</v>
+        <v>1.043165171230768</v>
       </c>
       <c r="J16">
-        <v>1.02633966289955</v>
+        <v>1.026620259018761</v>
       </c>
       <c r="K16">
-        <v>1.032954617924125</v>
+        <v>1.032883879314704</v>
       </c>
       <c r="L16">
-        <v>1.022273734168452</v>
+        <v>1.02255771097837</v>
       </c>
       <c r="M16">
-        <v>1.030535815907621</v>
+        <v>1.030658246638507</v>
       </c>
       <c r="N16">
-        <v>1.01229065536717</v>
+        <v>1.01420417417061</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034009155958977</v>
+        <v>1.034105926358614</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034449603380041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034415991995465</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021059954057276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9996790194953968</v>
+        <v>0.9998563824025991</v>
       </c>
       <c r="D17">
-        <v>1.019941569963962</v>
+        <v>1.019754210591782</v>
       </c>
       <c r="E17">
-        <v>1.009412982093274</v>
+        <v>1.009588535391317</v>
       </c>
       <c r="F17">
-        <v>1.017214649665972</v>
+        <v>1.01729037931102</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043438174976546</v>
+        <v>1.043460136414606</v>
       </c>
       <c r="J17">
-        <v>1.027149538101334</v>
+        <v>1.027320080741942</v>
       </c>
       <c r="K17">
-        <v>1.033608757854746</v>
+        <v>1.033424520912579</v>
       </c>
       <c r="L17">
-        <v>1.023257956321068</v>
+        <v>1.023430505939982</v>
       </c>
       <c r="M17">
-        <v>1.030927429200116</v>
+        <v>1.031001888460204</v>
       </c>
       <c r="N17">
-        <v>1.012537092218113</v>
+        <v>1.014275870371446</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034188982769122</v>
+        <v>1.034247841975455</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0349146978566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034801084255158</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021158230426318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000209113027843</v>
+        <v>1.000372709464948</v>
       </c>
       <c r="D18">
-        <v>1.02022333615836</v>
+        <v>1.020019971706321</v>
       </c>
       <c r="E18">
-        <v>1.009818453332313</v>
+        <v>1.009980428382997</v>
       </c>
       <c r="F18">
-        <v>1.016836904794801</v>
+        <v>1.016906980771063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043450868532912</v>
+        <v>1.043468768315037</v>
       </c>
       <c r="J18">
-        <v>1.027264222651598</v>
+        <v>1.027421643676084</v>
       </c>
       <c r="K18">
-        <v>1.033701886179938</v>
+        <v>1.033501856253055</v>
       </c>
       <c r="L18">
-        <v>1.023469832685505</v>
+        <v>1.023629082078366</v>
       </c>
       <c r="M18">
-        <v>1.030371205135106</v>
+        <v>1.030440122619008</v>
       </c>
       <c r="N18">
-        <v>1.012509110913907</v>
+        <v>1.014215869829388</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033510080763713</v>
+        <v>1.0335645707282</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034968886083878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034842973474506</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021137107771793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9998067805112949</v>
+        <v>1.000037911250767</v>
       </c>
       <c r="D19">
-        <v>1.019874294945334</v>
+        <v>1.019737614716631</v>
       </c>
       <c r="E19">
-        <v>1.009379561750775</v>
+        <v>1.009608419110346</v>
       </c>
       <c r="F19">
-        <v>1.015366272151219</v>
+        <v>1.015465777126708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043157887513762</v>
+        <v>1.043219097022164</v>
       </c>
       <c r="J19">
-        <v>1.026742419495279</v>
+        <v>1.026964867560599</v>
       </c>
       <c r="K19">
-        <v>1.033295816401508</v>
+        <v>1.033161367101574</v>
       </c>
       <c r="L19">
-        <v>1.022974646576327</v>
+        <v>1.023199669457586</v>
       </c>
       <c r="M19">
-        <v>1.028861782286489</v>
+        <v>1.028959644997094</v>
       </c>
       <c r="N19">
-        <v>1.012240491189576</v>
+        <v>1.014019852996199</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031988423712082</v>
+        <v>1.032065825031464</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034688189618406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034609271869664</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.0210118353642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9967607187804837</v>
+        <v>0.9972885187099508</v>
       </c>
       <c r="D20">
-        <v>1.017718874418878</v>
+        <v>1.01788193971981</v>
       </c>
       <c r="E20">
-        <v>1.006546826378532</v>
+        <v>1.007069149148116</v>
       </c>
       <c r="F20">
-        <v>1.010944684145056</v>
+        <v>1.011174162658732</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041991050293641</v>
+        <v>1.042229820156591</v>
       </c>
       <c r="J20">
-        <v>1.024417082904064</v>
+        <v>1.024924365041331</v>
       </c>
       <c r="K20">
-        <v>1.031457153443311</v>
+        <v>1.03161747929934</v>
       </c>
       <c r="L20">
-        <v>1.020475526356289</v>
+        <v>1.020988824674897</v>
       </c>
       <c r="M20">
-        <v>1.024797776310028</v>
+        <v>1.025023332960722</v>
       </c>
       <c r="N20">
-        <v>1.011286315792564</v>
+        <v>1.0134255737048</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028239462928491</v>
+        <v>1.028417969900087</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033392121137769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033522020480681</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020584624447228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9911013366569948</v>
+        <v>0.9921898474658563</v>
       </c>
       <c r="D21">
-        <v>1.013967710676868</v>
+        <v>1.014675363866107</v>
       </c>
       <c r="E21">
-        <v>1.00155979317246</v>
+        <v>1.002635203151113</v>
       </c>
       <c r="F21">
-        <v>1.006597179930977</v>
+        <v>1.007071605736283</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040355692078468</v>
+        <v>1.040913786382336</v>
       </c>
       <c r="J21">
-        <v>1.02097587700783</v>
+        <v>1.022017776567371</v>
       </c>
       <c r="K21">
-        <v>1.028689205865128</v>
+        <v>1.029383940613756</v>
       </c>
       <c r="L21">
-        <v>1.01651167492793</v>
+        <v>1.017566822198154</v>
       </c>
       <c r="M21">
-        <v>1.021454635423916</v>
+        <v>1.021920231569206</v>
       </c>
       <c r="N21">
-        <v>1.010046308796772</v>
+        <v>1.013035827978395</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025552136909295</v>
+        <v>1.025920632796582</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031438317617007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031946403872138</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02008406799506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9875130623937679</v>
+        <v>0.9889604173450998</v>
       </c>
       <c r="D22">
-        <v>1.011595159911866</v>
+        <v>1.012650760078759</v>
       </c>
       <c r="E22">
-        <v>0.9984111408296475</v>
+        <v>0.9998394778574615</v>
       </c>
       <c r="F22">
-        <v>1.00397383123819</v>
+        <v>1.00460532474193</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039319426691979</v>
+        <v>1.040082023547715</v>
       </c>
       <c r="J22">
-        <v>1.018811274605038</v>
+        <v>1.020192913969569</v>
       </c>
       <c r="K22">
-        <v>1.026940361679758</v>
+        <v>1.027975700853051</v>
       </c>
       <c r="L22">
-        <v>1.014014139177974</v>
+        <v>1.01541411539368</v>
       </c>
       <c r="M22">
-        <v>1.019466974668772</v>
+        <v>1.020086098000997</v>
       </c>
       <c r="N22">
-        <v>1.009268848614737</v>
+        <v>1.012790800419615</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.023979001339295</v>
+        <v>1.024469007347266</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030188234370208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030935858783023</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01976875218372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9894074696432752</v>
+        <v>0.9906470708793093</v>
       </c>
       <c r="D23">
-        <v>1.012839801104772</v>
+        <v>1.013697201748286</v>
       </c>
       <c r="E23">
-        <v>1.00007098061372</v>
+        <v>1.001295025602914</v>
       </c>
       <c r="F23">
-        <v>1.005362400814656</v>
+        <v>1.005902946465664</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039861202637778</v>
+        <v>1.040505861911551</v>
       </c>
       <c r="J23">
-        <v>1.019948605842066</v>
+        <v>1.021133630794249</v>
       </c>
       <c r="K23">
-        <v>1.027854096677514</v>
+        <v>1.028695468159867</v>
       </c>
       <c r="L23">
-        <v>1.015328252599602</v>
+        <v>1.016528653579517</v>
       </c>
       <c r="M23">
-        <v>1.020518003182494</v>
+        <v>1.021048241529823</v>
       </c>
       <c r="N23">
-        <v>1.00967449341897</v>
+        <v>1.012869553688007</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024810839084541</v>
+        <v>1.025230496457916</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03082460525526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031434143628197</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019925962240138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967121388774876</v>
+        <v>0.9972488196490519</v>
       </c>
       <c r="D24">
-        <v>1.017663754045495</v>
+        <v>1.017835420884707</v>
       </c>
       <c r="E24">
-        <v>1.006488731910281</v>
+        <v>1.007019854462967</v>
       </c>
       <c r="F24">
-        <v>1.010734245986928</v>
+        <v>1.010967762725369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041942456159967</v>
+        <v>1.042187054088483</v>
       </c>
       <c r="J24">
-        <v>1.024337342399979</v>
+        <v>1.024853186864385</v>
       </c>
       <c r="K24">
-        <v>1.031387616089519</v>
+        <v>1.031556402309239</v>
       </c>
       <c r="L24">
-        <v>1.020402848353762</v>
+        <v>1.020924804961431</v>
       </c>
       <c r="M24">
-        <v>1.024575442528762</v>
+        <v>1.024804971395525</v>
       </c>
       <c r="N24">
-        <v>1.011244008428521</v>
+        <v>1.013391940189925</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02802209468243</v>
+        <v>1.028203754584757</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033315458013293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033448674995805</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020561103294747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004841805031345</v>
+        <v>1.004847449753949</v>
       </c>
       <c r="D25">
-        <v>1.023055529692942</v>
+        <v>1.022657375141721</v>
       </c>
       <c r="E25">
-        <v>1.013659093812346</v>
+        <v>1.013664693029309</v>
       </c>
       <c r="F25">
-        <v>1.016762223700855</v>
+        <v>1.016764673704325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044220392257039</v>
+        <v>1.044153295372461</v>
       </c>
       <c r="J25">
-        <v>1.02920731463675</v>
+        <v>1.029212771930112</v>
       </c>
       <c r="K25">
-        <v>1.035306178570675</v>
+        <v>1.03491385913501</v>
       </c>
       <c r="L25">
-        <v>1.026049006787736</v>
+        <v>1.026054522040646</v>
       </c>
       <c r="M25">
-        <v>1.029105783399667</v>
+        <v>1.029108196948127</v>
       </c>
       <c r="N25">
-        <v>1.012983924895863</v>
+        <v>1.014569715598954</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.031607609945995</v>
+        <v>1.031609520131728</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036083223051559</v>
+        <v>1.035819387257816</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021319669229156</v>
       </c>
     </row>
   </sheetData>
